--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dclass\Desktop\spenta\spenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE55B43-1EB4-4BE0-930B-0A006C7C12B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="6540" yWindow="2955" windowWidth="17970" windowHeight="9075" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
-    <sheet name="플레이어" sheetId="2" r:id="rId2"/>
-    <sheet name="구현 항목" sheetId="3" r:id="rId3"/>
-    <sheet name="에셋" sheetId="4" r:id="rId4"/>
-    <sheet name="개발 일지" sheetId="5" r:id="rId5"/>
+    <sheet name="개발 메모" sheetId="6" r:id="rId2"/>
+    <sheet name="플레이어" sheetId="2" r:id="rId3"/>
+    <sheet name="구현 항목" sheetId="3" r:id="rId4"/>
+    <sheet name="에셋" sheetId="4" r:id="rId5"/>
+    <sheet name="개발 일지" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
   <si>
     <t>깃 연동</t>
   </si>
@@ -174,9 +176,6 @@
     <t>상태</t>
   </si>
   <si>
-    <t>아샤</t>
-  </si>
-  <si>
     <t>설명</t>
   </si>
   <si>
@@ -358,12 +357,6 @@
   </si>
   <si>
     <t>스펜타의 권능</t>
-  </si>
-  <si>
-    <t>카사트라</t>
-  </si>
-  <si>
-    <t>아르마이티</t>
   </si>
   <si>
     <t>이동속도</t>
@@ -532,11 +525,111 @@
     <t>몬스터 배치 쌍 / 몬스터 패턴</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>패링</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blow</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해 대상</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 찍기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아샤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아샤의 권능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lion</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>보후만의 권능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패에서 사자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shot</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카사트라</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카사트라의 권능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>창던지기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stand</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르마이티</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 토대 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파인 애니메이션 토대 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력바/재화 UI 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 / 재화 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
@@ -788,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,69 +897,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -891,43 +966,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1187,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1124,7 +1196,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1705,13 +1777,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1729,87 +1801,87 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>25</v>
@@ -1817,20 +1889,20 @@
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
@@ -1838,13 +1910,13 @@
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
@@ -1854,147 +1926,141 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="G8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="25"/>
+      <c r="G9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="25"/>
+      <c r="G11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="25"/>
+      <c r="G13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2021,7 +2087,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BAC95-27CC-4973-9473-25F015A8F0E4}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
@@ -2040,93 +2209,81 @@
   <sheetData>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26">
+        <v>100</v>
+      </c>
+      <c r="C3" s="26">
+        <v>20</v>
+      </c>
+      <c r="D3" s="26">
+        <v>200</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32">
-        <v>100</v>
-      </c>
-      <c r="C3" s="32">
-        <v>20</v>
-      </c>
-      <c r="D3" s="32">
-        <v>200</v>
-      </c>
-      <c r="E3" s="32">
-        <v>2</v>
-      </c>
-      <c r="F3" s="32">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -2135,40 +2292,40 @@
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2191,12 +2348,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2210,232 +2367,233 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="19"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="19"/>
+      <c r="C5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
+      <c r="C6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="11" t="s">
+    </row>
+    <row r="14" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="27"/>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="28"/>
+      <c r="C24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="28"/>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+      <c r="C26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="28"/>
+      <c r="C27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
-      <c r="C9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
-      <c r="C21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="46"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
-      <c r="C26" s="11" t="s">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="C28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="35"/>
-      <c r="C27" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="C28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="33"/>
-      <c r="C29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="7"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B22:B29"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B19:B21"/>
@@ -2444,7 +2602,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B22:B29"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2452,8 +2609,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH9"/>
   <sheetViews>
@@ -2463,176 +2620,136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="18.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
-    <col min="9" max="9" width="31.375" style="8" customWidth="1"/>
-    <col min="10" max="11" width="9" style="8"/>
-    <col min="12" max="12" width="32.25" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9" style="8"/>
-    <col min="15" max="15" width="32.375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="9" style="8"/>
-    <col min="17" max="17" width="9" style="8" customWidth="1"/>
-    <col min="18" max="18" width="31.375" style="8" customWidth="1"/>
-    <col min="19" max="34" width="9" style="8" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="8"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="31.375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="32.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="32.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.375" style="1" customWidth="1"/>
+    <col min="19" max="34" width="9" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="I1" s="36" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="I1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="L1" s="36" t="s">
+      <c r="J1" s="19"/>
+      <c r="L1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="Q1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="4:34" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="9"/>
-      <c r="E3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
     </row>
     <row r="4" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="D4" s="8"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="4:34" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="16" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="7" spans="4:34" x14ac:dyDescent="0.3">
+      <c r="I7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="L7" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="I7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="L7" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="4:34" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="9"/>
-      <c r="J9" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2646,12 +2763,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -2659,78 +2776,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="G1:I5"/>
+  <dimension ref="G1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="23.75" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="7" customWidth="1"/>
+    <col min="8" max="9" width="28.875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="32">
+        <v>45313</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="40">
-        <v>45313</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="41"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="43">
+      <c r="G4" s="34">
         <v>45317</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>148</v>
+      <c r="H4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="44"/>
-      <c r="H5" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="33"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="32">
+        <v>45320</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="39"/>
+      <c r="H7" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="39"/>
+      <c r="H8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="33"/>
+      <c r="H9" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE55B43-1EB4-4BE0-930B-0A006C7C12B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6544F0-78B5-4E7A-A8F9-547B2C102D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2955" windowWidth="17970" windowHeight="9075" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>대화 시스템</t>
   </si>
   <si>
-    <t>빞의 권능</t>
-  </si>
-  <si>
     <t xml:space="preserve">사랑의 권능 </t>
   </si>
   <si>
@@ -623,6 +620,10 @@
   </si>
   <si>
     <t>체력 / 재화 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 권능</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -933,6 +934,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,6 +964,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,12 +999,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1781,9 +1782,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11:D12"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1801,13 +1802,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>49</v>
@@ -1824,20 +1825,20 @@
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>73</v>
@@ -1845,13 +1846,13 @@
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>26</v>
@@ -1868,20 +1869,20 @@
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>25</v>
@@ -1889,13 +1890,13 @@
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
@@ -1910,7 +1911,7 @@
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>66</v>
@@ -1934,133 +1935,133 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2104,79 +2105,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -2218,36 +2219,36 @@
         <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26">
+      <c r="B3" s="28">
         <v>100</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="28">
         <v>20</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="28">
         <v>200</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="28">
         <v>2</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="28">
         <v>1</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="28">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2258,17 +2259,17 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2276,14 +2277,14 @@
     <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -2292,40 +2293,40 @@
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2353,7 +2354,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2367,43 +2368,43 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>117</v>
+      <c r="C3" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
@@ -2412,57 +2413,57 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>101</v>
+      <c r="B12" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2473,7 +2474,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
@@ -2486,12 +2487,12 @@
         <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2502,17 +2503,17 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="26" t="s">
-        <v>103</v>
+      <c r="B19" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
@@ -2520,72 +2521,72 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
-        <v>108</v>
+      <c r="B22" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="6" t="s">
         <v>62</v>
       </c>
@@ -2640,20 +2641,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="19"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
@@ -2681,18 +2682,18 @@
         <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="T3" s="11"/>
@@ -2719,19 +2720,19 @@
     <row r="5" spans="4:34" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="3"/>
       <c r="J5" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5" s="14"/>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="L7" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="L7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I8" s="3"/>
@@ -2746,7 +2747,7 @@
     <row r="9" spans="4:34" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="13" t="s">
@@ -2781,7 +2782,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="G1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6:I9"/>
     </sheetView>
@@ -2799,77 +2800,77 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="32">
+      <c r="G2" s="34">
         <v>45313</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="33"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="34">
+      <c r="G4" s="36">
         <v>45317</v>
       </c>
       <c r="H4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="37"/>
+      <c r="H5" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="35"/>
-      <c r="H5" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="32">
+      <c r="G6" s="34">
         <v>45320</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="26"/>
+        <v>167</v>
+      </c>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G7" s="39"/>
       <c r="H7" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="28"/>
+        <v>168</v>
+      </c>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G8" s="39"/>
       <c r="H8" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I8" s="28"/>
+        <v>170</v>
+      </c>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="33"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9" s="27"/>
+        <v>169</v>
+      </c>
+      <c r="I9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dclass\Desktop\spenta\spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6544F0-78B5-4E7A-A8F9-547B2C102D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
   <si>
     <t>깃 연동</t>
   </si>
@@ -626,11 +625,115 @@
     <t>빛의 권능</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>스킬 애니메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스펜타의 권능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추가적으로 생각난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 것</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 판정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉴드/ 쉴드UI 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>아메샤의 권능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스펜타의 권능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 강화 구현</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스파인 직접</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 건들여보기</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
@@ -882,7 +985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +1040,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,6 +1107,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,7 +1300,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1197,7 +1309,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1219,6 +1331,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>369624</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>97519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F410B51-A7A0-413C-9B98-E4D0C370C74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771899" y="0"/>
+          <a:ext cx="11151925" cy="5755369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>607800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AF3F02-1722-4DD8-BE3A-3300F0E930C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905249" y="5667872"/>
+          <a:ext cx="9199351" cy="5190628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1778,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -1946,122 +2151,122 @@
       <c r="F8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2088,11 +2293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BAC95-27CC-4973-9473-25F015A8F0E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2105,11 +2310,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2187,16 +2392,17 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2227,28 +2433,28 @@
       <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28">
+      <c r="B3" s="29">
         <v>100</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="29">
         <v>20</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="29">
         <v>200</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="29">
         <v>2</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="29">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2259,12 +2465,12 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
@@ -2277,14 +2483,14 @@
     <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -2293,10 +2499,10 @@
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
@@ -2305,16 +2511,16 @@
       <c r="C15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
@@ -2323,10 +2529,10 @@
       <c r="C16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2350,12 +2556,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B3:D29"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2364,29 +2570,41 @@
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="59.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="57.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="29"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>103</v>
       </c>
@@ -2394,8 +2612,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
       <c r="C6" s="6" t="s">
         <v>104</v>
       </c>
@@ -2403,8 +2621,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
       <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
@@ -2412,8 +2630,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2421,22 +2639,22 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="31"/>
       <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>108</v>
       </c>
@@ -2444,26 +2662,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2473,8 +2691,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
+    <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="30"/>
       <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
@@ -2482,7 +2700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>88</v>
       </c>
@@ -2492,7 +2710,7 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2503,7 +2721,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="3" t="s">
         <v>79</v>
       </c>
@@ -2512,7 +2730,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2521,21 +2739,21 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="29" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2544,49 +2762,49 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="6" t="s">
         <v>62</v>
       </c>
@@ -2611,12 +2829,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2641,20 +2859,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="I1" s="20" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="21"/>
+      <c r="L1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
@@ -2725,14 +2943,14 @@
       <c r="M5" s="14"/>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="L7" s="20" t="s">
+      <c r="J7" s="21"/>
+      <c r="L7" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I8" s="3"/>
@@ -2764,12 +2982,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -2778,13 +2996,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="G1:I9"/>
+  <dimension ref="G1:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6:I9"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2807,73 +3025,114 @@
       </c>
     </row>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="34">
+      <c r="G2" s="35">
         <v>45313</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="35"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="36">
+      <c r="G4" s="37">
         <v>45317</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="39" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="37"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="34">
+      <c r="G6" s="35">
         <v>45320</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="39"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="35"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="35">
+        <v>45323</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="40"/>
+      <c r="H11" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="40"/>
+      <c r="H12" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="40"/>
+      <c r="H13" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="36"/>
+      <c r="H14" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="I10:I14"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="I2:I3"/>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dclass\Desktop\spenta\spenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C4A9B2-D6BD-468B-B6C0-570FDB338D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
     <sheet name="개발 메모" sheetId="6" r:id="rId2"/>
     <sheet name="플레이어" sheetId="2" r:id="rId3"/>
     <sheet name="구현 항목" sheetId="3" r:id="rId4"/>
-    <sheet name="에셋" sheetId="4" r:id="rId5"/>
-    <sheet name="개발 일지" sheetId="5" r:id="rId6"/>
+    <sheet name="개발 일지" sheetId="5" r:id="rId5"/>
+    <sheet name="에셋" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -733,7 +734,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
@@ -985,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,39 +1041,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,9 +1095,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,15 +1112,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1300,7 +1298,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1309,7 +1307,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1983,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -2293,7 +2291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2397,7 +2395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
@@ -2556,12 +2554,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2576,12 +2574,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="18" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2829,11 +2827,162 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="G1:I14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="23.75" style="7" customWidth="1"/>
+    <col min="8" max="9" width="28.875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="35">
+        <v>45313</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="37"/>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="39">
+        <v>45317</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="40"/>
+      <c r="H5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="35">
+        <v>45320</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="36"/>
+      <c r="H7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="36"/>
+      <c r="H8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="37"/>
+      <c r="H9" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="35">
+        <v>45323</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="36"/>
+      <c r="H11" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="36"/>
+      <c r="H12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="36"/>
+      <c r="H13" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="37"/>
+      <c r="H14" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH9"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -2982,166 +3131,15 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId7"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="G1:I14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="23.75" style="7" customWidth="1"/>
-    <col min="8" max="9" width="28.875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="35">
-        <v>45313</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="36"/>
-      <c r="H3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="37">
-        <v>45317</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="38"/>
-      <c r="H5" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="35">
-        <v>45320</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="40"/>
-      <c r="H7" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="40"/>
-      <c r="H8" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="36"/>
-      <c r="H9" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="35">
-        <v>45323</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="40"/>
-      <c r="H11" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="40"/>
-      <c r="H12" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="40"/>
-      <c r="H13" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="36"/>
-      <c r="H14" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I14" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C4A9B2-D6BD-468B-B6C0-570FDB338D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B841D19-447B-4904-BF9E-CAE5186CC0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="개발 일지" sheetId="5" r:id="rId5"/>
     <sheet name="에셋" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="184">
   <si>
     <t>깃 연동</t>
   </si>
@@ -728,6 +741,22 @@
       </rPr>
       <t xml:space="preserve"> 건들여보기</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAction</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.14</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파인 애니메이션 적용 방식 변환</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1112,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1092,26 +1142,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1985,9 +2017,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2292,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2383,6 +2415,14 @@
         <v>165</v>
       </c>
       <c r="C8" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2400,7 +2440,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2558,8 +2598,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2829,18 +2869,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="G1:I14"/>
+  <dimension ref="G1:I15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23.75" style="7" customWidth="1"/>
-    <col min="8" max="9" width="28.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2856,7 +2897,7 @@
       </c>
     </row>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="35">
+      <c r="G2" s="32">
         <v>45313</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2867,32 +2908,32 @@
       </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="37"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="30"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="39">
+      <c r="G4" s="36">
         <v>45317</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="38" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="40"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="15" t="s">
         <v>143</v>
       </c>
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>45320</v>
       </c>
       <c r="H6" s="15" t="s">
@@ -2901,64 +2942,72 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="36"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="15" t="s">
         <v>168</v>
       </c>
       <c r="I7" s="31"/>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="36"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="15" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="31"/>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="37"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="15" t="s">
         <v>169</v>
       </c>
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="35">
+      <c r="G10" s="32">
         <v>45323</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="36"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="15" t="s">
         <v>173</v>
       </c>
       <c r="I11" s="31"/>
     </row>
     <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="36"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="15" t="s">
         <v>176</v>
       </c>
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="36"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="15" t="s">
         <v>177</v>
       </c>
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="37"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="15" t="s">
         <v>178</v>
       </c>
       <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G15" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3008,12 +3057,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="I1" s="21" t="s">
         <v>33</v>
       </c>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -8,28 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A00580-C84E-4F8D-BF87-B04C4CBAECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA505781-9D2E-4D25-8EF1-E258D2BE87F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
     <sheet name="개발 메모" sheetId="2" r:id="rId2"/>
     <sheet name="플레이어" sheetId="3" r:id="rId3"/>
     <sheet name="구현 항목" sheetId="4" r:id="rId4"/>
-    <sheet name="개발 일지" sheetId="5" r:id="rId5"/>
-    <sheet name="에셋" sheetId="6" r:id="rId6"/>
+    <sheet name="NPC" sheetId="7" r:id="rId5"/>
+    <sheet name="개발 일지" sheetId="5" r:id="rId6"/>
+    <sheet name="에셋" sheetId="6" r:id="rId7"/>
+    <sheet name="개발 의문" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="190">
-  <si>
-    <t>네임드 몬스터 처치를 통해 획득한 
-꺠달음의 조각으로 자라투스트라의 모닥불에서 강화 가능</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="235">
   <si>
     <t>보호막 생성시간 1초로 감소
 평온 상태 돌입까지 걸리는 시간 -1초</t>
@@ -54,9 +52,6 @@
   </si>
   <si>
     <t>쉴드 UI 변경</t>
-  </si>
-  <si>
-    <t>추가적으로 사망 시 어느정도 비율 or 한계를 두고 보유한 채로 부활 고민 중</t>
   </si>
   <si>
     <t xml:space="preserve">픽셀 아님
@@ -723,7 +718,198 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>아메샤의 권능 강화 테스트용 구현</t>
+    <t>아메샤의 권능 강화 등장 구현</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메샤의 권능 강화 등장에서 
+랜덤하게 나오는 시스템 변경 필요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.02.19</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스펜타 마이뉴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛과 불꽃으로 이루어진 거대한 새, 어두운 색의 쇠사슬로 묶여있음</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.자신의 역할에 대해 듣기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>*샤오샨츠야, 나는 아그라 마이뉴에게 패배하여 힘을 잃고 여기에 갇혀있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 너는 내 분신이자 내 힘의 편린이다. 너는 나와 같으니, 어둠의 정령 다에바들을 
+물리치고 나의 힘을 되찾아다오. 나의 힘이 돌아올 수록 너 또한 강해진다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 붙잡힌 내 휘하의 아메샤 스펜타들을 만난다면 그들이 풀려나 힘들 되찾도록 도와다오.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 능력에 대해 듣기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 너는 나의 힘, 권능을 어느정도 다를 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 선한 생각에서 오는 강한 힘 '보후만'은 너의 힘을 순간적으로 증폭하여 강하게 공격할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>질서와 정의에서 오는 힘 '아샤'를 통해 적들 여럿에게 불길로서 심판 할 수도 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 영적인 힘 '카사트라'는 모든 물체를 관통하며 너의 적들도 무자비하게 관통 할 수 있을 것이야.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막으로 궁극적 진리 '아르마이티'를 깨달아 잠시동안 신격 미트라로 현신 할 수 있다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳을 떠나기 전에 한 번 권능을 시험해보며 익숙해지고 떠나는 것도 좋은 방법이지.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 대화종료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>자라투스트라</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 허허, 자네가 바로 예언의 화신이로군.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이곳에서 심득을 얻어가면 좋겠네.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 부디 무운을 빈다…</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 자네의 여정에 불의 가호가 있기를…</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작스테이지에 존재</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성 스테이지의 깨달음의 모닥불 옆에 존재한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 구출 전</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 스테이지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>보후 마나흐 (아메샤 스펜타의 일원)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 구해주러 왔구나! 너에게서 스펜타님의 힘이 느껴져…</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>*도와줘서 고마워, 내가 가진 불꽃의 힘을 일부 나눠줄게.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 구출 후 (다른 아메샤 스펜타 NPC 포함)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 고난을 이겨내고 악을 물리치기를…</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스펜타 님을 위하여..!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 다에바를 도륙하고 악을 심판하리라!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가적으로 사망 시 어느정도 비율 or 한계를 두고 보유한 채로 부활 고민 중 -&gt; 둘 중 어느재화를 할지 고민중</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>자라투스트라 는 일반 스테이지에는 존재 x?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메샤 스펜타의 유일한 일원? 아샤 바히스타, 크샤트라 바이르야, 스펜타 아르마이티, 하우르 비타트, 아메레타트 존재 x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 스테이지에 등장하는 모닥불에서 랜덤한 등급의 아메샤의 권능 강화, 재화량의 고민중, 아래 단계의 것 구매 가능 여부</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 몬스터 처치를 통해 획득한 
+꺠달음의 조각으로 자라투스트라의 모닥불에서 강화 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메샤의 권능 강화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 강화 성공 확률 개념 도입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 랜덤한 등장 확률 유지 + 재화 소모를 통한 새로고침</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>네임드 몬스터 처치를 통해 획득하는 꺠달음의 조각 -&gt; 스펜타의 권능 강화 (각성 스테이지 에서)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치를 통해 획득하는 지식의 불꽃을 소모 -&gt; 아메샤의 권능 강화 (일반 스테이지 에서)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +920,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -790,8 +976,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +1002,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -971,7 +1170,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,8 +1180,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1233,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,6 +1284,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,17 +1299,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
@@ -1282,7 +1512,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1291,7 +1521,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1989,132 +2219,132 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2122,133 +2352,133 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="18"/>
+        <v>126</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="H9" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="18"/>
+      <c r="F13" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2277,10 +2507,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,89 +2523,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2394,7 +2928,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2408,66 +2942,66 @@
   <sheetData>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="27">
+        <v>100</v>
+      </c>
+      <c r="C3" s="27">
+        <v>20</v>
+      </c>
+      <c r="D3" s="27">
+        <v>200</v>
+      </c>
+      <c r="E3" s="27">
+        <v>2</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25">
-        <v>100</v>
-      </c>
-      <c r="C3" s="25">
-        <v>20</v>
-      </c>
-      <c r="D3" s="25">
-        <v>200</v>
-      </c>
-      <c r="E3" s="25">
-        <v>2</v>
-      </c>
-      <c r="F3" s="25">
-        <v>1</v>
-      </c>
-      <c r="G3" s="25">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2475,59 +3009,53 @@
     <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+        <v>80</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
@@ -2539,7 +3067,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F15:I15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2553,7 +3080,7 @@
   <dimension ref="B1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2569,236 +3096,236 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>77</v>
+      <c r="B3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
-        <v>14</v>
+      <c r="B8" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>129</v>
+      <c r="C12" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
-        <v>17</v>
+      <c r="B14" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>188</v>
+        <v>145</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+      <c r="C23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+      <c r="C26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="C27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="26"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -2821,13 +3348,262 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA205390-5228-4BEE-B502-5FD5F9A1424B}">
+  <dimension ref="C3:F53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="84" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="43"/>
+      <c r="E4" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="43"/>
+      <c r="E5" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="E12" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="45"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="G1:I19"/>
+  <dimension ref="G1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="J2:K2"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2840,162 +3616,175 @@
   <sheetData>
     <row r="1" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G1" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="28">
+      <c r="G2" s="30">
         <v>45313</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="30"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="26"/>
+        <v>109</v>
+      </c>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="28">
+      <c r="G4" s="30">
         <v>45317</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="32"/>
+      <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="30">
+        <v>45320</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="31"/>
+      <c r="H7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="31"/>
+      <c r="H8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="32"/>
+      <c r="H9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="30">
+        <v>45323</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="31"/>
+      <c r="H11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="31"/>
+      <c r="H12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="31"/>
+      <c r="H13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="32"/>
+      <c r="H14" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="30"/>
-      <c r="H5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="26"/>
-    </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="28">
-        <v>45320</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="29"/>
-      <c r="H7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="29"/>
-      <c r="H8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="30"/>
-      <c r="H9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="28">
-        <v>45323</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="29"/>
-      <c r="H11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="29"/>
-      <c r="H12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="29"/>
-      <c r="H13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="30"/>
-      <c r="H14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G15" s="28" t="s">
-        <v>137</v>
+      <c r="G15" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>186</v>
+        <v>96</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="29"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G17" s="29"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="32"/>
+      <c r="H18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G19" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G18" s="30"/>
-      <c r="H18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="36" t="s">
+      <c r="I19" s="41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>189</v>
-      </c>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="I19:I21"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="G10:G14"/>
@@ -3013,12 +3802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -3044,59 +3833,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="I1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="L1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="18"/>
+      <c r="D1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="L1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="4:34" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="T3" s="11"/>
@@ -3123,38 +3912,38 @@
     <row r="5" spans="4:34" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="3"/>
       <c r="J5" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M5" s="14"/>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="I7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="L7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="18"/>
+      <c r="I7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="L7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="4:34" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3178,4 +3967,123 @@
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A557A6DF-E55C-425B-A2E8-0ED8A62A46B4}">
+  <dimension ref="E7:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E7" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+    </row>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E9" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E10" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E11" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:Q8"/>
+    <mergeCell ref="E9:Q9"/>
+    <mergeCell ref="E10:Q10"/>
+    <mergeCell ref="E11:Q11"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="권능" sheetId="1" r:id="rId4"/>
@@ -33,298 +33,84 @@
 물리치고 나의 힘을 되찾아다오. 나의 힘이 돌아올 수록 너 또한 강해진다.</x:t>
   </x:si>
   <x:si>
-    <x:t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화 등장에서 
-랜덤하게 나오는 시스템 변경 필요</x:t>
+    <x:t>질서와 정의에서 오는 힘 '아샤'를 통해 적들 여럿에게 불길로서 심판 할 수도 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이곳을 떠나기 전에 한 번 권능을 시험해보며 익숙해지고 떠나는 것도 좋은 방법이지.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 처치를 통해 획득하는 지식의 불꽃을 소모 -&gt; 아메샤의 권능 강화 (일반 스테이지 에서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 선한 생각에서 오는 강한 힘 '보후만'은 너의 힘을 순간적으로 증폭하여 강하게 공격할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네임드 몬스터 처치를 통해 획득하는 꺠달음의 조각 -&gt; 스펜타의 권능 강화 (각성 스테이지 에서)</x:t>
   </x:si>
   <x:si>
     <x:t>투사체 속도 2배 + 불꽃 창이 최대 사거리 도착 후 되돌아옴</x:t>
   </x:si>
   <x:si>
-    <x:t>2. 랜덤한 등장 확률 유지 + 재화 소모를 통한 새로고침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*도와줘서 고마워, 내가 가진 불꽃의 힘을 일부 나눠줄게.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지속적으로 불길이 솟아오름 (지속시간 3초 / 1초 마다 생성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나의 영적인 힘 '카사트라'는 모든 물체를 관통하며 너의 적들도 무자비하게 관통 할 수 있을 것이야.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤 스펜타의 유일한 일원? 아샤 바히스타, 크샤트라 바이르야, 스펜타 아르마이티, 하우르 비타트, 아메레타트 존재 x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 스테이지에 등장하는 모닥불에서 랜덤한 등급의 아메샤의 권능 강화, 재화량의 고민중, 아래 단계의 것 구매 가능 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광역기 (Q)
-바닥을 내려찍으며 자신의 주변 바닥에서 불길이 일어난다
-스킬 계수 : 1.7 / 쿨타임 : 25초 / 사거리 : 죄우 400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가적으로 사망 시 어느정도 비율 or 한계를 두고 보유한 채로 부활 고민 중 -&gt; 둘 중 어느재화를 할지 고민중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근거리 단일기 (E)
-전방에 강하게 불꽃 칼날을 내려 찍으며 큰 데미지를 준다
-스킬 계수 : 2.0 / 쿨타임 : 7초 / 사정거리 : 전방 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원거리 관통기 (D)
-오른손에 불꽃 창을 생성하여 잠시 후 직선으로 내던진다
-스킬 계수 : 1.5 / 쿨타임 : 10초 / 사거리 : 전방 1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이곳을 떠나기 전에 한 번 권능을 시험해보며 익숙해지고 떠나는 것도 좋은 방법이지.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질서와 정의에서 오는 힘 '아샤'를 통해 적들 여럿에게 불길로서 심판 할 수도 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 선한 생각에서 오는 강한 힘 '보후만'은 너의 힘을 순간적으로 증폭하여 강하게 공격할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네임드 몬스터 처치를 통해 획득하는 꺠달음의 조각 -&gt; 스펜타의 권능 강화 (각성 스테이지 에서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 처치를 통해 획득하는 지식의 불꽃을 소모 -&gt; 아메샤의 권능 강화 (일반 스테이지 에서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*샤오샨츠야, 나는 아그라 마이뉴에게 패배하여 힘을 잃고 여기에 갇혀있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깃 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Knock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 : C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르마이티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>애니메이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각성 스킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 몬스터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 스킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stand</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사랑의 권능 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>네임드 몬스터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI컴포넌트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창던지기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대화  기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이틀 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지식의 불꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피격 판정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깨달음의 조각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권능 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아샤의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권능 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카사트라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 날자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임 15초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호작용/대화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 구출 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 스테이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자라투스트라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생명의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중급 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 대화종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스파인 외주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜타 마이뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사운드 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재화 보유량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 스킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대화 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜타의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보후만의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방패에서 사자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심화 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기초 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진리의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빛의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메사의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분해 대상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Block</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥 찍기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막으로 궁극적 진리 '아르마이티'를 깨달아 잠시동안 신격 미트라로 현신 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네임드 몬스터 처치를 통해 획득한 
-꺠달음의 조각으로 자라투스트라의 모닥불에서 강화 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 처치를 통해 획득한 
-지식의 불꽃을 소모하여 자라투스트라의 모닥불(일반)에서 강화가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 붙잡힌 내 휘하의 아메샤 스펜타들을 만난다면 그들이 풀려나 힘들 되찾도록 도와다오.</x:t>
+    <x:t>희귀 (25%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 랜덤 제작 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조작 / 전투 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉴드/ 쉴드UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스킬 토대 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 (70%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game
+UI 02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작스테이지에 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flog -Mage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asmodeus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 피격 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도 0.6 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attacked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 / 재화 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각성기 (R)
+주인공 외형 변화 + 초월적 버프
+샤오샨츠가 스펜타 마이뉴의 힘을 받아 각성하며 잠시동안 미트라의 형태가 된다
+무적 + 이동속도,공격속도가 1.5배 + 공격력 2배
+쿨타임 180초 / 지속시간 10초</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">픽셀 아님
@@ -335,531 +121,16 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>쿨타임 30초/ 패링 1초/ 정확한 타이밍 0.5초 / 무적 2초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빛과 불꽃으로 이루어진 거대한 새, 어두운 색의 쇠사슬로 묶여있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데미지 공식 : 공격 계수 x 공격력 x 100/(100+방어력)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보호막 생성시간 1초로 감소
-평온 상태 돌입까지 걸리는 시간 -1초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전투 데미지 계산 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전설 (max 1) (5%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무적 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 능력에 대해 듣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 스펜타 님을 위하여..!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전투 데미지 계산 공식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호작용 / 대화 : F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PlayerAction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 랜덤 배치 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나가는 칼날 삭제, 지진발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 부디 무운을 빈다…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패링 : 공격막기 + 무적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스파인 애니메이션 토대 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.자신의 역할에 대해 듣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력바/재화 UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력/공격속도/이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스킬 토대 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.02.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉴드/ 쉴드UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 (70%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 피격 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도 0.6 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game
-UI 02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작스테이지에 존재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 / 재화 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.02.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attacked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flog -Mage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asmodeus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화 시스템 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보후만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불안정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아샤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ETC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>걷기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>획득처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평온</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데미지 + 유틸리티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격시 체력 회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>희귀 (25%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 랜덤 제작 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조작 / 전투 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동 : 방향키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보호막 + 최대체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권능 강화 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격 : A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜타의 권능 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨 배치 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카사트라의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉴드 UI 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 스킬 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각성기 (R)
-주인공 외형 변화 + 초월적 버프
-샤오샨츠가 스펜타 마이뉴의 힘을 받아 각성하며 잠시동안 미트라의 형태가 된다
-무적 + 이동속도,공격속도가 1.5배 + 공격력 2배
-쿨타임 180초 / 지속시간 10초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zombie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화 등장 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임 감소
--0.7초 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 회복량 +1%(max5%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마별 타일맵 플랫폼 / 배경요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팝업 기능 / 화면 전환 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스파인 애니메이션 적용 방식 변환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깨달음의 조각 / 지식의 불꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 공격속도 +0.2(max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계수 증가
-+0.17 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계수 증가
-+0.33 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계수 증가
-+0.1 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 공격력 + 10(max5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 쿨타임 -1초 (max 5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임 감소
--0.5초 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 대상 증가 +1 (max 2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 최대 체력 +20(max5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 강화 성공 확률 개념 도입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리 + 250 (max 2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 배치 쌍 / 몬스터 패턴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜타의 권능 공격애도 회복 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리 + 200 (max 2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gladiator
-(Spine)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D Spine, 
-Boss Set</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ancient
-Egypt GUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정시간 동안 공격을 받지 않은 상태(기본 3초)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 계수 x 공격력 x 100/(100+방어력)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 정확한 타이밍 시간 +0.25초(max2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자라투스트라 는 일반 스테이지에는 존재 x?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 패링 지속시간 +0.25초(max4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4750
-Fantasy
-RPG
-Icons
-Pack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 구출 후 (다른 아메샤 스펜타 NPC 포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 함정으로 입는 데미지 -30%(max2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각성 스테이지의 깨달음의 모닥불 옆에 존재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>스킬 애니메이션</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 구현</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>아메샤의 권능</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 구현</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>스펜타의 권능</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 구현</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>사거리 Lv당 100 증가 (max2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LV당 보호막 최대치 +10(max2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대치 : 적에게 가한 데미지의 5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격을 받은 상태 (공격을 가한 상태 x)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 자네의 여정에 불의 가호가 있기를…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적 처치시 쿨타임 초기화 (max 1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보후 마나흐 (아메샤 스펜타의 일원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비전투 상태 3초 이후 보호막 재생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 이곳에서 심득을 얻어가면 좋겠네.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 허허, 자네가 바로 예언의 화신이로군.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 다에바를 도륙하고 악을 심판하리라!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 타이밍에 패링 시 짧은 시간 무적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 고난을 이겨내고 악을 물리치기를…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>걷기
-달리기
-패링
-창 던지기
-바닥 찍기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D
-Desert
-Sprite
-pack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dungeon
-Characters
-2D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dungeon 
-sprite 
-pack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노말 75% / 희귀 25% / 전설 5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 구해주러 왔구나! 너에게서 스펜타님의 힘이 느껴져…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스킬 사용 후 1초 이내에
- 적 처치시 쿨타임 초기화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 너는 나의 힘, 권능을 어느정도 다를 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>추가적으로 생각난</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 것</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>스파인 직접</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 건들여보기</x:t>
-    </x:r>
+    <x:t>나의 영적인 힘 '카사트라'는 모든 물체를 관통하며 너의 적들도 무자비하게 관통 할 수 있을 것이야.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화 등장에서 
+랜덤하게 나오는 시스템 변경 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광역기 (Q)
+바닥을 내려찍으며 자신의 주변 바닥에서 불길이 일어난다
+스킬 계수 : 1.7 / 쿨타임 : 25초 / 사거리 : 죄우 400</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -889,10 +160,739 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:r>
+      <x:t>스파인 직접</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 건들여보기</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>2. 능력에 대해 듣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PlayerAction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전투 데미지 계산 공식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 부디 무운을 빈다…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무적 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 랜덤 배치 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전투 데미지 계산 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나가는 칼날 삭제, 지진발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전설 (max 1) (5%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호작용 / 대화 : F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력/공격속도/이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스파인 애니메이션 토대 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.자신의 역할에 대해 듣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 스펜타 님을 위하여..!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패링 : 공격막기 + 무적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력바/재화 UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보후만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불안정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ETC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평온</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>획득처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아샤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데미지 + 유틸리티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격시 체력 회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네임드 몬스터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깃 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Knock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르마이티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>애니메이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 몬스터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각성 스킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 : C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 스킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stand</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사랑의 권능 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>피격 판정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깨달음의 조각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권능 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아샤의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카사트라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI컴포넌트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권능 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창던지기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대화  기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이틀 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지식의 불꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 구출 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임 15초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 날자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호작용/대화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 스테이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자라투스트라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생명의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중급 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스파인 외주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 대화종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜타 마이뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사운드 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재화 보유량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 스킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대화 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기초 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심화 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보후만의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진리의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방패에서 사자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜타의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분해 대상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메사의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빛의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zombie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Block</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥 찍기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가적으로 사망 시 어느정도 비율 or 한계를 두고 보유한 채로 부활 고민 중 -&gt; 둘 중 어느재화를 할지 고민중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*샤오샨츠야, 나는 아그라 마이뉴에게 패배하여 힘을 잃고 여기에 갇혀있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근거리 단일기 (E)
+전방에 강하게 불꽃 칼날을 내려 찍으며 큰 데미지를 준다
+스킬 계수 : 2.0 / 쿨타임 : 7초 / 사정거리 : 전방 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 관통기 (D)
+오른손에 불꽃 창을 생성하여 잠시 후 직선으로 내던진다
+스킬 계수 : 1.5 / 쿨타임 : 10초 / 사거리 : 전방 1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 스테이지에 등장하는 모닥불에서 랜덤한 등급의 아메샤의 권능 강화, 재화량의 고민중, 아래 단계의 것 구매 가능 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤 스펜타의 유일한 일원? 아샤 바히스타, 크샤트라 바이르야, 스펜타 아르마이티, 하우르 비타트, 아메레타트 존재 x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네임드 몬스터 처치를 통해 획득한 
+꺠달음의 조각으로 자라투스트라의 모닥불에서 강화 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 처치를 통해 획득한 
+지식의 불꽃을 소모하여 자라투스트라의 모닥불(일반)에서 강화가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 붙잡힌 내 휘하의 아메샤 스펜타들을 만난다면 그들이 풀려나 힘들 되찾도록 도와다오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막으로 궁극적 진리 '아르마이티'를 깨달아 잠시동안 신격 미트라로 현신 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임 30초/ 패링 1초/ 정확한 타이밍 0.5초 / 무적 2초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데미지 공식 : 공격 계수 x 공격력 x 100/(100+방어력)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빛과 불꽃으로 이루어진 거대한 새, 어두운 색의 쇠사슬로 묶여있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보호막 생성시간 1초로 감소
+평온 상태 돌입까지 걸리는 시간 -1초</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>스킬 애니메이션</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 구현</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>스펜타의 권능</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 구현</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>아메샤의 권능</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 구현</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>스킬 사용 후 1초 이내에
+ 적 처치시 쿨타임 초기화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 구해주러 왔구나! 너에게서 스펜타님의 힘이 느껴져…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 너는 나의 힘, 권능을 어느정도 다를 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보호막 + 최대체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동 : 방향키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 스킬 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카사트라의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격 : A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨 배치 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉴드 UI 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권능 강화 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜타의 권능 강화</x:t>
+  </x:si>
+  <x:si>
     <x:t>2024.02.23</x:t>
   </x:si>
   <x:si>
     <x:t>카메라 움직임 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>추가적으로 생각난</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 것</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>*도와줘서 고마워, 내가 가진 불꽃의 힘을 일부 나눠줄게.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 랜덤한 등장 확률 유지 + 재화 소모를 통한 새로고침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지속적으로 불길이 솟아오름 (지속시간 3초 / 1초 마다 생성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 강화 성공 확률 개념 도입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜타의 권능 공격애도 회복 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ancient
+Egypt GUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 쿨타임 -1초 (max 5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gladiator
+(Spine)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 최대 체력 +20(max5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D Spine, 
+Boss Set</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 공격력 + 10(max5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 대상 증가 +1 (max 2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리 + 250 (max 2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리 + 200 (max 2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 배치 쌍 / 몬스터 패턴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임 감소
+-0.5초 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화 시스템 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 회복량 +1%(max5%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마별 타일맵 플랫폼 / 배경요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임 감소
+-0.7초 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스파인 애니메이션 적용 방식 변환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깨달음의 조각 / 지식의 불꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 공격속도 +0.2(max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화 등장 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계수 증가
++0.33 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팝업 기능 / 화면 전환 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계수 증가
++0.17 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계수 증가
++0.1 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4750
+Fantasy
+RPG
+Icons
+Pack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 계수 x 공격력 x 100/(100+방어력)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각성 스테이지의 깨달음의 모닥불 옆에 존재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 구출 후 (다른 아메샤 스펜타 NPC 포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정시간 동안 공격을 받지 않은 상태(기본 3초)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 함정으로 입는 데미지 -30%(max2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자라투스트라 는 일반 스테이지에는 존재 x?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 패링 지속시간 +0.25초(max4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 정확한 타이밍 시간 +0.25초(max2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보후 마나흐 (아메샤 스펜타의 일원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비전투 상태 3초 이후 보호막 재생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대치 : 적에게 가한 데미지의 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격을 받은 상태 (공격을 가한 상태 x)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 타이밍에 패링 시 짧은 시간 무적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 허허, 자네가 바로 예언의 화신이로군.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 고난을 이겨내고 악을 물리치기를…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dungeon
+Characters
+2D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dungeon 
+sprite 
+pack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 다에바를 도륙하고 악을 심판하리라!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적 처치시 쿨타임 초기화 (max 1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D
+Desert
+Sprite
+pack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노말 75% / 희귀 25% / 전설 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 이곳에서 심득을 얻어가면 좋겠네.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LV당 보호막 최대치 +10(max2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 자네의 여정에 불의 가호가 있기를…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>걷기
+달리기
+패링
+창 던지기
+바닥 찍기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리 Lv당 100 증가 (max2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대기</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1111,13 +1111,41 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left>
+      <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
@@ -1128,6 +1156,20 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
@@ -1177,48 +1219,6 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -1266,7 +1266,7 @@
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="46">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1517,6 +1517,71 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1543,19 +1608,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1569,13 +1621,91 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1583,220 +1713,25 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1811,6 +1746,71 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2216,7 +2216,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2297,7 +2297,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2530,7 +2530,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3038,132 +3038,132 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A1" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>142</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>143</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>166</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A2" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C2" s="4"/>
       <x:c r="D2" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E2" s="4" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>223</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>242</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A3" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E3" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>213</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G3" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A4" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C4" s="4"/>
       <x:c r="D4" s="4" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E4" s="4" t="s">
         <x:v>202</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>224</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="G4" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>225</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D5" s="4"/>
       <x:c r="E5" s="4" t="s">
-        <x:v>189</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>218</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G5" s="4" t="s">
-        <x:v>206</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A6" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D6" s="4"/>
       <x:c r="E6" s="4" t="s">
-        <x:v>198</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>125</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" ht="30.75" customHeight="1">
@@ -3171,133 +3171,133 @@
     </x:row>
     <x:row r="8" spans="1:8" ht="30.75" customHeight="1">
       <x:c r="A8" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
       <x:c r="D8" s="4"/>
       <x:c r="E8" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F8" s="4" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G8" s="25" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H8" s="25"/>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="G8" s="27" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="H8" s="27"/>
     </x:row>
     <x:row r="9" spans="1:8" ht="38.25" customHeight="1">
-      <x:c r="A9" s="23" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="B9" s="26" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C9" s="27"/>
-      <x:c r="D9" s="28"/>
+      <x:c r="A9" s="28" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B9" s="30" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C9" s="31"/>
+      <x:c r="D9" s="32"/>
       <x:c r="E9" s="5" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="F9" s="24" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="G9" s="25" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="H9" s="25"/>
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F9" s="29" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="G9" s="27" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="H9" s="27"/>
     </x:row>
     <x:row r="10" spans="1:8" ht="36.75" customHeight="1">
-      <x:c r="A10" s="23"/>
-      <x:c r="B10" s="29"/>
-      <x:c r="C10" s="30"/>
-      <x:c r="D10" s="31"/>
+      <x:c r="A10" s="28"/>
+      <x:c r="B10" s="33"/>
+      <x:c r="C10" s="34"/>
+      <x:c r="D10" s="35"/>
       <x:c r="E10" s="5" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="F10" s="27"/>
+      <x:c r="G10" s="27"/>
+      <x:c r="H10" s="27"/>
+    </x:row>
+    <x:row r="11" spans="1:8" ht="36.75" customHeight="1">
+      <x:c r="A11" s="28" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B11" s="30" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C11" s="31"/>
+      <x:c r="D11" s="32"/>
+      <x:c r="E11" s="5" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="F11" s="27" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="G11" s="27" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H11" s="27"/>
+    </x:row>
+    <x:row r="12" spans="1:8" ht="36.75" customHeight="1">
+      <x:c r="A12" s="28"/>
+      <x:c r="B12" s="33"/>
+      <x:c r="C12" s="34"/>
+      <x:c r="D12" s="35"/>
+      <x:c r="E12" s="5" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="F12" s="27"/>
+      <x:c r="G12" s="27"/>
+      <x:c r="H12" s="27"/>
+    </x:row>
+    <x:row r="13" spans="1:8" ht="39" customHeight="1">
+      <x:c r="A13" s="28" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B13" s="30" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C13" s="31"/>
+      <x:c r="D13" s="32"/>
+      <x:c r="E13" s="5" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F13" s="27" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="G13" s="27" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="F10" s="25"/>
-      <x:c r="G10" s="25"/>
-      <x:c r="H10" s="25"/>
-    </x:row>
-    <x:row r="11" spans="1:8" ht="36.75" customHeight="1">
-      <x:c r="A11" s="23" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B11" s="26" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C11" s="27"/>
-      <x:c r="D11" s="28"/>
-      <x:c r="E11" s="5" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="F11" s="25" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="G11" s="25" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H11" s="25"/>
-    </x:row>
-    <x:row r="12" spans="1:8" ht="36.75" customHeight="1">
-      <x:c r="A12" s="23"/>
-      <x:c r="B12" s="29"/>
-      <x:c r="C12" s="30"/>
-      <x:c r="D12" s="31"/>
-      <x:c r="E12" s="5" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="F12" s="25"/>
-      <x:c r="G12" s="25"/>
-      <x:c r="H12" s="25"/>
-    </x:row>
-    <x:row r="13" spans="1:8" ht="39" customHeight="1">
-      <x:c r="A13" s="23" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="B13" s="26" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C13" s="27"/>
-      <x:c r="D13" s="28"/>
-      <x:c r="E13" s="5" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="F13" s="25" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="G13" s="25" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H13" s="25"/>
+      <x:c r="H13" s="27"/>
     </x:row>
     <x:row r="14" spans="1:8" ht="39" customHeight="1">
-      <x:c r="A14" s="23"/>
-      <x:c r="B14" s="29"/>
-      <x:c r="C14" s="30"/>
-      <x:c r="D14" s="31"/>
+      <x:c r="A14" s="28"/>
+      <x:c r="B14" s="33"/>
+      <x:c r="C14" s="34"/>
+      <x:c r="D14" s="35"/>
       <x:c r="E14" s="5" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="F14" s="25"/>
-      <x:c r="G14" s="25"/>
-      <x:c r="H14" s="25"/>
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="F14" s="27"/>
+      <x:c r="G14" s="27"/>
+      <x:c r="H14" s="27"/>
     </x:row>
     <x:row r="15" spans="1:4" ht="39" customHeight="1">
-      <x:c r="A15" s="23" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B15" s="24" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="C15" s="25"/>
-      <x:c r="D15" s="25"/>
+      <x:c r="A15" s="28" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B15" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C15" s="27"/>
+      <x:c r="D15" s="27"/>
     </x:row>
     <x:row r="16" spans="1:4" ht="50.25" customHeight="1">
-      <x:c r="A16" s="23"/>
-      <x:c r="B16" s="25"/>
-      <x:c r="C16" s="25"/>
-      <x:c r="D16" s="25"/>
+      <x:c r="A16" s="28"/>
+      <x:c r="B16" s="27"/>
+      <x:c r="C16" s="27"/>
+      <x:c r="D16" s="27"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -3327,11 +3327,11 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:N78"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F66" activeCellId="0" sqref="F66:F66"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="U31" activeCellId="0" sqref="U31:U31"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="13.25" style="2" customWidth="1"/>
     <x:col min="2" max="2" width="16.5" style="2" customWidth="1"/>
@@ -3341,88 +3341,88 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="25" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B1" s="25"/>
-      <x:c r="C1" s="25"/>
+      <x:c r="A1" s="27" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B1" s="27"/>
+      <x:c r="C1" s="27"/>
       <x:c r="D1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>160</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>91</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="4" t="s">
-        <x:v>144</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>148</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C8" s="4"/>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="3:14">
@@ -3514,7 +3514,7 @@
       <x:c r="D64" s="17"/>
       <x:c r="E64" s="17"/>
       <x:c r="F64" s="17" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G64" s="17"/>
       <x:c r="H64" s="17"/>
@@ -3530,7 +3530,7 @@
       <x:c r="D65" s="17"/>
       <x:c r="E65" s="17"/>
       <x:c r="F65" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G65" s="17"/>
       <x:c r="H65" s="17"/>
@@ -3560,7 +3560,7 @@
       <x:c r="D67" s="17"/>
       <x:c r="E67" s="17"/>
       <x:c r="F67" s="17" t="s">
-        <x:v>123</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G67" s="17"/>
       <x:c r="H67" s="17"/>
@@ -3576,7 +3576,7 @@
       <x:c r="D68" s="17"/>
       <x:c r="E68" s="17"/>
       <x:c r="F68" s="17" t="s">
-        <x:v>203</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G68" s="17"/>
       <x:c r="H68" s="17"/>
@@ -3592,7 +3592,7 @@
       <x:c r="D69" s="17"/>
       <x:c r="E69" s="17"/>
       <x:c r="F69" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G69" s="17"/>
       <x:c r="H69" s="17"/>
@@ -3759,66 +3759,66 @@
   <x:sheetData>
     <x:row r="2" spans="2:9" ht="29.25" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="H2" s="23" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="I2" s="23"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H2" s="28" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I2" s="28"/>
     </x:row>
     <x:row r="3" spans="2:9" ht="29.25" customHeight="1">
-      <x:c r="B3" s="32">
+      <x:c r="B3" s="24">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C3" s="32">
+      <x:c r="C3" s="24">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D3" s="32">
+      <x:c r="D3" s="24">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="E3" s="32">
+      <x:c r="E3" s="24">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F3" s="32">
+      <x:c r="F3" s="24">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G3" s="32">
+      <x:c r="G3" s="24">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H3" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s">
-        <x:v>211</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:9" ht="29.25" customHeight="1">
-      <x:c r="B4" s="33"/>
-      <x:c r="C4" s="33"/>
-      <x:c r="D4" s="33"/>
-      <x:c r="E4" s="33"/>
-      <x:c r="F4" s="33"/>
-      <x:c r="G4" s="33"/>
+      <x:c r="B4" s="26"/>
+      <x:c r="C4" s="26"/>
+      <x:c r="D4" s="26"/>
+      <x:c r="E4" s="26"/>
+      <x:c r="F4" s="26"/>
+      <x:c r="G4" s="26"/>
       <x:c r="H4" s="4" t="s">
-        <x:v>141</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I4" s="4" t="s">
-        <x:v>226</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="5" ht="29.25" customHeight="1"/>
@@ -3826,50 +3826,50 @@
     <x:row r="7" ht="29.25" customHeight="1"/>
     <x:row r="8" ht="29.25" customHeight="1"/>
     <x:row r="10" spans="2:7" ht="62.25" customHeight="1">
-      <x:c r="B10" s="25" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C10" s="25"/>
-      <x:c r="D10" s="25"/>
-      <x:c r="E10" s="25"/>
-      <x:c r="F10" s="25"/>
-      <x:c r="G10" s="25"/>
+      <x:c r="B10" s="27" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C10" s="27"/>
+      <x:c r="D10" s="27"/>
+      <x:c r="E10" s="27"/>
+      <x:c r="F10" s="27"/>
+      <x:c r="G10" s="27"/>
     </x:row>
     <x:row r="14" spans="2:5">
       <x:c r="B14" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D14" s="25" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E14" s="25"/>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D14" s="27" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E14" s="27"/>
     </x:row>
     <x:row r="15" spans="2:5">
       <x:c r="B15" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D15" s="25" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E15" s="25"/>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D15" s="27" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E15" s="27"/>
     </x:row>
     <x:row r="16" spans="2:5">
       <x:c r="B16" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D16" s="25" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E16" s="25"/>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D16" s="27" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="27"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="11">
@@ -3895,7 +3895,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B1:F29"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="H6" activeCellId="0" sqref="H6:H6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3912,236 +3912,236 @@
   <x:sheetData>
     <x:row r="1" spans="6:6">
       <x:c r="F1" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="6:6">
       <x:c r="F2" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:4">
-      <x:c r="B3" s="25" t="s">
+      <x:c r="B3" s="27" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="24" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D3" s="4" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:4">
+      <x:c r="B4" s="27"/>
+      <x:c r="C4" s="26"/>
+      <x:c r="D4" s="4" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:4">
+      <x:c r="B5" s="27"/>
+      <x:c r="C5" s="4" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:4">
+      <x:c r="B6" s="27"/>
+      <x:c r="C6" s="7" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D6" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:4">
+      <x:c r="B7" s="27"/>
+      <x:c r="C7" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D7" s="7" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:4">
+      <x:c r="B8" s="24" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D8" s="4"/>
+    </x:row>
+    <x:row r="9" spans="2:4">
+      <x:c r="B9" s="25"/>
+      <x:c r="C9" s="4" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D9" s="4"/>
+    </x:row>
+    <x:row r="10" spans="2:4">
+      <x:c r="B10" s="25"/>
+      <x:c r="C10" s="4" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D10" s="4"/>
+    </x:row>
+    <x:row r="11" spans="2:4">
+      <x:c r="B11" s="26"/>
+      <x:c r="C11" s="4" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D11" s="4" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:4">
+      <x:c r="B12" s="24" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C12" s="24" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:4">
+      <x:c r="B13" s="26"/>
+      <x:c r="C13" s="26"/>
+      <x:c r="D13" s="4" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:4" ht="32.75">
+      <x:c r="B14" s="24" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C14" s="4" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D14" s="5" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="C3" s="32" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D3" s="4" t="s">
+    </x:row>
+    <x:row r="15" spans="2:4" ht="32.75">
+      <x:c r="B15" s="26"/>
+      <x:c r="C15" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D15" s="5" t="s">
         <x:v>169</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="2:4">
-      <x:c r="B4" s="25"/>
-      <x:c r="C4" s="33"/>
-      <x:c r="D4" s="4" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:4">
-      <x:c r="B5" s="25"/>
-      <x:c r="C5" s="4" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D5" s="4" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:4">
-      <x:c r="B6" s="25"/>
-      <x:c r="C6" s="7" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D6" s="7" t="s">
-        <x:v>107</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="2:4">
-      <x:c r="B7" s="25"/>
-      <x:c r="C7" s="7" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D7" s="7" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:4">
-      <x:c r="B8" s="32" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D8" s="4"/>
-    </x:row>
-    <x:row r="9" spans="2:4">
-      <x:c r="B9" s="34"/>
-      <x:c r="C9" s="4" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D9" s="4"/>
-    </x:row>
-    <x:row r="10" spans="2:4">
-      <x:c r="B10" s="34"/>
-      <x:c r="C10" s="4" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="D10" s="4"/>
-    </x:row>
-    <x:row r="11" spans="2:4">
-      <x:c r="B11" s="33"/>
-      <x:c r="C11" s="4" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D11" s="4" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="2:4">
-      <x:c r="B12" s="32" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C12" s="32" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:4">
-      <x:c r="B13" s="33"/>
-      <x:c r="C13" s="33"/>
-      <x:c r="D13" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:4" ht="32.75">
-      <x:c r="B14" s="32" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="C14" s="4" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="D14" s="5" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:4" ht="32.75">
-      <x:c r="B15" s="33"/>
-      <x:c r="C15" s="4" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D15" s="5" t="s">
-        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:4">
       <x:c r="B16" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D16" s="4"/>
     </x:row>
     <x:row r="17" spans="2:4">
-      <x:c r="B17" s="32" t="s">
-        <x:v>174</x:v>
+      <x:c r="B17" s="24" t="s">
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:4">
-      <x:c r="B18" s="33"/>
+      <x:c r="B18" s="26"/>
       <x:c r="C18" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:4">
-      <x:c r="B19" s="32" t="s">
-        <x:v>68</x:v>
+      <x:c r="B19" s="24" t="s">
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D19" s="4"/>
     </x:row>
     <x:row r="20" spans="2:4">
-      <x:c r="B20" s="34"/>
+      <x:c r="B20" s="25"/>
       <x:c r="C20" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D20" s="4"/>
     </x:row>
     <x:row r="21" spans="2:4">
-      <x:c r="B21" s="33"/>
+      <x:c r="B21" s="26"/>
       <x:c r="C21" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D21" s="4"/>
     </x:row>
     <x:row r="22" spans="2:4">
-      <x:c r="B22" s="32" t="s">
-        <x:v>80</x:v>
+      <x:c r="B22" s="24" t="s">
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D22" s="4"/>
     </x:row>
     <x:row r="23" spans="2:4">
-      <x:c r="B23" s="34"/>
+      <x:c r="B23" s="25"/>
       <x:c r="C23" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D23" s="4"/>
     </x:row>
     <x:row r="24" spans="2:4">
-      <x:c r="B24" s="34"/>
+      <x:c r="B24" s="25"/>
       <x:c r="C24" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D24" s="4"/>
     </x:row>
     <x:row r="25" spans="2:4">
-      <x:c r="B25" s="34"/>
+      <x:c r="B25" s="25"/>
       <x:c r="C25" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D25" s="15"/>
     </x:row>
     <x:row r="26" spans="2:4">
-      <x:c r="B26" s="34"/>
+      <x:c r="B26" s="25"/>
       <x:c r="C26" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D26" s="4"/>
     </x:row>
     <x:row r="27" spans="2:4">
-      <x:c r="B27" s="34"/>
+      <x:c r="B27" s="25"/>
       <x:c r="C27" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D27" s="4"/>
     </x:row>
     <x:row r="28" spans="2:4">
-      <x:c r="B28" s="34"/>
+      <x:c r="B28" s="25"/>
       <x:c r="C28" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D28" s="4"/>
     </x:row>
     <x:row r="29" spans="2:4">
-      <x:c r="B29" s="33"/>
+      <x:c r="B29" s="26"/>
       <x:c r="C29" s="7" t="s">
-        <x:v>191</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D29" s="7"/>
     </x:row>
@@ -4171,7 +4171,7 @@
       <x:selection activeCell="H36" activeCellId="0" sqref="H36:H36"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="4" width="9" style="2"/>
     <x:col min="5" max="5" width="84" style="2" customWidth="1"/>
@@ -4180,232 +4180,232 @@
   <x:sheetData>
     <x:row r="3" spans="5:5">
       <x:c r="E3" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="5:5">
       <x:c r="E4" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="5:5">
       <x:c r="E5" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="5:5">
       <x:c r="E6" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="5:5">
       <x:c r="E7" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="5:5">
       <x:c r="E8" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="5:5" ht="17.25" customHeight="1">
       <x:c r="E9" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="5:5" ht="17.25" customHeight="1">
       <x:c r="E10" s="16" t="s">
-        <x:v>115</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="5:5">
       <x:c r="E11" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="5:5" ht="33">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="5:5" ht="32.75">
       <x:c r="E12" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="5:5">
       <x:c r="E13" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="5:5">
       <x:c r="E14" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="5:5">
       <x:c r="E15" s="4" t="s">
-        <x:v>243</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="5:5">
       <x:c r="E16" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="5:5">
       <x:c r="E17" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="5:5">
       <x:c r="E18" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="5:5">
       <x:c r="E19" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="5:5">
       <x:c r="E20" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="5:5">
       <x:c r="E21" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="5:5">
       <x:c r="E22" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="5:5">
       <x:c r="E26" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="5:5">
       <x:c r="E27" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="5:5">
       <x:c r="E28" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="5:5">
       <x:c r="E29" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="5:5">
       <x:c r="E30" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="5:6">
       <x:c r="E31" s="4" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
     </x:row>
     <x:row r="32" spans="5:5">
       <x:c r="E32" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="5:5">
       <x:c r="E33" s="4" t="s">
-        <x:v>232</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="5:5">
       <x:c r="E34" s="4" t="s">
-        <x:v>231</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="5:5">
       <x:c r="E35" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="5:5">
       <x:c r="E36" s="4" t="s">
-        <x:v>227</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="5:5">
       <x:c r="E40" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="5:5">
       <x:c r="E41" s="4" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="5:5">
       <x:c r="E42" s="7" t="s">
-        <x:v>146</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="5:5">
       <x:c r="E43" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="5:5">
       <x:c r="E44" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="5:5">
       <x:c r="E45" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="5:5">
       <x:c r="E46" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="5:5">
       <x:c r="E47" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="5:5">
       <x:c r="E48" s="4" t="s">
-        <x:v>241</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="5:5">
       <x:c r="E49" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="5:5">
       <x:c r="E50" s="16" t="s">
-        <x:v>217</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="5:5">
       <x:c r="E51" s="4" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="5:5">
       <x:c r="E52" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="5:5">
       <x:c r="E53" s="4" t="s">
-        <x:v>233</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4430,185 +4430,185 @@
   <x:sheetData>
     <x:row r="1" spans="7:9">
       <x:c r="G1" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H1" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I1" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="7:9">
-      <x:c r="G2" s="35">
+      <x:c r="G2" s="36">
         <x:v>45313</x:v>
       </x:c>
       <x:c r="H2" s="4" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I2" s="32" t="s">
-        <x:v>77</x:v>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I2" s="24" t="s">
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="7:9">
-      <x:c r="G3" s="36"/>
+      <x:c r="G3" s="37"/>
       <x:c r="H3" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I3" s="33"/>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I3" s="26"/>
     </x:row>
     <x:row r="4" spans="7:9">
-      <x:c r="G4" s="35">
+      <x:c r="G4" s="36">
         <x:v>45317</x:v>
       </x:c>
       <x:c r="H4" s="4" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I4" s="37" t="s">
-        <x:v>246</x:v>
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="I4" s="38" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="7:9">
-      <x:c r="G5" s="36"/>
+      <x:c r="G5" s="37"/>
       <x:c r="H5" s="4" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I5" s="33"/>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I5" s="26"/>
     </x:row>
     <x:row r="6" spans="7:9">
-      <x:c r="G6" s="35">
+      <x:c r="G6" s="36">
         <x:v>45320</x:v>
       </x:c>
       <x:c r="H6" s="4" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I6" s="32"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="I6" s="24"/>
     </x:row>
     <x:row r="7" spans="7:9">
-      <x:c r="G7" s="38"/>
+      <x:c r="G7" s="39"/>
       <x:c r="H7" s="4" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="I7" s="34"/>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I7" s="25"/>
     </x:row>
     <x:row r="8" spans="7:9">
-      <x:c r="G8" s="38"/>
+      <x:c r="G8" s="39"/>
       <x:c r="H8" s="4" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="I8" s="34"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I8" s="25"/>
     </x:row>
     <x:row r="9" spans="7:9">
-      <x:c r="G9" s="36"/>
+      <x:c r="G9" s="37"/>
       <x:c r="H9" s="4" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I9" s="33"/>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I9" s="26"/>
     </x:row>
     <x:row r="10" spans="7:9">
-      <x:c r="G10" s="35">
+      <x:c r="G10" s="36">
         <x:v>45323</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="I10" s="32" t="s">
-        <x:v>245</x:v>
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="I10" s="24" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="7:9">
-      <x:c r="G11" s="38"/>
+      <x:c r="G11" s="39"/>
       <x:c r="H11" s="4" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="I11" s="34"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="I11" s="25"/>
     </x:row>
     <x:row r="12" spans="7:9">
-      <x:c r="G12" s="38"/>
+      <x:c r="G12" s="39"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="I12" s="34"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I12" s="25"/>
     </x:row>
     <x:row r="13" spans="7:9">
-      <x:c r="G13" s="38"/>
+      <x:c r="G13" s="39"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="I13" s="34"/>
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="I13" s="25"/>
     </x:row>
     <x:row r="14" spans="7:9">
-      <x:c r="G14" s="36"/>
+      <x:c r="G14" s="37"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="I14" s="33"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I14" s="26"/>
     </x:row>
     <x:row r="15" spans="7:9">
-      <x:c r="G15" s="35" t="s">
-        <x:v>119</x:v>
+      <x:c r="G15" s="36" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="I15" s="32" t="s">
-        <x:v>66</x:v>
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="I15" s="24" t="s">
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="7:9">
-      <x:c r="G16" s="38"/>
+      <x:c r="G16" s="39"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="I16" s="34"/>
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="I16" s="25"/>
     </x:row>
     <x:row r="17" spans="7:9">
-      <x:c r="G17" s="38"/>
+      <x:c r="G17" s="39"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="I17" s="34"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I17" s="25"/>
     </x:row>
     <x:row r="18" spans="7:9">
-      <x:c r="G18" s="36"/>
+      <x:c r="G18" s="37"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I18" s="33"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I18" s="26"/>
     </x:row>
     <x:row r="19" spans="7:9">
-      <x:c r="G19" s="43" t="s">
-        <x:v>129</x:v>
+      <x:c r="G19" s="41" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="I19" s="45" t="s">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I19" s="40" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="7:9">
-      <x:c r="G20" s="44"/>
+      <x:c r="G20" s="42"/>
       <x:c r="H20" s="4" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="I20" s="45"/>
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="I20" s="40"/>
     </x:row>
     <x:row r="21" spans="7:9">
       <x:c r="G21" s="8" t="s">
-        <x:v>248</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H21" s="4" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="I21" s="42"/>
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="I21" s="23"/>
     </x:row>
     <x:row r="22" spans="8:9">
       <x:c r="H22" s="4" t="s">
-        <x:v>133</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I22" s="4" t="s">
-        <x:v>240</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4640,7 +4640,7 @@
       <x:selection activeCell="M6" activeCellId="0" sqref="M6:M6"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="3" width="9" style="2"/>
     <x:col min="4" max="4" width="18.375" style="2" customWidth="1"/>
@@ -4662,55 +4662,55 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="4:13">
-      <x:c r="D1" s="39" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E1" s="40"/>
-      <x:c r="F1" s="40"/>
-      <x:c r="G1" s="41"/>
-      <x:c r="I1" s="25" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J1" s="25"/>
-      <x:c r="L1" s="25" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="M1" s="25"/>
+      <x:c r="D1" s="43" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E1" s="44"/>
+      <x:c r="F1" s="44"/>
+      <x:c r="G1" s="45"/>
+      <x:c r="I1" s="27" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J1" s="27"/>
+      <x:c r="L1" s="27" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M1" s="27"/>
     </x:row>
     <x:row r="2" spans="4:13">
       <x:c r="D2" s="4"/>
       <x:c r="E2" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G2" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I2" s="4"/>
       <x:c r="J2" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="L2" s="4"/>
       <x:c r="M2" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="4:34" ht="128.25" customHeight="1">
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="10" t="s">
-        <x:v>208</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>236</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G3" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I3" s="4"/>
       <x:c r="J3" s="10" t="s">
-        <x:v>237</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="L3" s="4"/>
       <x:c r="M3" s="11" t="s">
@@ -4744,42 +4744,42 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="M5" s="18" t="s">
-        <x:v>209</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="9:13">
-      <x:c r="I7" s="25" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="J7" s="25"/>
-      <x:c r="L7" s="25" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="M7" s="25"/>
-    </x:row>
-    <x:row r="8" spans="9:13" customHeight="1">
+      <x:c r="I7" s="27" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J7" s="27"/>
+      <x:c r="L7" s="27" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="M7" s="27"/>
+    </x:row>
+    <x:row r="8" spans="9:13" ht="16.5" customHeight="1">
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="L8" s="4"/>
       <x:c r="M8" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="9:13" ht="123.75" customHeight="1">
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="13" t="s">
-        <x:v>216</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="L9" s="13"/>
       <x:c r="M9" s="14" t="s">
-        <x:v>126</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="13:13" ht="165" customHeight="1">
       <x:c r="M10" s="18" t="s">
-        <x:v>210</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4827,131 +4827,131 @@
   <x:sheetData>
     <x:row r="4" spans="4:6">
       <x:c r="D4" s="21" t="s">
-        <x:v>153</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E4" s="21" t="s">
-        <x:v>161</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F4" s="20" t="s">
-        <x:v>31</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="5:6">
       <x:c r="E5" s="21" t="s">
-        <x:v>131</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="20" t="s">
-        <x:v>183</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="5:6">
       <x:c r="E6" s="19"/>
       <x:c r="F6" s="20" t="s">
-        <x:v>130</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="6:6">
       <x:c r="F7" s="20" t="s">
-        <x:v>179</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="6:6">
       <x:c r="F8" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="5:6">
       <x:c r="E16" s="20" t="s">
-        <x:v>180</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F16" s="20" t="s">
-        <x:v>184</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="6:6">
       <x:c r="F17" s="20" t="s">
-        <x:v>130</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="6:6">
       <x:c r="F18" s="20" t="s">
-        <x:v>179</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="6:6">
       <x:c r="F19" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="5:6">
       <x:c r="E27" s="20" t="s">
-        <x:v>132</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F27" s="20" t="s">
-        <x:v>179</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="6:6">
       <x:c r="F28" s="20" t="s">
-        <x:v>183</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="6:6">
       <x:c r="F29" s="20" t="s">
-        <x:v>184</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="6:6">
       <x:c r="F30" s="22" t="s">
-        <x:v>186</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="5:6">
       <x:c r="E37" s="20" t="s">
-        <x:v>182</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F37" s="20" t="s">
-        <x:v>179</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="6:7">
       <x:c r="F38" s="20" t="s">
-        <x:v>183</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="6:6">
       <x:c r="F39" s="20" t="s">
-        <x:v>184</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="6:6">
       <x:c r="F40" s="22" t="s">
-        <x:v>186</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="5:6">
       <x:c r="E45" s="20" t="s">
-        <x:v>181</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F45" s="20" t="s">
-        <x:v>179</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="6:6">
       <x:c r="F46" s="20" t="s">
-        <x:v>184</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="6:6">
       <x:c r="F47" s="22" t="s">
-        <x:v>186</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -4969,87 +4969,87 @@
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <x:sheetData>
     <x:row r="7" spans="5:17">
-      <x:c r="E7" s="25" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F7" s="25"/>
-      <x:c r="G7" s="25"/>
-      <x:c r="H7" s="25"/>
-      <x:c r="I7" s="25"/>
-      <x:c r="J7" s="25"/>
-      <x:c r="K7" s="25"/>
-      <x:c r="L7" s="25"/>
-      <x:c r="M7" s="25"/>
-      <x:c r="N7" s="25"/>
-      <x:c r="O7" s="25"/>
-      <x:c r="P7" s="25"/>
-      <x:c r="Q7" s="25"/>
+      <x:c r="E7" s="27" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F7" s="27"/>
+      <x:c r="G7" s="27"/>
+      <x:c r="H7" s="27"/>
+      <x:c r="I7" s="27"/>
+      <x:c r="J7" s="27"/>
+      <x:c r="K7" s="27"/>
+      <x:c r="L7" s="27"/>
+      <x:c r="M7" s="27"/>
+      <x:c r="N7" s="27"/>
+      <x:c r="O7" s="27"/>
+      <x:c r="P7" s="27"/>
+      <x:c r="Q7" s="27"/>
     </x:row>
     <x:row r="8" spans="5:17">
-      <x:c r="E8" s="25"/>
-      <x:c r="F8" s="25"/>
-      <x:c r="G8" s="25"/>
-      <x:c r="H8" s="25"/>
-      <x:c r="I8" s="25"/>
-      <x:c r="J8" s="25"/>
-      <x:c r="K8" s="25"/>
-      <x:c r="L8" s="25"/>
-      <x:c r="M8" s="25"/>
-      <x:c r="N8" s="25"/>
-      <x:c r="O8" s="25"/>
-      <x:c r="P8" s="25"/>
-      <x:c r="Q8" s="25"/>
+      <x:c r="E8" s="27"/>
+      <x:c r="F8" s="27"/>
+      <x:c r="G8" s="27"/>
+      <x:c r="H8" s="27"/>
+      <x:c r="I8" s="27"/>
+      <x:c r="J8" s="27"/>
+      <x:c r="K8" s="27"/>
+      <x:c r="L8" s="27"/>
+      <x:c r="M8" s="27"/>
+      <x:c r="N8" s="27"/>
+      <x:c r="O8" s="27"/>
+      <x:c r="P8" s="27"/>
+      <x:c r="Q8" s="27"/>
     </x:row>
     <x:row r="9" spans="5:17">
-      <x:c r="E9" s="25" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="F9" s="25"/>
-      <x:c r="G9" s="25"/>
-      <x:c r="H9" s="25"/>
-      <x:c r="I9" s="25"/>
-      <x:c r="J9" s="25"/>
-      <x:c r="K9" s="25"/>
-      <x:c r="L9" s="25"/>
-      <x:c r="M9" s="25"/>
-      <x:c r="N9" s="25"/>
-      <x:c r="O9" s="25"/>
-      <x:c r="P9" s="25"/>
-      <x:c r="Q9" s="25"/>
+      <x:c r="E9" s="27" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="F9" s="27"/>
+      <x:c r="G9" s="27"/>
+      <x:c r="H9" s="27"/>
+      <x:c r="I9" s="27"/>
+      <x:c r="J9" s="27"/>
+      <x:c r="K9" s="27"/>
+      <x:c r="L9" s="27"/>
+      <x:c r="M9" s="27"/>
+      <x:c r="N9" s="27"/>
+      <x:c r="O9" s="27"/>
+      <x:c r="P9" s="27"/>
+      <x:c r="Q9" s="27"/>
     </x:row>
     <x:row r="10" spans="5:17">
-      <x:c r="E10" s="25" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F10" s="25"/>
-      <x:c r="G10" s="25"/>
-      <x:c r="H10" s="25"/>
-      <x:c r="I10" s="25"/>
-      <x:c r="J10" s="25"/>
-      <x:c r="K10" s="25"/>
-      <x:c r="L10" s="25"/>
-      <x:c r="M10" s="25"/>
-      <x:c r="N10" s="25"/>
-      <x:c r="O10" s="25"/>
-      <x:c r="P10" s="25"/>
-      <x:c r="Q10" s="25"/>
+      <x:c r="E10" s="27" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F10" s="27"/>
+      <x:c r="G10" s="27"/>
+      <x:c r="H10" s="27"/>
+      <x:c r="I10" s="27"/>
+      <x:c r="J10" s="27"/>
+      <x:c r="K10" s="27"/>
+      <x:c r="L10" s="27"/>
+      <x:c r="M10" s="27"/>
+      <x:c r="N10" s="27"/>
+      <x:c r="O10" s="27"/>
+      <x:c r="P10" s="27"/>
+      <x:c r="Q10" s="27"/>
     </x:row>
     <x:row r="11" spans="5:17">
-      <x:c r="E11" s="25" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F11" s="25"/>
-      <x:c r="G11" s="25"/>
-      <x:c r="H11" s="25"/>
-      <x:c r="I11" s="25"/>
-      <x:c r="J11" s="25"/>
-      <x:c r="K11" s="25"/>
-      <x:c r="L11" s="25"/>
-      <x:c r="M11" s="25"/>
-      <x:c r="N11" s="25"/>
-      <x:c r="O11" s="25"/>
-      <x:c r="P11" s="25"/>
-      <x:c r="Q11" s="25"/>
+      <x:c r="E11" s="27" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F11" s="27"/>
+      <x:c r="G11" s="27"/>
+      <x:c r="H11" s="27"/>
+      <x:c r="I11" s="27"/>
+      <x:c r="J11" s="27"/>
+      <x:c r="K11" s="27"/>
+      <x:c r="L11" s="27"/>
+      <x:c r="M11" s="27"/>
+      <x:c r="N11" s="27"/>
+      <x:c r="O11" s="27"/>
+      <x:c r="P11" s="27"/>
+      <x:c r="Q11" s="27"/>
     </x:row>
     <x:row r="12" spans="5:16">
       <x:c r="E12" s="2"/>
@@ -5072,7 +5072,7 @@
     <x:mergeCell ref="E10:Q10"/>
     <x:mergeCell ref="E11:Q11"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6885" activeTab="8"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="권능" sheetId="1" r:id="rId4"/>
@@ -20,165 +20,32 @@
     <x:sheet name="NPC" sheetId="6" r:id="rId9"/>
     <x:sheet name="에셋" sheetId="7" r:id="rId10"/>
     <x:sheet name="몬스터" sheetId="8" r:id="rId11"/>
-    <x:sheet name="개발 의문" sheetId="9" r:id="rId12"/>
+    <x:sheet name="필요 항목" sheetId="9" r:id="rId12"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="283">
-  <x:si>
-    <x:t xml:space="preserve">픽셀 아님
-스파인 모델
-근거리 단일기 -&gt; 대채제 있음
-점멸 모션 없음 (중요X)
-점프와 기본공격이 한 애니메이션에 합쳐져있음
-</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="304">
+  <x:si>
+    <x:t>몬스터 (Asmodeus) 스킬 소리 (기 모으다가 터트리는 소리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 (Frog) 스킬 (기 모으고 난 뒤 여러번 번개가 나오는 소리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패링 성공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 (Bear) 스킬 소리 ( 크게 내려찍는 소리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zombie(몬스터) 구현 완료</x:t>
   </x:si>
   <x:si>
     <x:t>* 너는 내 분신이자 내 힘의 편린이다. 너는 나와 같으니, 어둠의 정령 다에바들을 
 물리치고 나의 힘을 되찾아다오. 나의 힘이 돌아올 수록 너 또한 강해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*도와줘서 고마워, 내가 가진 불꽃의 힘을 일부 나눠줄게.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화 등장에서 
-랜덤하게 나오는 시스템 변경 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지속적으로 불길이 솟아오름 (지속시간 3초 / 1초 마다 생성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투사체 속도 2배 + 불꽃 창이 최대 사거리 도착 후 되돌아옴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 랜덤한 등장 확률 유지 + 재화 소모를 통한 새로고침</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*샤오샨츠야, 나는 아그라 마이뉴에게 패배하여 힘을 잃고 여기에 갇혀있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근거리 단일기 (E)
-전방에 강하게 불꽃 칼날을 내려 찍으며 큰 데미지를 준다
-스킬 계수 : 2.0 / 쿨타임 : 7초 / 사정거리 : 전방 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보호막 생성시간 1초로 감소
-평온 상태 돌입까지 걸리는 시간 -1초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임 30초/ 패링 1초/ 정확한 타이밍 0.5초 / 무적 2초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빛과 불꽃으로 이루어진 거대한 새, 어두운 색의 쇠사슬로 묶여있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동 : 방향키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보호막 + 최대체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레벨 배치 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜타의 권능 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.02.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격 : A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권능 강화 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카메라 움직임 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.02.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 스킬 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카사트라의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉴드 UI 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사랑의 권능 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격시 체력 회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데미지 + 유틸리티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉴드/ 쉴드UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스킬 토대 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 랜덤 제작 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조작 / 전투 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>희귀 (25%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 (70%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.02.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력 / 재화 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.02.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 피격 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game
-UI 02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도 0.6 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flog -Mage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asmodeus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attacked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작스테이지에 존재</x:t>
   </x:si>
   <x:si>
     <x:t>각성기 (R)
@@ -188,80 +55,76 @@
 쿨타임 180초 / 지속시간 10초</x:t>
   </x:si>
   <x:si>
-    <x:t>추가적으로 사망 시 어느정도 비율 or 한계를 두고 보유한 채로 부활 고민 중 -&gt; 둘 중 어느재화를 할지 고민중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스킬 사용 후 1초 이내에
- 적 처치시 쿨타임 초기화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 너는 나의 힘, 권능을 어느정도 다를 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 구해주러 왔구나! 너에게서 스펜타님의 힘이 느껴져…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나의 영적인 힘 '카사트라'는 모든 물체를 관통하며 너의 적들도 무자비하게 관통 할 수 있을 것이야.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SpriteRenderer와 다르게 MeshRenderer 에 soring layer 존재x -&gt; 깃허브에서 코드 구해와서 생성</x:t>
+    <x:t>사운드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 기본 공격 소리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 랜덤 배치 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무적 지속시간 1초 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력/공격속도/이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스파인 애니메이션 토대 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나가는 칼날 삭제, 지진발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 능력에 대해 듣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 부디 무운을 빈다…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전투 데미지 계산 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호작용 / 대화 : F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전투 데미지 계산 공식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패링 : 공격막기 + 무적</x:t>
   </x:si>
   <x:si>
     <x:t>PlayerAction</x:t>
   </x:si>
   <x:si>
-    <x:t>* 부디 무운을 빈다…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 능력에 대해 듣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전투 데미지 계산 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전투 데미지 계산 공식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무적 지속시간 1초 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 랜덤 배치 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나가는 칼날 삭제, 지진발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패링 : 공격막기 + 무적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력/공격속도/이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스파인 애니메이션 토대 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호작용 / 대화 : F</x:t>
-  </x:si>
-  <x:si>
     <x:t>1.자신의 역할에 대해 듣기</x:t>
   </x:si>
   <x:si>
+    <x:t>평온시간 3초 너무 짧음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 피격 효과 추가</x:t>
+  </x:si>
+  <x:si>
     <x:t>* 스펜타 님을 위하여..!</x:t>
   </x:si>
   <x:si>
     <x:t>전설 (max 1) (5%)</x:t>
   </x:si>
   <x:si>
+    <x:t>플레이어 공격 이펙트 추가</x:t>
+  </x:si>
+  <x:si>
     <x:t>체력바/재화 UI 구현</x:t>
   </x:si>
   <x:si>
-    <x:t>평온시간 3초 너무 짧음</x:t>
-  </x:si>
-  <x:si>
     <x:t>몬스터 사망 동작 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 사망 시 재화 드랍</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -274,6 +137,19 @@
         <x:color rgb="ff000000"/>
       </x:rPr>
       <x:t xml:space="preserve"> 건들여보기</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>스펜타의 권능</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 강화 구현</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -291,6 +167,709 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>투사체 속도 2배 + 불꽃 창이 최대 사거리 도착 후 되돌아옴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 랜덤한 등장 확률 유지 + 재화 소모를 통한 새로고침</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*도와줘서 고마워, 내가 가진 불꽃의 힘을 일부 나눠줄게.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지속적으로 불길이 솟아오름 (지속시간 3초 / 1초 마다 생성)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화 등장에서 
+랜덤하게 나오는 시스템 변경 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광역기 (Q)
+바닥을 내려찍으며 자신의 주변 바닥에서 불길이 일어난다
+스킬 계수 : 1.7 / 쿨타임 : 25초 / 사거리 : 죄우 400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gladiator
+(Spine)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화 등장 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜타의 권능 공격애도 회복 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계수 증가
++0.1 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팝업 기능 / 화면 전환 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보후만 모션 변경 / 피격 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 대상 증가 +1 (max 2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계수 증가
++0.17 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화 시스템 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테마별 타일맵 플랫폼 / 배경요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리 + 200 (max 2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 회복량 +1%(max5%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계수 증가
++0.33 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 강화 성공 확률 개념 도입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패링 모션 구현 / 패링 적용 x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스파인 애니메이션 적용 방식 변환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asmodeus(몬스터) 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asmodeus(몬스터) 스킬 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D Spine, 
+Boss Set</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 쿨타임 -1초 (max 5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 공격속도 +0.2(max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임 감소
+-0.5초 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깨달음의 조각 / 지식의 불꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 모션 추가 / 피격 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 최대 체력 +20(max5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sparkOfKnowledge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ancient
+Egypt GUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리 + 250 (max 2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 배치 쌍 / 몬스터 패턴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 공격력 + 10(max5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아샤 모션 변경 / 피격 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임 감소
+-0.7초 (max3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 스킬 (강하게 내려찍는 소리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>save 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깨달음의 조각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권능 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대화  기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 재화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 구출 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 : C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임 15초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 스킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이틀 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지식의 불꽃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카사트라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권능 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사랑의 권능 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>각성 스킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 대화종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창던지기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아샤의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI컴포넌트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 스킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜타의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 몬스터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메사의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중급 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분해 대상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자라투스트라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 스테이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호작용/대화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생명의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대화 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 날자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피격 판정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스파인 외주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방패에서 사자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보후만의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재화 보유량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기초 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빛의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진리의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사운드 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥 찍기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>심화 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Idle</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 점멸 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Block</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네임드 몬스터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Knock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깃 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아르마이티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zombie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜타 마이뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>애니메이션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평온</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ETC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>점프력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불안정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아샤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>획득처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보후만</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아스모 데우스가 스킬을 쓸떄 하트 퍼지면서 디버프 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개구리가 스킬을 쓸 떄 가까울 수록 더 높은 피해를 입힘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재화 습득시 이름에 (Clone)
+ 으로 인한 오류 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 너는 나의 힘, 권능을 어느정도 다를 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스킬 사용 후 1초 이내에
+ 적 처치시 쿨타임 초기화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 구해주러 왔구나! 너에게서 스펜타님의 힘이 느껴져…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나의 영적인 힘 '카사트라'는 모든 물체를 관통하며 너의 적들도 무자비하게 관통 할 수 있을 것이야.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 피격 소리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 (Frog) 공격 (무언가 뿌리는 소리 + 터지는 소리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 선한 생각에서 오는 강한 힘 '보후만'은 너의 힘을 순간적으로 증폭하여 강하게 공격할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 처치를 통해 획득하는 지식의 불꽃을 소모 -&gt; 아메샤의 권능 강화 (일반 스테이지 에서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mesh Renederer에서 색을 변경해서 몬스터가 죽으면 서서히 사라지게 하는 구조 불가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네임드 몬스터 처치를 통해 획득하는 꺠달음의 조각 -&gt; 스펜타의 권능 강화 (각성 스테이지 에서)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원거리 관통기 (D)
+오른손에 불꽃 창을 생성하여 잠시 후 직선으로 내던진다
+스킬 계수 : 1.5 / 쿨타임 : 10초 / 사거리 : 전방 1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근거리 단일기 (E)
+전방에 강하게 불꽃 칼날을 내려 찍으며 큰 데미지를 준다
+스킬 계수 : 2.0 / 쿨타임 : 7초 / 사정거리 : 전방 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이곳을 떠나기 전에 한 번 권능을 시험해보며 익숙해지고 떠나는 것도 좋은 방법이지.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질서와 정의에서 오는 힘 '아샤'를 통해 적들 여럿에게 불길로서 심판 할 수도 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*샤오샨츠야, 나는 아그라 마이뉴에게 패배하여 힘을 잃고 여기에 갇혀있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">픽셀 아님
+스파인 모델
+근거리 단일기 -&gt; 대채제 있음
+점멸 모션 없음 (중요X)
+점프와 기본공격이 한 애니메이션에 합쳐져있음
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SpriteRenderer와 다르게 MeshRenderer 에 soring layer 존재x -&gt; 깃허브에서 코드 구해와서 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보호막 생성시간 1초로 감소
+평온 상태 돌입까지 걸리는 시간 -1초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쿨타임 30초/ 패링 1초/ 정확한 타이밍 0.5초 / 무적 2초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빛과 불꽃으로 이루어진 거대한 새, 어두운 색의 쇠사슬로 묶여있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데미지 공식 : 공격 계수 x 공격력 x 100/(100+방어력)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OnCollision이 아니라 OnTrigger라서 충돌위치 제공x -&gt; 창 끝에 빈 오브젝트를 한개 만들어서 그 위치에서 이펙트 생성 (완벽x) -&gt; 함수 발견 (해결)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 붙잡힌 내 휘하의 아메샤 스펜타들을 만난다면 그들이 풀려나 힘들 되찾도록 도와다오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네임드 몬스터 처치를 통해 획득한 
+꺠달음의 조각으로 자라투스트라의 모닥불에서 강화 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막으로 궁극적 진리 '아르마이티'를 깨달아 잠시동안 신격 미트라로 현신 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 처치를 통해 획득한 
+지식의 불꽃을 소모하여 자라투스트라의 모닥불(일반)에서 강화가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frog(몬스터) 가 플레이어 주변에 
+있을때 더이상 점프하지 않게 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스펜타의 권능 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권능 강화 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레벨 배치 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라 움직임 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 스킬 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보호막 + 최대체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동 : 방향키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 공격 : A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스킬 토대 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조작 / 전투 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 (70%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카사트라의 권능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉴드/ 쉴드UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희귀 (25%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사랑의 권능 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력 / 재화 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 랜덤 제작 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.02.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 피격 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데미지 + 유틸리티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격시 체력 회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉴드 UI 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attacked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이동속도 0.6 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asmodeus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작스테이지에 존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아메샤의 권능 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flog -Mage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game
+UI 02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아샤 이펙트 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 체력 , 보호막</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.08</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>스킬 애니메이션</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 구현</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:r>
       <x:t>스펜타의 권능</x:t>
     </x:r>
@@ -300,84 +879,52 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 강화 구현</x:t>
+      <x:t xml:space="preserve"> 구현</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>* 이곳에서 심득을 얻어가면 좋겠네.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 허허, 자네가 바로 예언의 화신이로군.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LV당 보호막 최대치 +10(max2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dungeon
-Characters
-2D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카사트라 모션 변경 / 피격 적용 x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확한 타이밍에 패링 시 짧은 시간 무적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노말 75% / 희귀 25% / 전설 5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 자네의 여정에 불의 가호가 있기를…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적 처치시 쿨타임 초기화 (max 1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dungeon 
-sprite 
-pack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>걷기
-달리기
-패링
-창 던지기
-바닥 찍기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리 Lv당 100 증가 (max2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보후 마나흐 (아메샤 스펜타의 일원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격을 받은 상태 (공격을 가한 상태 x)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pieceOfEnlightenment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D
-Desert
-Sprite
-pack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비전투 상태 3초 이후 보호막 재생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 고난을 이겨내고 악을 물리치기를…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대치 : 적에게 가한 데미지의 5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 다에바를 도륙하고 악을 심판하리라!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광역기 (Q)
-바닥을 내려찍으며 자신의 주변 바닥에서 불길이 일어난다
-스킬 계수 : 1.7 / 쿨타임 : 25초 / 사거리 : 죄우 400</x:t>
+    <x:r>
+      <x:t>아메샤의 권능</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 구현</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 스킬 (창 던지는 소리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 패링 지속시간 +0.25초(max4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 함정으로 입는 데미지 -30%(max2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 계수 x 공격력 x 100/(100+방어력)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4750
+Fantasy
+RPG
+Icons
+Pack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lv당 정확한 타이밍 시간 +0.25초(max2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>각성 스테이지의 깨달음의 모닥불 옆에 존재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정시간 동안 공격을 받지 않은 상태(기본 3초)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 구출 후 (다른 아메샤 스펜타 NPC 포함)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -393,606 +940,123 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>원거리 관통기 (D)
-오른손에 불꽃 창을 생성하여 잠시 후 직선으로 내던진다
-스킬 계수 : 1.5 / 쿨타임 : 10초 / 사거리 : 전방 1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질서와 정의에서 오는 힘 '아샤'를 통해 적들 여럿에게 불길로서 심판 할 수도 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이곳을 떠나기 전에 한 번 권능을 시험해보며 익숙해지고 떠나는 것도 좋은 방법이지.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아샤 이펙트 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mesh Renederer에서 색을 변경해서 몬스터가 죽으면 서서히 사라지게 하는 구조 불가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 처치를 통해 획득하는 지식의 불꽃을 소모 -&gt; 아메샤의 권능 강화 (일반 스테이지 에서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네임드 몬스터 처치를 통해 획득하는 꺠달음의 조각 -&gt; 스펜타의 권능 강화 (각성 스테이지 에서)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 선한 생각에서 오는 강한 힘 '보후만'은 너의 힘을 순간적으로 증폭하여 강하게 공격할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네임드 몬스터 처치를 통해 획득한 
-꺠달음의 조각으로 자라투스트라의 모닥불에서 강화 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 처치를 통해 획득한 
-지식의 불꽃을 소모하여 자라투스트라의 모닥불(일반)에서 강화가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>* 붙잡힌 내 휘하의 아메샤 스펜타들을 만난다면 그들이 풀려나 힘들 되찾도록 도와다오.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막으로 궁극적 진리 '아르마이티'를 깨달아 잠시동안 신격 미트라로 현신 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OnCollision이 아니라 OnTrigger라서 충돌위치 제공x -&gt; 창 끝에 빈 오브젝트를 한개 만들어서 그 위치에서 이펙트 생성 (완벽x) -&gt; 함수 발견 (해결)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 스테이지에 등장하는 모닥불에서 랜덤한 등급의 아메샤의 권능 강화, 재화량의 고민중, 아래 단계의 것 구매 가능 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤 스펜타의 유일한 일원? 아샤 바히스타, 크샤트라 바이르야, 스펜타 아르마이티, 하우르 비타트, 아메레타트 존재 x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>save 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 재화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이틀 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지식의 불꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 구출 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 스킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 : C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권능 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임 15초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권능 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대화  기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카사트라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사랑의 권능 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>각성 스킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깨달음의 조각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 대화종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 스킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창던지기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI컴포넌트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아샤의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜타의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분해 대상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메사의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대화 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호작용/대화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 날자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피격 판정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 몬스터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 공격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자라투스트라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중급 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스파인 외주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 스테이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생명의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방패에서 사자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재화 보유량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>심화 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보후만의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빛의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진리의 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사운드 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기초 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥 찍기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 점멸 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Block</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Idle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네임드 몬스터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Knock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Skill</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아르마이티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zombie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜타 마이뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깃 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>애니메이션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팝업 기능 / 화면 전환 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스펜타의 권능 공격애도 회복 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보후만 모션 변경 / 피격 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 대상 증가 +1 (max 2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화 등장 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계수 증가
-+0.17 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아메샤의 권능 강화 시스템 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계수 증가
-+0.1 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테마별 타일맵 플랫폼 / 배경요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gladiator
-(Spine)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패링 모션 구현 / 패링 적용 x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 쿨타임 -1초 (max 5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 강화 성공 확률 개념 도입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리 + 200 (max 2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ancient
-Egypt GUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 모션 추가 / 피격 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사거리 + 250 (max 2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깨달음의 조각 / 지식의 불꽃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 회복량 +1%(max5%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임 감소
--0.5초 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 공격속도 +0.2(max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 공격력 + 10(max5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아샤 모션 변경 / 피격 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2D Spine, 
-Boss Set</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계수 증가
-+0.33 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 최대 체력 +20(max5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임 감소
--0.7초 (max3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sparkOfKnowledge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스파인 애니메이션 적용 방식 변환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 배치 쌍 / 몬스터 패턴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아샤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점프력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불안정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쿨타임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평온</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ETC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>획득처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보후만</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플레이어 공격 이펙트 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>아메샤의 권능</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 구현</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>스킬 애니메이션</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 구현</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>스펜타의 권능</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 구현</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>공격 계수 x 공격력 x 100/(100+방어력)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자라투스트라 는 일반 스테이지에는 존재 x?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 구출 후 (다른 아메샤 스펜타 NPC 포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 정확한 타이밍 시간 +0.25초(max2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 함정으로 입는 데미지 -30%(max2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lv당 패링 지속시간 +0.25초(max4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정시간 동안 공격을 받지 않은 상태(기본 3초)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4750
-Fantasy
-RPG
-Icons
-Pack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각성 스테이지의 깨달음의 모닥불 옆에 존재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데미지 공식 : 공격 계수 x 공격력 x 100/(100+방어력)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 사망 시 재화 드랍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 피격 효과 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 권능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 체력 , 보호막</x:t>
+    <x:t>2024.03.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카사트라 모션 변경 / 피격 적용 x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 다에바를 도륙하고 악을 심판하리라!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격을 받은 상태 (공격을 가한 상태 x)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Frog(몬스터) 구현 중 ( 완성 x) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>걷기
+달리기
+패링
+창 던지기
+바닥 찍기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 자네의 여정에 불의 가호가 있기를…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비전투 상태 3초 이후 보호막 재생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 이곳에서 심득을 얻어가면 좋겠네.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LV당 보호막 최대치 +10(max2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노말 75% / 희귀 25% / 전설 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dungeon
+Characters
+2D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보후 마나흐 (아메샤 스펜타의 일원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pieceOfEnlightenment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 고난을 이겨내고 악을 물리치기를…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bear(몬스터) 구현 (공격 판정x)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리 Lv당 100 증가 (max2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적 처치시 쿨타임 초기화 (max 1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>* 허허, 자네가 바로 예언의 화신이로군.</x:t>
   </x:si>
   <x:si>
     <x:t>3. 위치 (아마 라운드 + 맵 만)</x:t>
   </x:si>
   <x:si>
-    <x:t>아스모 데우스가 스킬을 쓸떄 하트 퍼지면서 디버프 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재화 습득시 이름에 (Clone)
- 으로 인한 오류 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개구리가 스킬을 쓸 떄 가까울 수록 더 높은 피해를 입힘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asmodeus(몬스터) 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asmodeus(몬스터) 스킬 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bear(몬스터) 구현 (공격 판정x)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Frog(몬스터) 구현 중 ( 완성 x) </x:t>
+    <x:t>Dungeon 
+sprite 
+pack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확한 타이밍에 패링 시 짧은 시간 무적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2D
+Desert
+Sprite
+pack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대치 : 적에게 가한 데미지의 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 상태 이상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(플레이어 피격)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bear(몬스터) 공격 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frog(몬스터) 구현 완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 (Zombie) 햘퀴는 소리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 (Frog) 점프 하는 소리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이펙트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 (Bear) 발톱으로 앞을 때리는 소리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 스킬 (지면 강타 후 화염 나오는 소리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 (Asmodeus) 창으로 내려찍는 소리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 (Zombie) 독을 내뱉는 소리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템 획득</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1365,8 +1429,8 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="50">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+  <x:cellXfs count="53">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1620,6 +1684,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1724,6 +1801,84 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1867,92 +2022,40 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2358,7 +2461,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2439,7 +2542,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2672,7 +2775,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3180,132 +3283,132 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A1" s="3" t="s">
-        <x:v>140</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>235</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>159</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>228</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A2" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>227</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C2" s="4"/>
       <x:c r="D2" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E2" s="4" t="s">
-        <x:v>202</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="G2" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A3" s="3" t="s">
-        <x:v>165</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E3" s="4" t="s">
-        <x:v>264</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="F3" s="4" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G3" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A4" s="3" t="s">
-        <x:v>153</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C4" s="4"/>
       <x:c r="D4" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E4" s="4" t="s">
-        <x:v>216</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="G4" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A5" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D5" s="4"/>
       <x:c r="E5" s="4" t="s">
-        <x:v>209</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>263</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="G5" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="30.75" customHeight="1">
       <x:c r="A6" s="3" t="s">
-        <x:v>155</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="4"/>
       <x:c r="E6" s="4" t="s">
-        <x:v>212</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F6" s="4" t="s">
-        <x:v>211</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" ht="30.75" customHeight="1">
@@ -3313,133 +3416,133 @@
     </x:row>
     <x:row r="8" spans="1:8" ht="30.75" customHeight="1">
       <x:c r="A8" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B8" s="4"/>
       <x:c r="C8" s="4"/>
       <x:c r="D8" s="4"/>
       <x:c r="E8" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F8" s="4" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="G8" s="33" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="H8" s="33"/>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G8" s="40" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="H8" s="40"/>
     </x:row>
     <x:row r="9" spans="1:8" ht="38.25" customHeight="1">
-      <x:c r="A9" s="32" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="B9" s="34" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C9" s="35"/>
-      <x:c r="D9" s="36"/>
+      <x:c r="A9" s="39" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B9" s="41" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C9" s="42"/>
+      <x:c r="D9" s="43"/>
       <x:c r="E9" s="5" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="F9" s="30" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="G9" s="33" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="H9" s="33"/>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F9" s="31" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G9" s="40" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="H9" s="40"/>
     </x:row>
     <x:row r="10" spans="1:8" ht="36.75" customHeight="1">
-      <x:c r="A10" s="32"/>
-      <x:c r="B10" s="37"/>
-      <x:c r="C10" s="38"/>
-      <x:c r="D10" s="39"/>
+      <x:c r="A10" s="39"/>
+      <x:c r="B10" s="44"/>
+      <x:c r="C10" s="45"/>
+      <x:c r="D10" s="46"/>
       <x:c r="E10" s="5" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="F10" s="33"/>
-      <x:c r="G10" s="33"/>
-      <x:c r="H10" s="33"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F10" s="40"/>
+      <x:c r="G10" s="40"/>
+      <x:c r="H10" s="40"/>
     </x:row>
     <x:row r="11" spans="1:8" ht="36.75" customHeight="1">
-      <x:c r="A11" s="32" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="B11" s="34" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C11" s="35"/>
-      <x:c r="D11" s="36"/>
+      <x:c r="A11" s="39" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B11" s="41" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C11" s="42"/>
+      <x:c r="D11" s="43"/>
       <x:c r="E11" s="5" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="F11" s="33" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="G11" s="33" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H11" s="33"/>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F11" s="40" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G11" s="40" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H11" s="40"/>
     </x:row>
     <x:row r="12" spans="1:8" ht="36.75" customHeight="1">
-      <x:c r="A12" s="32"/>
-      <x:c r="B12" s="37"/>
-      <x:c r="C12" s="38"/>
-      <x:c r="D12" s="39"/>
+      <x:c r="A12" s="39"/>
+      <x:c r="B12" s="44"/>
+      <x:c r="C12" s="45"/>
+      <x:c r="D12" s="46"/>
       <x:c r="E12" s="5" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="F12" s="33"/>
-      <x:c r="G12" s="33"/>
-      <x:c r="H12" s="33"/>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F12" s="40"/>
+      <x:c r="G12" s="40"/>
+      <x:c r="H12" s="40"/>
     </x:row>
     <x:row r="13" spans="1:8" ht="39" customHeight="1">
-      <x:c r="A13" s="32" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="B13" s="34" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C13" s="35"/>
-      <x:c r="D13" s="36"/>
+      <x:c r="A13" s="39" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B13" s="41" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C13" s="42"/>
+      <x:c r="D13" s="43"/>
       <x:c r="E13" s="5" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="F13" s="33" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="G13" s="33" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H13" s="33"/>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F13" s="40" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G13" s="40" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H13" s="40"/>
     </x:row>
     <x:row r="14" spans="1:8" ht="39" customHeight="1">
-      <x:c r="A14" s="32"/>
-      <x:c r="B14" s="37"/>
-      <x:c r="C14" s="38"/>
-      <x:c r="D14" s="39"/>
+      <x:c r="A14" s="39"/>
+      <x:c r="B14" s="44"/>
+      <x:c r="C14" s="45"/>
+      <x:c r="D14" s="46"/>
       <x:c r="E14" s="5" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="F14" s="33"/>
-      <x:c r="G14" s="33"/>
-      <x:c r="H14" s="33"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F14" s="40"/>
+      <x:c r="G14" s="40"/>
+      <x:c r="H14" s="40"/>
     </x:row>
     <x:row r="15" spans="1:4" ht="39" customHeight="1">
-      <x:c r="A15" s="32" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="B15" s="30" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C15" s="33"/>
-      <x:c r="D15" s="33"/>
+      <x:c r="A15" s="39" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B15" s="31" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C15" s="40"/>
+      <x:c r="D15" s="40"/>
     </x:row>
     <x:row r="16" spans="1:4" ht="50.25" customHeight="1">
-      <x:c r="A16" s="32"/>
-      <x:c r="B16" s="33"/>
-      <x:c r="C16" s="33"/>
-      <x:c r="D16" s="33"/>
+      <x:c r="A16" s="39"/>
+      <x:c r="B16" s="40"/>
+      <x:c r="C16" s="40"/>
+      <x:c r="D16" s="40"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -3469,7 +3572,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:X318"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="D109" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="D178" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="F185" activeCellId="0" sqref="F185:F185"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3483,88 +3586,88 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="33" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="B1" s="33"/>
-      <x:c r="C1" s="33"/>
+      <x:c r="A1" s="40" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B1" s="40"/>
+      <x:c r="C1" s="40"/>
       <x:c r="D1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>242</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="4" t="s">
-        <x:v>174</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>136</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="4" t="s">
-        <x:v>249</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>225</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>133</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>240</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C8" s="4"/>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="3:14">
@@ -3656,7 +3759,7 @@
       <x:c r="D64" s="17"/>
       <x:c r="E64" s="17"/>
       <x:c r="F64" s="17" t="s">
-        <x:v>104</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G64" s="17"/>
       <x:c r="H64" s="17"/>
@@ -3672,7 +3775,7 @@
       <x:c r="D65" s="17"/>
       <x:c r="E65" s="17"/>
       <x:c r="F65" s="17" t="s">
-        <x:v>103</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G65" s="17"/>
       <x:c r="H65" s="17"/>
@@ -3683,7 +3786,7 @@
       <x:c r="M65" s="17"/>
       <x:c r="N65" s="17"/>
       <x:c r="X65" s="22" t="s">
-        <x:v>218</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="3:24">
@@ -3700,7 +3803,7 @@
       <x:c r="M66" s="17"/>
       <x:c r="N66" s="17"/>
       <x:c r="X66" s="17" t="s">
-        <x:v>90</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="3:14">
@@ -3708,7 +3811,7 @@
       <x:c r="D67" s="17"/>
       <x:c r="E67" s="17"/>
       <x:c r="F67" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G67" s="17"/>
       <x:c r="H67" s="17"/>
@@ -3724,7 +3827,7 @@
       <x:c r="D68" s="17"/>
       <x:c r="E68" s="17"/>
       <x:c r="F68" s="17" t="s">
-        <x:v>203</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G68" s="17"/>
       <x:c r="H68" s="17"/>
@@ -3740,7 +3843,7 @@
       <x:c r="D69" s="17"/>
       <x:c r="E69" s="17"/>
       <x:c r="F69" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G69" s="17"/>
       <x:c r="H69" s="17"/>
@@ -3854,7 +3957,7 @@
       <x:c r="D77" s="17"/>
       <x:c r="E77" s="17"/>
       <x:c r="F77" s="17" t="s">
-        <x:v>110</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G77" s="17"/>
       <x:c r="H77" s="17"/>
@@ -3870,7 +3973,7 @@
       <x:c r="D78" s="17"/>
       <x:c r="E78" s="17"/>
       <x:c r="F78" s="17" t="s">
-        <x:v>53</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G78" s="17"/>
       <x:c r="H78" s="17"/>
@@ -3883,22 +3986,22 @@
     </x:row>
     <x:row r="79" spans="6:6">
       <x:c r="F79" s="17" t="s">
-        <x:v>102</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="6:6">
       <x:c r="F80" s="17" t="s">
-        <x:v>71</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="7:7">
       <x:c r="G99" s="17" t="s">
-        <x:v>276</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="7:7">
       <x:c r="G100" s="17" t="s">
-        <x:v>278</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="7:7">
@@ -3906,7 +4009,7 @@
     </x:row>
     <x:row r="181" spans="6:10">
       <x:c r="F181" s="17" t="s">
-        <x:v>113</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G181" s="17"/>
       <x:c r="H181" s="17"/>
@@ -3915,7 +4018,7 @@
     </x:row>
     <x:row r="182" spans="6:10">
       <x:c r="F182" s="17" t="s">
-        <x:v>274</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G182" s="17"/>
       <x:c r="H182" s="17"/>
@@ -3924,7 +4027,7 @@
     </x:row>
     <x:row r="183" spans="6:10">
       <x:c r="F183" s="17" t="s">
-        <x:v>114</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G183" s="17"/>
       <x:c r="H183" s="17"/>
@@ -3933,7 +4036,7 @@
     </x:row>
     <x:row r="184" spans="6:10">
       <x:c r="F184" s="17" t="s">
-        <x:v>275</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G184" s="17"/>
       <x:c r="H184" s="17"/>
@@ -3942,7 +4045,7 @@
     </x:row>
     <x:row r="185" spans="6:10">
       <x:c r="F185" s="17" t="s">
-        <x:v>271</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G185" s="17"/>
       <x:c r="H185" s="17"/>
@@ -4899,7 +5002,7 @@
       <x:selection activeCell="D25" activeCellId="0" sqref="D25:D25"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="9" style="2"/>
     <x:col min="2" max="4" width="12.625" style="2" customWidth="1"/>
@@ -4910,66 +5013,66 @@
   <x:sheetData>
     <x:row r="2" spans="2:9" ht="29.25" customHeight="1">
       <x:c r="B2" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>238</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>253</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E2" s="3" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="H2" s="39" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I2" s="39"/>
+    </x:row>
+    <x:row r="3" spans="2:9" ht="29.25" customHeight="1">
+      <x:c r="B3" s="28">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C3" s="28">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D3" s="28">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="E3" s="28">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F3" s="28">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="28">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H3" s="4" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="F2" s="3" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="G2" s="3" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="H2" s="32" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="I2" s="32"/>
-    </x:row>
-    <x:row r="3" spans="2:9" ht="29.25" customHeight="1">
-      <x:c r="B3" s="27">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C3" s="27">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D3" s="27">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E3" s="27">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F3" s="27">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G3" s="27">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H3" s="4" t="s">
-        <x:v>230</x:v>
       </x:c>
       <x:c r="I3" s="4" t="s">
         <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:9" ht="29.25" customHeight="1">
-      <x:c r="B4" s="29"/>
-      <x:c r="C4" s="29"/>
-      <x:c r="D4" s="29"/>
-      <x:c r="E4" s="29"/>
-      <x:c r="F4" s="29"/>
-      <x:c r="G4" s="29"/>
+      <x:c r="B4" s="30"/>
+      <x:c r="C4" s="30"/>
+      <x:c r="D4" s="30"/>
+      <x:c r="E4" s="30"/>
+      <x:c r="F4" s="30"/>
+      <x:c r="G4" s="30"/>
       <x:c r="H4" s="4" t="s">
-        <x:v>226</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I4" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="5" ht="29.25" customHeight="1"/>
@@ -4977,50 +5080,50 @@
     <x:row r="7" ht="29.25" customHeight="1"/>
     <x:row r="8" ht="29.25" customHeight="1"/>
     <x:row r="10" spans="2:7" ht="62.25" customHeight="1">
-      <x:c r="B10" s="33" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C10" s="33"/>
-      <x:c r="D10" s="33"/>
-      <x:c r="E10" s="33"/>
-      <x:c r="F10" s="33"/>
-      <x:c r="G10" s="33"/>
+      <x:c r="B10" s="40" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C10" s="40"/>
+      <x:c r="D10" s="40"/>
+      <x:c r="E10" s="40"/>
+      <x:c r="F10" s="40"/>
+      <x:c r="G10" s="40"/>
     </x:row>
     <x:row r="14" spans="2:5">
       <x:c r="B14" s="4" t="s">
-        <x:v>246</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D14" s="33" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="E14" s="33"/>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D14" s="40" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="E14" s="40"/>
     </x:row>
     <x:row r="15" spans="2:5">
       <x:c r="B15" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="D15" s="33" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E15" s="33"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D15" s="40" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E15" s="40"/>
     </x:row>
     <x:row r="16" spans="2:5">
       <x:c r="B16" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D16" s="33" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E16" s="33"/>
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D16" s="40" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="E16" s="40"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="11">
@@ -5063,236 +5166,236 @@
   <x:sheetData>
     <x:row r="1" spans="6:6">
       <x:c r="F1" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="6:6">
       <x:c r="F2" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:4">
-      <x:c r="B3" s="33" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C3" s="27" t="s">
-        <x:v>188</x:v>
+      <x:c r="B3" s="40" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C3" s="28" t="s">
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D3" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
-      <x:c r="B4" s="33"/>
-      <x:c r="C4" s="29"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="30"/>
       <x:c r="D4" s="4" t="s">
-        <x:v>120</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:4">
-      <x:c r="B5" s="33"/>
+      <x:c r="B5" s="40"/>
       <x:c r="C5" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:4">
+      <x:c r="B6" s="40"/>
+      <x:c r="C6" s="7" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D6" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="2:4">
-      <x:c r="B6" s="33"/>
-      <x:c r="C6" s="7" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D6" s="7" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
     <x:row r="7" spans="2:4">
-      <x:c r="B7" s="33"/>
+      <x:c r="B7" s="40"/>
       <x:c r="C7" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:4">
-      <x:c r="B8" s="27" t="s">
-        <x:v>27</x:v>
+      <x:c r="B8" s="28" t="s">
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>177</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D8" s="4"/>
     </x:row>
     <x:row r="9" spans="2:4">
-      <x:c r="B9" s="28"/>
+      <x:c r="B9" s="29"/>
       <x:c r="C9" s="4" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D9" s="4"/>
+    </x:row>
+    <x:row r="10" spans="2:4">
+      <x:c r="B10" s="29"/>
+      <x:c r="C10" s="4" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="D10" s="4"/>
+    </x:row>
+    <x:row r="11" spans="2:4">
+      <x:c r="B11" s="30"/>
+      <x:c r="C11" s="4" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D9" s="4"/>
-    </x:row>
-    <x:row r="10" spans="2:4">
-      <x:c r="B10" s="28"/>
-      <x:c r="C10" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D10" s="4"/>
-    </x:row>
-    <x:row r="11" spans="2:4">
-      <x:c r="B11" s="29"/>
-      <x:c r="C11" s="4" t="s">
-        <x:v>157</x:v>
-      </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>208</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:4">
-      <x:c r="B12" s="27" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C12" s="27" t="s">
-        <x:v>138</x:v>
+      <x:c r="B12" s="28" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C12" s="28" t="s">
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>132</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:4">
-      <x:c r="B13" s="29"/>
-      <x:c r="C13" s="29"/>
+      <x:c r="B13" s="30"/>
+      <x:c r="C13" s="30"/>
       <x:c r="D13" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:4" ht="32.75">
-      <x:c r="B14" s="27" t="s">
-        <x:v>19</x:v>
+      <x:c r="B14" s="28" t="s">
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D14" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:4" ht="32.75">
-      <x:c r="B15" s="29"/>
+      <x:c r="B15" s="30"/>
       <x:c r="C15" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D15" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:4">
       <x:c r="B16" s="4" t="s">
-        <x:v>141</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>124</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="4"/>
     </x:row>
     <x:row r="17" spans="2:4">
-      <x:c r="B17" s="27" t="s">
-        <x:v>15</x:v>
+      <x:c r="B17" s="28" t="s">
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>199</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:4">
-      <x:c r="B18" s="29"/>
+      <x:c r="B18" s="30"/>
       <x:c r="C18" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>220</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:4">
-      <x:c r="B19" s="27" t="s">
-        <x:v>166</x:v>
+      <x:c r="B19" s="28" t="s">
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>229</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D19" s="4"/>
     </x:row>
     <x:row r="20" spans="2:4">
-      <x:c r="B20" s="28"/>
+      <x:c r="B20" s="29"/>
       <x:c r="C20" s="4" t="s">
-        <x:v>241</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D20" s="4"/>
     </x:row>
     <x:row r="21" spans="2:4">
-      <x:c r="B21" s="29"/>
+      <x:c r="B21" s="30"/>
       <x:c r="C21" s="4" t="s">
-        <x:v>254</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D21" s="4"/>
     </x:row>
     <x:row r="22" spans="2:4">
-      <x:c r="B22" s="27" t="s">
-        <x:v>134</x:v>
+      <x:c r="B22" s="28" t="s">
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D22" s="4"/>
     </x:row>
     <x:row r="23" spans="2:4">
-      <x:c r="B23" s="28"/>
+      <x:c r="B23" s="29"/>
       <x:c r="C23" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D23" s="4"/>
     </x:row>
     <x:row r="24" spans="2:4">
-      <x:c r="B24" s="28"/>
+      <x:c r="B24" s="29"/>
       <x:c r="C24" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D24" s="4"/>
     </x:row>
     <x:row r="25" spans="2:4">
-      <x:c r="B25" s="28"/>
+      <x:c r="B25" s="29"/>
       <x:c r="C25" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D25" s="15"/>
     </x:row>
     <x:row r="26" spans="2:4">
-      <x:c r="B26" s="28"/>
+      <x:c r="B26" s="29"/>
       <x:c r="C26" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D26" s="4"/>
     </x:row>
     <x:row r="27" spans="2:4">
-      <x:c r="B27" s="28"/>
+      <x:c r="B27" s="29"/>
       <x:c r="C27" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D27" s="4"/>
     </x:row>
     <x:row r="28" spans="2:4">
-      <x:c r="B28" s="28"/>
+      <x:c r="B28" s="29"/>
       <x:c r="C28" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D28" s="4"/>
     </x:row>
     <x:row r="29" spans="2:4">
-      <x:c r="B29" s="29"/>
+      <x:c r="B29" s="30"/>
       <x:c r="C29" s="7" t="s">
-        <x:v>191</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D29" s="7"/>
     </x:row>
@@ -5316,11 +5419,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="G1:I40"/>
+  <x:dimension ref="G1:I43"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="I30" activeCellId="0" sqref="I30:I32"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="I44" activeCellId="0" sqref="I44:I44"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -5333,318 +5436,347 @@
   <x:sheetData>
     <x:row r="1" spans="7:9">
       <x:c r="G1" s="8" t="s">
-        <x:v>144</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H1" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="7:9">
+      <x:c r="G2" s="25">
+        <x:v>45313</x:v>
+      </x:c>
+      <x:c r="H2" s="4" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="I2" s="28" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="7:9">
+      <x:c r="G3" s="27"/>
+      <x:c r="H3" s="4" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="I3" s="30"/>
+    </x:row>
+    <x:row r="4" spans="7:9">
+      <x:c r="G4" s="25">
+        <x:v>45317</x:v>
+      </x:c>
+      <x:c r="H4" s="4" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I4" s="32" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="7:9">
+      <x:c r="G5" s="27"/>
+      <x:c r="H5" s="4" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="I5" s="30"/>
+    </x:row>
+    <x:row r="6" spans="7:9">
+      <x:c r="G6" s="25">
+        <x:v>45320</x:v>
+      </x:c>
+      <x:c r="H6" s="4" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="I6" s="28"/>
+    </x:row>
+    <x:row r="7" spans="7:9">
+      <x:c r="G7" s="26"/>
+      <x:c r="H7" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I7" s="29"/>
+    </x:row>
+    <x:row r="8" spans="7:9">
+      <x:c r="G8" s="26"/>
+      <x:c r="H8" s="4" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="I8" s="29"/>
+    </x:row>
+    <x:row r="9" spans="7:9">
+      <x:c r="G9" s="27"/>
+      <x:c r="H9" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I9" s="30"/>
+    </x:row>
+    <x:row r="10" spans="7:9">
+      <x:c r="G10" s="25">
+        <x:v>45323</x:v>
+      </x:c>
+      <x:c r="H10" s="4" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="I10" s="28" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="7:9">
+      <x:c r="G11" s="26"/>
+      <x:c r="H11" s="4" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="I11" s="29"/>
+    </x:row>
+    <x:row r="12" spans="7:9">
+      <x:c r="G12" s="26"/>
+      <x:c r="H12" s="4" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="I12" s="29"/>
+    </x:row>
+    <x:row r="13" spans="7:9">
+      <x:c r="G13" s="26"/>
+      <x:c r="H13" s="4" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="I13" s="29"/>
+    </x:row>
+    <x:row r="14" spans="7:9">
+      <x:c r="G14" s="27"/>
+      <x:c r="H14" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I14" s="30"/>
+    </x:row>
+    <x:row r="15" spans="7:9">
+      <x:c r="G15" s="25" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="H15" s="4" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I15" s="28" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="7:9">
+      <x:c r="G16" s="26"/>
+      <x:c r="H16" s="4" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="I16" s="29"/>
+    </x:row>
+    <x:row r="17" spans="7:9">
+      <x:c r="G17" s="26"/>
+      <x:c r="H17" s="4" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I17" s="29"/>
+    </x:row>
+    <x:row r="18" spans="7:9">
+      <x:c r="G18" s="27"/>
+      <x:c r="H18" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I18" s="30"/>
+    </x:row>
+    <x:row r="19" spans="7:9">
+      <x:c r="G19" s="25" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="H19" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I19" s="31" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="7:9">
+      <x:c r="G20" s="27"/>
+      <x:c r="H20" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I20" s="31"/>
+    </x:row>
+    <x:row r="21" spans="7:9">
+      <x:c r="G21" s="25" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="H21" s="4" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="I21" s="21"/>
+    </x:row>
+    <x:row r="22" spans="7:9">
+      <x:c r="G22" s="27"/>
+      <x:c r="H22" s="4" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I22" s="4" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="7:9">
+      <x:c r="G23" s="25" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="H23" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I23" s="28"/>
+    </x:row>
+    <x:row r="24" spans="7:9">
+      <x:c r="G24" s="26"/>
+      <x:c r="H24" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I24" s="29"/>
+    </x:row>
+    <x:row r="25" spans="7:9">
+      <x:c r="G25" s="26"/>
+      <x:c r="H25" s="4" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>236</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="7:9">
-      <x:c r="G2" s="24">
-        <x:v>45313</x:v>
-      </x:c>
-      <x:c r="H2" s="4" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="I2" s="27" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="7:9">
-      <x:c r="G3" s="26"/>
-      <x:c r="H3" s="4" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="I3" s="29"/>
-    </x:row>
-    <x:row r="4" spans="7:9">
-      <x:c r="G4" s="24">
-        <x:v>45317</x:v>
-      </x:c>
-      <x:c r="H4" s="4" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="I4" s="31" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="7:9">
-      <x:c r="G5" s="26"/>
-      <x:c r="H5" s="4" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="I5" s="29"/>
-    </x:row>
-    <x:row r="6" spans="7:9">
-      <x:c r="G6" s="24">
-        <x:v>45320</x:v>
-      </x:c>
-      <x:c r="H6" s="4" t="s">
+      <x:c r="I25" s="29"/>
+    </x:row>
+    <x:row r="26" spans="7:9">
+      <x:c r="G26" s="26"/>
+      <x:c r="H26" s="4" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I26" s="29"/>
+    </x:row>
+    <x:row r="27" spans="7:9">
+      <x:c r="G27" s="26"/>
+      <x:c r="H27" s="4" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I27" s="29"/>
+    </x:row>
+    <x:row r="28" spans="7:9">
+      <x:c r="G28" s="26"/>
+      <x:c r="H28" s="4" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="I28" s="29"/>
+    </x:row>
+    <x:row r="29" spans="7:9">
+      <x:c r="G29" s="27"/>
+      <x:c r="H29" s="4" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="I29" s="30"/>
+    </x:row>
+    <x:row r="30" spans="7:9">
+      <x:c r="G30" s="33" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="H30" s="23" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I30" s="36"/>
+    </x:row>
+    <x:row r="31" spans="7:9">
+      <x:c r="G31" s="34"/>
+      <x:c r="H31" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I31" s="37"/>
+    </x:row>
+    <x:row r="32" spans="7:9">
+      <x:c r="G32" s="35"/>
+      <x:c r="H32" s="4" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="I32" s="38"/>
+    </x:row>
+    <x:row r="33" spans="7:9">
+      <x:c r="G33" s="33" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="H33" s="23" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I33" s="36"/>
+    </x:row>
+    <x:row r="34" spans="7:9">
+      <x:c r="G34" s="34"/>
+      <x:c r="H34" s="23" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I34" s="37"/>
+    </x:row>
+    <x:row r="35" spans="7:9">
+      <x:c r="G35" s="34"/>
+      <x:c r="H35" s="23" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="I35" s="37"/>
+    </x:row>
+    <x:row r="36" spans="7:9">
+      <x:c r="G36" s="34"/>
+      <x:c r="H36" s="23" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="I36" s="37"/>
+    </x:row>
+    <x:row r="37" spans="7:9">
+      <x:c r="G37" s="34"/>
+      <x:c r="H37" s="4" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="I6" s="27"/>
-    </x:row>
-    <x:row r="7" spans="7:9">
-      <x:c r="G7" s="25"/>
-      <x:c r="H7" s="4" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I7" s="28"/>
-    </x:row>
-    <x:row r="8" spans="7:9">
-      <x:c r="G8" s="25"/>
-      <x:c r="H8" s="4" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I8" s="28"/>
-    </x:row>
-    <x:row r="9" spans="7:9">
-      <x:c r="G9" s="26"/>
-      <x:c r="H9" s="4" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I9" s="29"/>
-    </x:row>
-    <x:row r="10" spans="7:9">
-      <x:c r="G10" s="24">
-        <x:v>45323</x:v>
-      </x:c>
-      <x:c r="H10" s="4" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="I10" s="27" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="7:9">
-      <x:c r="G11" s="25"/>
-      <x:c r="H11" s="4" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="I11" s="28"/>
-    </x:row>
-    <x:row r="12" spans="7:9">
-      <x:c r="G12" s="25"/>
-      <x:c r="H12" s="4" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I12" s="28"/>
-    </x:row>
-    <x:row r="13" spans="7:9">
-      <x:c r="G13" s="25"/>
-      <x:c r="H13" s="4" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="I13" s="28"/>
-    </x:row>
-    <x:row r="14" spans="7:9">
-      <x:c r="G14" s="26"/>
-      <x:c r="H14" s="4" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I14" s="29"/>
-    </x:row>
-    <x:row r="15" spans="7:9">
-      <x:c r="G15" s="24" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H15" s="4" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="I15" s="27" t="s">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="7:9">
-      <x:c r="G16" s="25"/>
-      <x:c r="H16" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I16" s="28"/>
-    </x:row>
-    <x:row r="17" spans="7:9">
-      <x:c r="G17" s="25"/>
-      <x:c r="H17" s="4" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I17" s="28"/>
-    </x:row>
-    <x:row r="18" spans="7:9">
-      <x:c r="G18" s="26"/>
-      <x:c r="H18" s="4" t="s">
+      <x:c r="I37" s="37"/>
+    </x:row>
+    <x:row r="38" spans="7:9">
+      <x:c r="G38" s="35"/>
+      <x:c r="H38" s="4" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="I18" s="29"/>
-    </x:row>
-    <x:row r="19" spans="7:9">
-      <x:c r="G19" s="24" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H19" s="4" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="I19" s="30" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="7:9">
-      <x:c r="G20" s="26"/>
-      <x:c r="H20" s="4" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="I20" s="30"/>
-    </x:row>
-    <x:row r="21" spans="7:9">
-      <x:c r="G21" s="24" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H21" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I21" s="21"/>
-    </x:row>
-    <x:row r="22" spans="7:9">
-      <x:c r="G22" s="26"/>
-      <x:c r="H22" s="4" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="I22" s="4" t="s">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="7:9">
-      <x:c r="G23" s="24" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H23" s="4" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="I23" s="27"/>
-    </x:row>
-    <x:row r="24" spans="7:9">
-      <x:c r="G24" s="25"/>
-      <x:c r="H24" s="4" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="I24" s="28"/>
-    </x:row>
-    <x:row r="25" spans="7:9">
-      <x:c r="G25" s="25"/>
-      <x:c r="H25" s="4" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="I25" s="28"/>
-    </x:row>
-    <x:row r="26" spans="7:9">
-      <x:c r="G26" s="25"/>
-      <x:c r="H26" s="4" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="I26" s="28"/>
-    </x:row>
-    <x:row r="27" spans="7:9">
-      <x:c r="G27" s="25"/>
-      <x:c r="H27" s="4" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="I27" s="28"/>
-    </x:row>
-    <x:row r="28" spans="7:9">
-      <x:c r="G28" s="25"/>
-      <x:c r="H28" s="4" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I28" s="28"/>
-    </x:row>
-    <x:row r="29" spans="7:9">
-      <x:c r="G29" s="26"/>
-      <x:c r="H29" s="4" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I29" s="29"/>
-    </x:row>
-    <x:row r="30" spans="7:9">
-      <x:c r="G30" s="43" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="H30" s="23" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="I30" s="45"/>
-    </x:row>
-    <x:row r="31" spans="7:9">
-      <x:c r="G31" s="44"/>
-      <x:c r="H31" s="4" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="I31" s="46"/>
-    </x:row>
-    <x:row r="32" spans="7:9">
-      <x:c r="G32" s="47"/>
-      <x:c r="H32" s="4" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I32" s="48"/>
-    </x:row>
-    <x:row r="33" spans="7:9">
-      <x:c r="G33" s="43" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="H33" s="23" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I33" s="45"/>
-    </x:row>
-    <x:row r="34" spans="7:9">
-      <x:c r="G34" s="44"/>
-      <x:c r="H34" s="23" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="I34" s="46"/>
-    </x:row>
-    <x:row r="35" spans="7:9">
-      <x:c r="G35" s="44"/>
-      <x:c r="H35" s="23" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="I35" s="46"/>
-    </x:row>
-    <x:row r="36" spans="7:9">
-      <x:c r="G36" s="44"/>
-      <x:c r="H36" s="23" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="I36" s="46"/>
-    </x:row>
-    <x:row r="37" spans="7:9">
-      <x:c r="G37" s="44"/>
-      <x:c r="H37" s="4" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="I37" s="46"/>
-    </x:row>
-    <x:row r="38" spans="7:9">
-      <x:c r="G38" s="47"/>
-      <x:c r="H38" s="4" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="I38" s="48"/>
-    </x:row>
-    <x:row r="39" spans="8:8" ht="32.75">
-      <x:c r="H39" s="49" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="8:8">
+      <x:c r="I38" s="38"/>
+    </x:row>
+    <x:row r="39" spans="7:9" ht="32.75" customHeight="1">
+      <x:c r="G39" s="33" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="H39" s="24" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="I39" s="50" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="7:9">
+      <x:c r="G40" s="34"/>
       <x:c r="H40" s="4" t="s">
-        <x:v>280</x:v>
-      </x:c>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I40" s="37"/>
+    </x:row>
+    <x:row r="41" spans="7:9">
+      <x:c r="G41" s="34"/>
+      <x:c r="H41" s="4" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="I41" s="37"/>
+    </x:row>
+    <x:row r="42" spans="7:9">
+      <x:c r="G42" s="34"/>
+      <x:c r="H42" s="4" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="I42" s="37"/>
+    </x:row>
+    <x:row r="43" spans="7:9">
+      <x:c r="G43" s="35"/>
+      <x:c r="H43" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I43" s="38"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="19">
+  <x:mergeCells count="21">
     <x:mergeCell ref="G15:G18"/>
     <x:mergeCell ref="I15:I18"/>
     <x:mergeCell ref="G10:G14"/>
@@ -5664,6 +5796,8 @@
     <x:mergeCell ref="I30:I32"/>
     <x:mergeCell ref="G33:G38"/>
     <x:mergeCell ref="I33:I38"/>
+    <x:mergeCell ref="G39:G43"/>
+    <x:mergeCell ref="I39:I43"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -5688,228 +5822,228 @@
   <x:sheetData>
     <x:row r="3" spans="5:5">
       <x:c r="E3" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="5:5">
       <x:c r="E4" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="5:5">
       <x:c r="E5" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="5:5">
       <x:c r="E6" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="5:5">
       <x:c r="E7" s="7" t="s">
-        <x:v>237</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="5:5">
       <x:c r="E8" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="5:5" ht="17.25" customHeight="1">
       <x:c r="E9" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="5:5" ht="17.25" customHeight="1">
       <x:c r="E10" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="5:5">
       <x:c r="E11" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="5:5" ht="33">
       <x:c r="E12" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="5:5">
       <x:c r="E13" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="5:5">
       <x:c r="E14" s="16" t="s">
-        <x:v>56</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="5:5">
       <x:c r="E15" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="5:5">
       <x:c r="E16" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="5:5">
       <x:c r="E17" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="5:5">
       <x:c r="E18" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="5:5">
       <x:c r="E19" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="5:5">
       <x:c r="E20" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="5:5">
       <x:c r="E21" s="16" t="s">
-        <x:v>131</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="5:5">
       <x:c r="E22" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="5:5">
       <x:c r="E26" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="5:5">
       <x:c r="E27" s="4" t="s">
-        <x:v>148</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="5:5">
       <x:c r="E28" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="5:5">
       <x:c r="E29" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="5:5">
       <x:c r="E30" s="7" t="s">
-        <x:v>237</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="5:6">
       <x:c r="E31" s="4" t="s">
-        <x:v>267</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F31" s="17"/>
     </x:row>
     <x:row r="32" spans="5:5">
       <x:c r="E32" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="5:5">
       <x:c r="E33" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="5:5">
       <x:c r="E34" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="5:5">
       <x:c r="E35" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="5:5">
       <x:c r="E36" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="5:5">
       <x:c r="E40" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="5:5">
       <x:c r="E41" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="5:5">
       <x:c r="E42" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="5:5">
       <x:c r="E43" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="5:5">
       <x:c r="E44" s="7" t="s">
-        <x:v>237</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="5:5">
       <x:c r="E45" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="5:5">
       <x:c r="E46" s="7" t="s">
-        <x:v>233</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="5:5">
       <x:c r="E47" s="16" t="s">
-        <x:v>118</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="5:5">
       <x:c r="E48" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="5:5">
       <x:c r="E49" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="5:5">
       <x:c r="E50" s="16" t="s">
-        <x:v>261</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="5:5">
       <x:c r="E51" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="5:5">
       <x:c r="E52" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="5:5">
       <x:c r="E53" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5927,7 +6061,7 @@
       <x:selection activeCell="M6" activeCellId="0" sqref="M6:M6"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="3" width="9" style="2"/>
     <x:col min="4" max="4" width="18.375" style="2" customWidth="1"/>
@@ -5949,59 +6083,59 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="4:13">
-      <x:c r="D1" s="40" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
-      <x:c r="G1" s="42"/>
-      <x:c r="I1" s="33" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="J1" s="33"/>
-      <x:c r="L1" s="33" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="M1" s="33"/>
+      <x:c r="D1" s="47" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E1" s="48"/>
+      <x:c r="F1" s="48"/>
+      <x:c r="G1" s="49"/>
+      <x:c r="I1" s="40" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="J1" s="40"/>
+      <x:c r="L1" s="40" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="M1" s="40"/>
     </x:row>
     <x:row r="2" spans="4:13">
       <x:c r="D2" s="4"/>
       <x:c r="E2" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>222</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G2" s="4" t="s">
-        <x:v>232</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I2" s="4"/>
       <x:c r="J2" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="L2" s="4"/>
       <x:c r="M2" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="4:34" ht="128.25" customHeight="1">
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="10" t="s">
-        <x:v>200</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="G3" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="I3" s="4"/>
       <x:c r="J3" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="L3" s="4"/>
       <x:c r="M3" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="Q3" s="12"/>
       <x:c r="T3" s="12"/>
@@ -6028,45 +6162,45 @@
     <x:row r="5" spans="9:13" ht="132" customHeight="1">
       <x:c r="I5" s="4"/>
       <x:c r="J5" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="M5" s="18" t="s">
-        <x:v>214</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="9:13">
-      <x:c r="I7" s="33" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="J7" s="33"/>
-      <x:c r="L7" s="33" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="M7" s="33"/>
-    </x:row>
-    <x:row r="8" spans="9:13" customHeight="1">
+      <x:c r="I7" s="40" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="J7" s="40"/>
+      <x:c r="L7" s="40" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M7" s="40"/>
+    </x:row>
+    <x:row r="8" spans="9:13" ht="16.5" customHeight="1">
       <x:c r="I8" s="4"/>
       <x:c r="J8" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="L8" s="4"/>
       <x:c r="M8" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="9:13" ht="123.75" customHeight="1">
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="13" t="s">
-        <x:v>266</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="L9" s="13"/>
       <x:c r="M9" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="13:13" ht="165" customHeight="1">
       <x:c r="M10" s="18" t="s">
-        <x:v>205</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6102,7 +6236,7 @@
       <x:selection activeCell="G35" activeCellId="0" sqref="G35:G35"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="3" width="9" style="2"/>
     <x:col min="4" max="4" width="33.875" style="2" customWidth="1"/>
@@ -6114,126 +6248,126 @@
   <x:sheetData>
     <x:row r="4" spans="4:6">
       <x:c r="D4" s="19" t="s">
-        <x:v>248</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s">
-        <x:v>239</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="5:6">
       <x:c r="E5" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="6:6">
       <x:c r="F6" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="6:6">
       <x:c r="F7" s="4" t="s">
-        <x:v>171</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="6:6">
       <x:c r="F8" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="5:6">
       <x:c r="E16" s="4" t="s">
-        <x:v>182</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F16" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="6:6">
       <x:c r="F17" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="6:6">
       <x:c r="F18" s="4" t="s">
-        <x:v>171</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="6:6">
       <x:c r="F19" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="5:6">
       <x:c r="E27" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F27" s="4" t="s">
-        <x:v>171</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="6:6">
       <x:c r="F28" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="6:6">
       <x:c r="F29" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="6:6">
       <x:c r="F30" s="20" t="s">
-        <x:v>162</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="5:6">
       <x:c r="E37" s="4" t="s">
-        <x:v>179</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F37" s="4" t="s">
-        <x:v>171</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="6:7">
       <x:c r="F38" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G38" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="6:6">
       <x:c r="F39" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="6:6">
       <x:c r="F40" s="20" t="s">
-        <x:v>162</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="5:6">
       <x:c r="E45" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F45" s="4" t="s">
-        <x:v>171</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="6:6">
       <x:c r="F46" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="6:6">
       <x:c r="F47" s="20" t="s">
-        <x:v>162</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6246,118 +6380,321 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet8"/>
-  <x:dimension ref="E7:Q12"/>
+  <x:dimension ref="D1:E65"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F35" activeCellId="0" sqref="F35:F35"/>
+    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E9" activeCellId="0" sqref="E9:E9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="3" width="9" style="51"/>
+    <x:col min="4" max="4" width="41.25" style="51" customWidth="1"/>
+    <x:col min="5" max="5" width="56.25" style="51" customWidth="1"/>
+    <x:col min="6" max="16384" width="9" style="51"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="7" spans="5:17">
-      <x:c r="E7" s="33" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F7" s="33"/>
-      <x:c r="G7" s="33"/>
-      <x:c r="H7" s="33"/>
-      <x:c r="I7" s="33"/>
-      <x:c r="J7" s="33"/>
-      <x:c r="K7" s="33"/>
-      <x:c r="L7" s="33"/>
-      <x:c r="M7" s="33"/>
-      <x:c r="N7" s="33"/>
-      <x:c r="O7" s="33"/>
-      <x:c r="P7" s="33"/>
-      <x:c r="Q7" s="33"/>
-    </x:row>
-    <x:row r="8" spans="5:17">
-      <x:c r="E8" s="33"/>
-      <x:c r="F8" s="33"/>
-      <x:c r="G8" s="33"/>
-      <x:c r="H8" s="33"/>
-      <x:c r="I8" s="33"/>
-      <x:c r="J8" s="33"/>
-      <x:c r="K8" s="33"/>
-      <x:c r="L8" s="33"/>
-      <x:c r="M8" s="33"/>
-      <x:c r="N8" s="33"/>
-      <x:c r="O8" s="33"/>
-      <x:c r="P8" s="33"/>
-      <x:c r="Q8" s="33"/>
-    </x:row>
-    <x:row r="9" spans="5:17">
-      <x:c r="E9" s="33" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="F9" s="33"/>
-      <x:c r="G9" s="33"/>
-      <x:c r="H9" s="33"/>
-      <x:c r="I9" s="33"/>
-      <x:c r="J9" s="33"/>
-      <x:c r="K9" s="33"/>
-      <x:c r="L9" s="33"/>
-      <x:c r="M9" s="33"/>
-      <x:c r="N9" s="33"/>
-      <x:c r="O9" s="33"/>
-      <x:c r="P9" s="33"/>
-      <x:c r="Q9" s="33"/>
-    </x:row>
-    <x:row r="10" spans="5:17">
-      <x:c r="E10" s="33" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F10" s="33"/>
-      <x:c r="G10" s="33"/>
-      <x:c r="H10" s="33"/>
-      <x:c r="I10" s="33"/>
-      <x:c r="J10" s="33"/>
-      <x:c r="K10" s="33"/>
-      <x:c r="L10" s="33"/>
-      <x:c r="M10" s="33"/>
-      <x:c r="N10" s="33"/>
-      <x:c r="O10" s="33"/>
-      <x:c r="P10" s="33"/>
-      <x:c r="Q10" s="33"/>
-    </x:row>
-    <x:row r="11" spans="5:17">
-      <x:c r="E11" s="33" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F11" s="33"/>
-      <x:c r="G11" s="33"/>
-      <x:c r="H11" s="33"/>
-      <x:c r="I11" s="33"/>
-      <x:c r="J11" s="33"/>
-      <x:c r="K11" s="33"/>
-      <x:c r="L11" s="33"/>
-      <x:c r="M11" s="33"/>
-      <x:c r="N11" s="33"/>
-      <x:c r="O11" s="33"/>
-      <x:c r="P11" s="33"/>
-      <x:c r="Q11" s="33"/>
-    </x:row>
-    <x:row r="12" spans="5:16">
-      <x:c r="E12" s="2"/>
-      <x:c r="F12" s="2"/>
-      <x:c r="G12" s="2"/>
-      <x:c r="H12" s="2"/>
-      <x:c r="I12" s="2"/>
-      <x:c r="J12" s="2"/>
-      <x:c r="K12" s="2"/>
-      <x:c r="L12" s="2"/>
-      <x:c r="M12" s="2"/>
-      <x:c r="N12" s="2"/>
-      <x:c r="O12" s="2"/>
-      <x:c r="P12" s="2"/>
+    <x:row r="1" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D1" s="52" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="E1" s="52" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D2" s="52" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="E2" s="52" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D3" s="52" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="E3" s="52" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D4" s="52" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="E4" s="52" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D5" s="52" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E5" s="52" t="s">
+        <x:v>258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D6" s="52"/>
+      <x:c r="E6" s="52" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D7" s="52"/>
+      <x:c r="E7" s="52" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D8" s="52"/>
+      <x:c r="E8" s="52" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D9" s="52"/>
+      <x:c r="E9" s="52" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D10" s="52"/>
+      <x:c r="E10" s="52" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D11" s="52"/>
+      <x:c r="E11" s="52" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D12" s="52"/>
+      <x:c r="E12" s="52" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D13" s="52"/>
+      <x:c r="E13" s="52" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D14" s="52"/>
+      <x:c r="E14" s="52" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="4:5" ht="25.5" customHeight="1">
+      <x:c r="D15" s="52"/>
+      <x:c r="E15" s="52" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="4:5">
+      <x:c r="D16" s="52"/>
+      <x:c r="E16" s="52"/>
+    </x:row>
+    <x:row r="17" spans="4:5">
+      <x:c r="D17" s="52"/>
+      <x:c r="E17" s="52"/>
+    </x:row>
+    <x:row r="18" spans="4:5">
+      <x:c r="D18" s="52"/>
+      <x:c r="E18" s="52"/>
+    </x:row>
+    <x:row r="19" spans="4:5">
+      <x:c r="D19" s="52"/>
+      <x:c r="E19" s="52"/>
+    </x:row>
+    <x:row r="20" spans="4:5">
+      <x:c r="D20" s="52"/>
+      <x:c r="E20" s="52"/>
+    </x:row>
+    <x:row r="21" spans="4:5">
+      <x:c r="D21" s="52"/>
+      <x:c r="E21" s="52"/>
+    </x:row>
+    <x:row r="22" spans="4:5">
+      <x:c r="D22" s="52"/>
+      <x:c r="E22" s="52"/>
+    </x:row>
+    <x:row r="23" spans="4:5">
+      <x:c r="D23" s="52"/>
+      <x:c r="E23" s="52"/>
+    </x:row>
+    <x:row r="24" spans="4:5">
+      <x:c r="D24" s="52"/>
+      <x:c r="E24" s="52"/>
+    </x:row>
+    <x:row r="25" spans="4:5">
+      <x:c r="D25" s="52"/>
+      <x:c r="E25" s="52"/>
+    </x:row>
+    <x:row r="26" spans="4:5">
+      <x:c r="D26" s="52"/>
+      <x:c r="E26" s="52"/>
+    </x:row>
+    <x:row r="27" spans="4:5">
+      <x:c r="D27" s="52"/>
+      <x:c r="E27" s="52"/>
+    </x:row>
+    <x:row r="28" spans="4:5">
+      <x:c r="D28" s="52"/>
+      <x:c r="E28" s="52"/>
+    </x:row>
+    <x:row r="29" spans="4:5">
+      <x:c r="D29" s="52"/>
+      <x:c r="E29" s="52"/>
+    </x:row>
+    <x:row r="30" spans="4:5">
+      <x:c r="D30" s="52"/>
+      <x:c r="E30" s="52"/>
+    </x:row>
+    <x:row r="31" spans="4:5">
+      <x:c r="D31" s="52"/>
+      <x:c r="E31" s="52"/>
+    </x:row>
+    <x:row r="32" spans="4:5">
+      <x:c r="D32" s="52"/>
+      <x:c r="E32" s="52"/>
+    </x:row>
+    <x:row r="33" spans="4:5">
+      <x:c r="D33" s="52"/>
+      <x:c r="E33" s="52"/>
+    </x:row>
+    <x:row r="34" spans="4:5">
+      <x:c r="D34" s="52"/>
+      <x:c r="E34" s="52"/>
+    </x:row>
+    <x:row r="35" spans="4:5">
+      <x:c r="D35" s="52"/>
+      <x:c r="E35" s="52"/>
+    </x:row>
+    <x:row r="36" spans="4:5">
+      <x:c r="D36" s="52"/>
+      <x:c r="E36" s="52"/>
+    </x:row>
+    <x:row r="37" spans="4:5">
+      <x:c r="D37" s="52"/>
+      <x:c r="E37" s="52"/>
+    </x:row>
+    <x:row r="38" spans="4:5">
+      <x:c r="D38" s="52"/>
+      <x:c r="E38" s="52"/>
+    </x:row>
+    <x:row r="39" spans="4:5">
+      <x:c r="D39" s="52"/>
+      <x:c r="E39" s="52"/>
+    </x:row>
+    <x:row r="40" spans="4:5">
+      <x:c r="D40" s="52"/>
+      <x:c r="E40" s="52"/>
+    </x:row>
+    <x:row r="41" spans="4:5">
+      <x:c r="D41" s="52"/>
+      <x:c r="E41" s="52"/>
+    </x:row>
+    <x:row r="42" spans="4:5">
+      <x:c r="D42" s="52"/>
+      <x:c r="E42" s="52"/>
+    </x:row>
+    <x:row r="43" spans="4:5">
+      <x:c r="D43" s="52"/>
+      <x:c r="E43" s="52"/>
+    </x:row>
+    <x:row r="44" spans="4:5">
+      <x:c r="D44" s="52"/>
+      <x:c r="E44" s="52"/>
+    </x:row>
+    <x:row r="45" spans="4:5">
+      <x:c r="D45" s="52"/>
+      <x:c r="E45" s="52"/>
+    </x:row>
+    <x:row r="46" spans="4:5">
+      <x:c r="D46" s="52"/>
+      <x:c r="E46" s="52"/>
+    </x:row>
+    <x:row r="47" spans="4:5">
+      <x:c r="D47" s="52"/>
+      <x:c r="E47" s="52"/>
+    </x:row>
+    <x:row r="48" spans="4:5">
+      <x:c r="D48" s="52"/>
+      <x:c r="E48" s="52"/>
+    </x:row>
+    <x:row r="49" spans="4:5">
+      <x:c r="D49" s="52"/>
+      <x:c r="E49" s="52"/>
+    </x:row>
+    <x:row r="50" spans="4:5">
+      <x:c r="D50" s="52"/>
+      <x:c r="E50" s="52"/>
+    </x:row>
+    <x:row r="51" spans="4:5">
+      <x:c r="D51" s="52"/>
+      <x:c r="E51" s="52"/>
+    </x:row>
+    <x:row r="52" spans="4:5">
+      <x:c r="D52" s="52"/>
+      <x:c r="E52" s="52"/>
+    </x:row>
+    <x:row r="53" spans="4:5">
+      <x:c r="D53" s="52"/>
+      <x:c r="E53" s="52"/>
+    </x:row>
+    <x:row r="54" spans="4:5">
+      <x:c r="D54" s="52"/>
+      <x:c r="E54" s="52"/>
+    </x:row>
+    <x:row r="55" spans="4:5">
+      <x:c r="D55" s="52"/>
+      <x:c r="E55" s="52"/>
+    </x:row>
+    <x:row r="56" spans="4:5">
+      <x:c r="D56" s="52"/>
+      <x:c r="E56" s="52"/>
+    </x:row>
+    <x:row r="57" spans="4:5">
+      <x:c r="D57" s="52"/>
+      <x:c r="E57" s="52"/>
+    </x:row>
+    <x:row r="58" spans="4:5">
+      <x:c r="D58" s="52"/>
+      <x:c r="E58" s="52"/>
+    </x:row>
+    <x:row r="59" spans="4:5">
+      <x:c r="D59" s="52"/>
+      <x:c r="E59" s="52"/>
+    </x:row>
+    <x:row r="60" spans="4:5">
+      <x:c r="D60" s="52"/>
+      <x:c r="E60" s="52"/>
+    </x:row>
+    <x:row r="61" spans="4:5">
+      <x:c r="D61" s="52"/>
+      <x:c r="E61" s="52"/>
+    </x:row>
+    <x:row r="62" spans="4:5">
+      <x:c r="D62" s="52"/>
+      <x:c r="E62" s="52"/>
+    </x:row>
+    <x:row r="63" spans="4:5">
+      <x:c r="D63" s="52"/>
+      <x:c r="E63" s="52"/>
+    </x:row>
+    <x:row r="64" spans="4:5">
+      <x:c r="D64" s="52"/>
+      <x:c r="E64" s="52"/>
+    </x:row>
+    <x:row r="65" spans="4:5">
+      <x:c r="D65" s="52"/>
+      <x:c r="E65" s="52"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="4">
-    <x:mergeCell ref="E7:Q8"/>
-    <x:mergeCell ref="E9:Q9"/>
-    <x:mergeCell ref="E10:Q10"/>
-    <x:mergeCell ref="E11:Q11"/>
-  </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A46149B-F89E-44E5-98E7-969AC5CBF2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DA7D47-A36F-41B7-B77C-F1BC18D87520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="349">
   <si>
     <t>몬스터 (Asmodeus) 스킬 소리 (기 모으다가 터트리는 소리)</t>
   </si>
@@ -1200,9 +1200,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Combat Whooshes 사운드 팩</t>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1251,7 +1248,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>8-Bit Studio - Fantasy Music</t>
+    <t>8-Bit Studio - Fantasy Music (0:01)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combat Whooshes 사운드 팩 ( 0:19 / 0:03 / 0:19 )</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Footstep and Foley Sounds ( 0:40 )</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1634,6 +1639,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,6 +1714,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,26 +1744,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1721,44 +1762,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1947,7 +1952,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1956,7 +1961,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -3023,122 +3028,122 @@
       <c r="F8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3183,11 +3188,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4613,28 +4618,28 @@
       <c r="G2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30">
+      <c r="B3" s="43">
         <v>100</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="43">
         <v>20</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="43">
         <v>200</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="43">
         <v>2</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="43">
         <v>1</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="43">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -4645,12 +4650,12 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="3" t="s">
         <v>151</v>
       </c>
@@ -4663,14 +4668,14 @@
     <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -4679,10 +4684,10 @@
       <c r="C14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
@@ -4691,10 +4696,10 @@
       <c r="C15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
@@ -4703,10 +4708,10 @@
       <c r="C16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4759,10 +4764,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="43" t="s">
         <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4770,14 +4775,14 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3" t="s">
         <v>100</v>
       </c>
@@ -4786,7 +4791,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="6" t="s">
         <v>102</v>
       </c>
@@ -4795,7 +4800,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
@@ -4804,7 +4809,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="43" t="s">
         <v>230</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4813,21 +4818,21 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="3" t="s">
         <v>114</v>
       </c>
@@ -4836,10 +4841,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="43" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4847,14 +4852,14 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="43" t="s">
         <v>212</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -4865,7 +4870,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="3" t="s">
         <v>241</v>
       </c>
@@ -4883,7 +4888,7 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -4894,7 +4899,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
@@ -4903,7 +4908,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="43" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4912,21 +4917,21 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="43" t="s">
         <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4935,49 +4940,49 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="31"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -5031,162 +5036,162 @@
       </c>
     </row>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="33">
+      <c r="G2" s="49">
         <v>45313</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="43" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="35"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="33">
+      <c r="G4" s="49">
         <v>45317</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="52" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="35"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="33">
+      <c r="G6" s="49">
         <v>45320</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="34"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="34"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="35"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="33">
+      <c r="G10" s="49">
         <v>45323</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="34"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="34"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="34"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="35"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="49" t="s">
         <v>227</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="43" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="34"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I16" s="32"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G17" s="34"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I17" s="32"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G18" s="35"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="49" t="s">
         <v>231</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G20" s="35"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="49" t="s">
         <v>211</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -5195,7 +5200,7 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="35"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="3" t="s">
         <v>45</v>
       </c>
@@ -5204,198 +5209,215 @@
       </c>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="49" t="s">
         <v>215</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="34"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="32"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G25" s="34"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="34"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="32"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="34"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="32"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="34"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I28" s="32"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="35"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="49" t="s">
         <v>245</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="43"/>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G31" s="34"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="32"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G32" s="35"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="49" t="s">
         <v>246</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="30"/>
+      <c r="I33" s="43"/>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G34" s="34"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="32"/>
+      <c r="I34" s="45"/>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G35" s="34"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I35" s="32"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G36" s="34"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I36" s="32"/>
+      <c r="I36" s="45"/>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G37" s="34"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="32"/>
+      <c r="I37" s="45"/>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G38" s="35"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="31"/>
+      <c r="I38" s="44"/>
     </row>
     <row r="39" spans="7:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="49" t="s">
         <v>260</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="52" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G40" s="34"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="32"/>
+      <c r="I40" s="45"/>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G41" s="34"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I41" s="32"/>
+      <c r="I41" s="45"/>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G42" s="34"/>
+      <c r="G42" s="50"/>
       <c r="H42" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I42" s="32"/>
+      <c r="I42" s="45"/>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G43" s="35"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="31"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I44" s="43"/>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G45" s="48"/>
+      <c r="H45" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G46" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="H44" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="I44" s="30"/>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G45" s="61"/>
-      <c r="H45" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="I45" s="31"/>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G46" s="60" t="s">
+      <c r="H46" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="I46" s="46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G47" s="48"/>
+      <c r="H47" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="I46" s="62" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G47" s="61"/>
-      <c r="H47" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="I47" s="31"/>
+      <c r="I47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="I30:I32"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="G33:G38"/>
@@ -5404,23 +5426,6 @@
     <mergeCell ref="I39:I43"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -5708,20 +5713,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="I1" s="23" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="I1" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
@@ -5794,14 +5799,14 @@
       </c>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="J7" s="36"/>
+      <c r="L7" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I8" s="3"/>
@@ -6010,7 +6015,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6024,227 +6029,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="21" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>335</v>
+      <c r="A2" s="27" t="s">
+        <v>334</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="21" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F3" s="56" t="s">
+      <c r="E4" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="52" t="s">
+      <c r="G4" s="30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="52" t="s">
+      <c r="E5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="52" t="s">
+      <c r="E7" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="22"/>
+      <c r="E8" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="22"/>
+      <c r="E10" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="41"/>
-      <c r="E8" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="41"/>
-      <c r="E10" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="53" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="41"/>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="53" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="30" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="41"/>
-      <c r="E12" s="52" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="53" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="41"/>
-      <c r="E13" s="52" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="53" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="41"/>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="53" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="41"/>
-      <c r="E15" s="52" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="53" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="30" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="41"/>
-      <c r="E16" s="52" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="53" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="30" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="41"/>
-      <c r="E17" s="52" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="53" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="30" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="18" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="41"/>
-      <c r="E18" s="52" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="53" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="30" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="41"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="53" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="20" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="41"/>
-      <c r="E20" s="43" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="53" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="30" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6252,7 +6259,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="31" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6260,7 +6267,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="30" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6268,7 +6275,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="30" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6276,7 +6283,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="18"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="30" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6284,7 +6291,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="18"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="30" t="s">
         <v>316</v>
       </c>
     </row>
@@ -6292,7 +6299,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="18"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="30" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6300,7 +6307,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="18"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="31" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6308,7 +6315,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="18"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="32" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6316,7 +6323,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="18"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="31" t="s">
         <v>319</v>
       </c>
     </row>
@@ -6324,7 +6331,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="18"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="31" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6332,7 +6339,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="18"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="31" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6340,7 +6347,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="18"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="31" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6348,169 +6355,137 @@
       <c r="D33" s="3"/>
       <c r="E33" s="18"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="34" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="46"/>
     </row>
     <row r="35" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="46"/>
     </row>
     <row r="36" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="46"/>
     </row>
     <row r="37" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="46"/>
     </row>
     <row r="38" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="46"/>
     </row>
     <row r="39" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="46"/>
     </row>
     <row r="41" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="46"/>
     </row>
     <row r="43" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="46"/>
     </row>
     <row r="44" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="46"/>
     </row>
     <row r="45" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="46"/>
     </row>
     <row r="46" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="46"/>
     </row>
     <row r="47" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="46"/>
     </row>
     <row r="48" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="46"/>
-    </row>
-    <row r="49" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="4:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="46"/>
-    </row>
-    <row r="50" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="4:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="46"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="46"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="46"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="46"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="46"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="46"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="46"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="46"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="46"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="46"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="46"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="46"/>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="46"/>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="46"/>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="46"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6522,8 +6497,9 @@
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" display="https://assetstore.unity.com/packages/audio/sound-fx/combat-whooshes-203902" xr:uid="{1574FE8A-65E9-4E84-B0CF-0DBD4FCC02B1}"/>
     <hyperlink ref="F3" r:id="rId2" display="https://assetstore.unity.com/packages/audio/music/orchestral/8-bit-studio-fantasy-music-bundle-vol-1-262327" xr:uid="{89A42476-2D21-418C-A1C3-CCBC04A92376}"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://assetstore.unity.com/packages/audio/sound-fx/foley/footstep-and-foley-sounds-85360" xr:uid="{4B9AA80C-156B-4E38-B8FB-F1771BB02919}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLASS\Desktop\Spenta\Spenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E20508-7A0A-4C19-A1DB-F29FF26F6A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
     <sheet name="개발 메모" sheetId="2" r:id="rId2"/>
-    <sheet name="플레이어" sheetId="3" r:id="rId3"/>
-    <sheet name="구현 항목" sheetId="4" r:id="rId4"/>
-    <sheet name="개발 일지" sheetId="5" r:id="rId5"/>
-    <sheet name="NPC" sheetId="6" r:id="rId6"/>
-    <sheet name="에셋" sheetId="7" r:id="rId7"/>
-    <sheet name="필요 항목" sheetId="8" r:id="rId8"/>
-    <sheet name="저장목록" sheetId="9" r:id="rId9"/>
+    <sheet name="레이어" sheetId="10" r:id="rId3"/>
+    <sheet name="플레이어" sheetId="3" r:id="rId4"/>
+    <sheet name="구현 항목" sheetId="4" r:id="rId5"/>
+    <sheet name="개발 일지" sheetId="5" r:id="rId6"/>
+    <sheet name="NPC" sheetId="6" r:id="rId7"/>
+    <sheet name="에셋" sheetId="7" r:id="rId8"/>
+    <sheet name="필요 항목" sheetId="8" r:id="rId9"/>
+    <sheet name="저장목록" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="375">
   <si>
     <t>아래 점프 구현</t>
   </si>
@@ -1325,11 +1327,46 @@
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기에 따로 레이어 적용</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 몬스터 구현</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 몬스터 순서 구현</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnTriggerStay2D</t>
+  </si>
+  <si>
+    <t>함정 밟을 떄 캐릭터 고장나는 현상 수정</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 무기와 몬스터 충돌하지 않는 문제 수정</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 이펙트 사이즈 조정</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
@@ -1658,203 +1695,188 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2044,7 +2066,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2053,7 +2075,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2727,7 +2749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -2738,279 +2760,279 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="32.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="32.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="5" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="5" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="5" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3036,1432 +3058,1621 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:X318"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="D3:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="50.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="27" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:X318"/>
+  <sheetViews>
+    <sheetView topLeftCell="D82" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O95" sqref="O95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17" t="s">
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
     </row>
     <row r="65" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17" t="s">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="X65" s="17" t="s">
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="X65" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="X66" s="17" t="s">
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="X66" s="16" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
     </row>
     <row r="68" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17" t="s">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
     </row>
     <row r="69" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17" t="s">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
     </row>
     <row r="70" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
     </row>
     <row r="71" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
     </row>
     <row r="72" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
     </row>
     <row r="73" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
     </row>
     <row r="74" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
     </row>
     <row r="75" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
     </row>
     <row r="76" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
     </row>
     <row r="77" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17" t="s">
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
     </row>
     <row r="78" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17" t="s">
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
     </row>
     <row r="79" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="80" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="F80" s="17" t="s">
+      <c r="F80" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" s="64" t="s">
+      <c r="F86" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="G86" s="17"/>
+      <c r="G86" s="16"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" s="64" t="s">
+      <c r="F87" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="G87" s="17"/>
+      <c r="G87" s="16"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F88" s="64" t="s">
+      <c r="F88" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="G88" s="17"/>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G99" s="17" t="s">
+      <c r="G99" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G100" s="17" t="s">
+      <c r="G100" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G101" s="17"/>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G111" s="16" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="181" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="16"/>
+      <c r="J181" s="16"/>
     </row>
     <row r="182" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G182" s="17"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
     </row>
     <row r="183" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="17"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16"/>
     </row>
     <row r="184" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="17"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
     </row>
     <row r="185" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G185" s="17"/>
-      <c r="H185" s="17"/>
-      <c r="I185" s="17"/>
-      <c r="J185" s="17"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+      <c r="J185" s="16"/>
     </row>
     <row r="186" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
-      <c r="I186" s="17"/>
-      <c r="J186" s="17"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16"/>
     </row>
     <row r="187" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="17"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="17"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
+      <c r="J187" s="16"/>
     </row>
     <row r="188" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="17"/>
-      <c r="I188" s="17"/>
-      <c r="J188" s="17"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="16"/>
+      <c r="J188" s="16"/>
     </row>
     <row r="189" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="17"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="17"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="16"/>
+      <c r="J189" s="16"/>
     </row>
     <row r="190" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="17"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="16"/>
+      <c r="J190" s="16"/>
     </row>
     <row r="191" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F191" s="17"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
-      <c r="I191" s="17"/>
-      <c r="J191" s="17"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="16"/>
+      <c r="J191" s="16"/>
     </row>
     <row r="192" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F192" s="17"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="17"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="16"/>
+      <c r="J192" s="16"/>
     </row>
     <row r="193" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F193" s="17"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="17"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="16"/>
+      <c r="J193" s="16"/>
     </row>
     <row r="194" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F194" s="17"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="17"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="17"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="16"/>
+      <c r="I194" s="16"/>
+      <c r="J194" s="16"/>
     </row>
     <row r="195" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="17"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="16"/>
+      <c r="J195" s="16"/>
     </row>
     <row r="196" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
-      <c r="I196" s="17"/>
-      <c r="J196" s="17"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="16"/>
+      <c r="I196" s="16"/>
+      <c r="J196" s="16"/>
     </row>
     <row r="197" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F197" s="17"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="17"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16"/>
+      <c r="I197" s="16"/>
+      <c r="J197" s="16"/>
     </row>
     <row r="198" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
-      <c r="I198" s="17"/>
-      <c r="J198" s="17"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16"/>
+      <c r="I198" s="16"/>
+      <c r="J198" s="16"/>
     </row>
     <row r="199" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="17"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="16"/>
+      <c r="I199" s="16"/>
+      <c r="J199" s="16"/>
     </row>
     <row r="200" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="17"/>
-      <c r="J200" s="17"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="16"/>
+      <c r="I200" s="16"/>
+      <c r="J200" s="16"/>
     </row>
     <row r="201" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
+      <c r="F201" s="16"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="16"/>
+      <c r="I201" s="16"/>
+      <c r="J201" s="16"/>
     </row>
     <row r="202" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="17"/>
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
+      <c r="I202" s="16"/>
+      <c r="J202" s="16"/>
     </row>
     <row r="203" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F203" s="17"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="17"/>
-      <c r="J203" s="17"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="16"/>
+      <c r="I203" s="16"/>
+      <c r="J203" s="16"/>
     </row>
     <row r="204" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
-      <c r="I204" s="17"/>
-      <c r="J204" s="17"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+      <c r="J204" s="16"/>
     </row>
     <row r="205" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
-      <c r="I205" s="17"/>
-      <c r="J205" s="17"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="16"/>
+      <c r="J205" s="16"/>
     </row>
     <row r="206" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
-      <c r="I206" s="17"/>
-      <c r="J206" s="17"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="16"/>
+      <c r="J206" s="16"/>
     </row>
     <row r="207" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-      <c r="I207" s="17"/>
-      <c r="J207" s="17"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="16"/>
+      <c r="I207" s="16"/>
+      <c r="J207" s="16"/>
     </row>
     <row r="208" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17"/>
-      <c r="I208" s="17"/>
-      <c r="J208" s="17"/>
+      <c r="F208" s="16"/>
+      <c r="G208" s="16"/>
+      <c r="H208" s="16"/>
+      <c r="I208" s="16"/>
+      <c r="J208" s="16"/>
     </row>
     <row r="209" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F209" s="17"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
-      <c r="I209" s="17"/>
-      <c r="J209" s="17"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="16"/>
+      <c r="I209" s="16"/>
+      <c r="J209" s="16"/>
     </row>
     <row r="210" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
-      <c r="I210" s="17"/>
-      <c r="J210" s="17"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="16"/>
+      <c r="H210" s="16"/>
+      <c r="I210" s="16"/>
+      <c r="J210" s="16"/>
     </row>
     <row r="211" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-      <c r="I211" s="17"/>
-      <c r="J211" s="17"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="16"/>
+      <c r="I211" s="16"/>
+      <c r="J211" s="16"/>
     </row>
     <row r="212" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F212" s="17"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
-      <c r="I212" s="17"/>
-      <c r="J212" s="17"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="16"/>
+      <c r="H212" s="16"/>
+      <c r="I212" s="16"/>
+      <c r="J212" s="16"/>
     </row>
     <row r="213" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F213" s="17"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
-      <c r="I213" s="17"/>
-      <c r="J213" s="17"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16"/>
+      <c r="I213" s="16"/>
+      <c r="J213" s="16"/>
     </row>
     <row r="214" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F214" s="17"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="17"/>
-      <c r="J214" s="17"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16"/>
+      <c r="I214" s="16"/>
+      <c r="J214" s="16"/>
     </row>
     <row r="215" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
-      <c r="J215" s="17"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+      <c r="I215" s="16"/>
+      <c r="J215" s="16"/>
     </row>
     <row r="216" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
-      <c r="I216" s="17"/>
-      <c r="J216" s="17"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+      <c r="I216" s="16"/>
+      <c r="J216" s="16"/>
     </row>
     <row r="217" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F217" s="17"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="17"/>
-      <c r="I217" s="17"/>
-      <c r="J217" s="17"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+      <c r="I217" s="16"/>
+      <c r="J217" s="16"/>
     </row>
     <row r="218" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="17"/>
-      <c r="J218" s="17"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16"/>
+      <c r="I218" s="16"/>
+      <c r="J218" s="16"/>
     </row>
     <row r="219" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-      <c r="I219" s="17"/>
-      <c r="J219" s="17"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="16"/>
+      <c r="I219" s="16"/>
+      <c r="J219" s="16"/>
     </row>
     <row r="220" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F220" s="17"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
-      <c r="I220" s="17"/>
-      <c r="J220" s="17"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="16"/>
+      <c r="I220" s="16"/>
+      <c r="J220" s="16"/>
     </row>
     <row r="221" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F221" s="17"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
-      <c r="I221" s="17"/>
-      <c r="J221" s="17"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="16"/>
+      <c r="I221" s="16"/>
+      <c r="J221" s="16"/>
     </row>
     <row r="222" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F222" s="17"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="17"/>
-      <c r="I222" s="17"/>
-      <c r="J222" s="17"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="16"/>
+      <c r="J222" s="16"/>
     </row>
     <row r="223" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F223" s="17"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="17"/>
-      <c r="I223" s="17"/>
-      <c r="J223" s="17"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="16"/>
+      <c r="J223" s="16"/>
     </row>
     <row r="224" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="17"/>
-      <c r="I224" s="17"/>
-      <c r="J224" s="17"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="16"/>
+      <c r="I224" s="16"/>
+      <c r="J224" s="16"/>
     </row>
     <row r="225" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-      <c r="I225" s="17"/>
-      <c r="J225" s="17"/>
+      <c r="F225" s="16"/>
+      <c r="G225" s="16"/>
+      <c r="H225" s="16"/>
+      <c r="I225" s="16"/>
+      <c r="J225" s="16"/>
     </row>
     <row r="226" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
-      <c r="I226" s="17"/>
-      <c r="J226" s="17"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+      <c r="H226" s="16"/>
+      <c r="I226" s="16"/>
+      <c r="J226" s="16"/>
     </row>
     <row r="227" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F227" s="17"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="17"/>
-      <c r="I227" s="17"/>
-      <c r="J227" s="17"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
+      <c r="H227" s="16"/>
+      <c r="I227" s="16"/>
+      <c r="J227" s="16"/>
     </row>
     <row r="228" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
-      <c r="I228" s="17"/>
-      <c r="J228" s="17"/>
+      <c r="F228" s="16"/>
+      <c r="G228" s="16"/>
+      <c r="H228" s="16"/>
+      <c r="I228" s="16"/>
+      <c r="J228" s="16"/>
     </row>
     <row r="229" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F229" s="17"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
-      <c r="I229" s="17"/>
-      <c r="J229" s="17"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="16"/>
+      <c r="I229" s="16"/>
+      <c r="J229" s="16"/>
     </row>
     <row r="230" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
-      <c r="I230" s="17"/>
-      <c r="J230" s="17"/>
+      <c r="F230" s="16"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+      <c r="I230" s="16"/>
+      <c r="J230" s="16"/>
     </row>
     <row r="231" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F231" s="17"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
-      <c r="I231" s="17"/>
-      <c r="J231" s="17"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+      <c r="H231" s="16"/>
+      <c r="I231" s="16"/>
+      <c r="J231" s="16"/>
     </row>
     <row r="232" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F232" s="17"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="17"/>
-      <c r="I232" s="17"/>
-      <c r="J232" s="17"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="16"/>
+      <c r="H232" s="16"/>
+      <c r="I232" s="16"/>
+      <c r="J232" s="16"/>
     </row>
     <row r="233" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F233" s="17"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="17"/>
-      <c r="I233" s="17"/>
-      <c r="J233" s="17"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="16"/>
+      <c r="H233" s="16"/>
+      <c r="I233" s="16"/>
+      <c r="J233" s="16"/>
     </row>
     <row r="234" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="17"/>
-      <c r="I234" s="17"/>
-      <c r="J234" s="17"/>
+      <c r="F234" s="16"/>
+      <c r="G234" s="16"/>
+      <c r="H234" s="16"/>
+      <c r="I234" s="16"/>
+      <c r="J234" s="16"/>
     </row>
     <row r="235" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F235" s="17"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="17"/>
-      <c r="I235" s="17"/>
-      <c r="J235" s="17"/>
+      <c r="F235" s="16"/>
+      <c r="G235" s="16"/>
+      <c r="H235" s="16"/>
+      <c r="I235" s="16"/>
+      <c r="J235" s="16"/>
     </row>
     <row r="236" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="17"/>
-      <c r="I236" s="17"/>
-      <c r="J236" s="17"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="16"/>
+      <c r="I236" s="16"/>
+      <c r="J236" s="16"/>
     </row>
     <row r="237" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="17"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="16"/>
+      <c r="I237" s="16"/>
+      <c r="J237" s="16"/>
     </row>
     <row r="238" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="17"/>
-      <c r="J238" s="17"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
+      <c r="I238" s="16"/>
+      <c r="J238" s="16"/>
     </row>
     <row r="239" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="17"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+      <c r="I239" s="16"/>
+      <c r="J239" s="16"/>
     </row>
     <row r="240" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
-      <c r="I240" s="17"/>
-      <c r="J240" s="17"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
+      <c r="I240" s="16"/>
+      <c r="J240" s="16"/>
     </row>
     <row r="241" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
-      <c r="I241" s="17"/>
-      <c r="J241" s="17"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="16"/>
+      <c r="I241" s="16"/>
+      <c r="J241" s="16"/>
     </row>
     <row r="242" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
-      <c r="I242" s="17"/>
-      <c r="J242" s="17"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="16"/>
+      <c r="H242" s="16"/>
+      <c r="I242" s="16"/>
+      <c r="J242" s="16"/>
     </row>
     <row r="243" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="17"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="16"/>
+      <c r="H243" s="16"/>
+      <c r="I243" s="16"/>
+      <c r="J243" s="16"/>
     </row>
     <row r="244" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
-      <c r="I244" s="17"/>
-      <c r="J244" s="17"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="16"/>
+      <c r="H244" s="16"/>
+      <c r="I244" s="16"/>
+      <c r="J244" s="16"/>
     </row>
     <row r="245" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
-      <c r="I245" s="17"/>
-      <c r="J245" s="17"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="16"/>
+      <c r="H245" s="16"/>
+      <c r="I245" s="16"/>
+      <c r="J245" s="16"/>
     </row>
     <row r="246" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="17"/>
-      <c r="I246" s="17"/>
-      <c r="J246" s="17"/>
+      <c r="F246" s="16"/>
+      <c r="G246" s="16"/>
+      <c r="H246" s="16"/>
+      <c r="I246" s="16"/>
+      <c r="J246" s="16"/>
     </row>
     <row r="247" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
-      <c r="I247" s="17"/>
-      <c r="J247" s="17"/>
+      <c r="F247" s="16"/>
+      <c r="G247" s="16"/>
+      <c r="H247" s="16"/>
+      <c r="I247" s="16"/>
+      <c r="J247" s="16"/>
     </row>
     <row r="248" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F248" s="17"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
-      <c r="I248" s="17"/>
-      <c r="J248" s="17"/>
+      <c r="F248" s="16"/>
+      <c r="G248" s="16"/>
+      <c r="H248" s="16"/>
+      <c r="I248" s="16"/>
+      <c r="J248" s="16"/>
     </row>
     <row r="249" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
-      <c r="I249" s="17"/>
-      <c r="J249" s="17"/>
+      <c r="F249" s="16"/>
+      <c r="G249" s="16"/>
+      <c r="H249" s="16"/>
+      <c r="I249" s="16"/>
+      <c r="J249" s="16"/>
     </row>
     <row r="250" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="17"/>
-      <c r="I250" s="17"/>
-      <c r="J250" s="17"/>
+      <c r="F250" s="16"/>
+      <c r="G250" s="16"/>
+      <c r="H250" s="16"/>
+      <c r="I250" s="16"/>
+      <c r="J250" s="16"/>
     </row>
     <row r="251" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
-      <c r="J251" s="17"/>
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+      <c r="H251" s="16"/>
+      <c r="I251" s="16"/>
+      <c r="J251" s="16"/>
     </row>
     <row r="252" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="17"/>
-      <c r="J252" s="17"/>
+      <c r="F252" s="16"/>
+      <c r="G252" s="16"/>
+      <c r="H252" s="16"/>
+      <c r="I252" s="16"/>
+      <c r="J252" s="16"/>
     </row>
     <row r="253" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-      <c r="I253" s="17"/>
-      <c r="J253" s="17"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+      <c r="H253" s="16"/>
+      <c r="I253" s="16"/>
+      <c r="J253" s="16"/>
     </row>
     <row r="254" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="17"/>
-      <c r="I254" s="17"/>
-      <c r="J254" s="17"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="16"/>
+      <c r="H254" s="16"/>
+      <c r="I254" s="16"/>
+      <c r="J254" s="16"/>
     </row>
     <row r="255" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F255" s="17"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="17"/>
-      <c r="I255" s="17"/>
-      <c r="J255" s="17"/>
+      <c r="F255" s="16"/>
+      <c r="G255" s="16"/>
+      <c r="H255" s="16"/>
+      <c r="I255" s="16"/>
+      <c r="J255" s="16"/>
     </row>
     <row r="256" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F256" s="17"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="17"/>
-      <c r="I256" s="17"/>
-      <c r="J256" s="17"/>
+      <c r="F256" s="16"/>
+      <c r="G256" s="16"/>
+      <c r="H256" s="16"/>
+      <c r="I256" s="16"/>
+      <c r="J256" s="16"/>
     </row>
     <row r="257" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F257" s="17"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="17"/>
+      <c r="F257" s="16"/>
+      <c r="G257" s="16"/>
+      <c r="H257" s="16"/>
+      <c r="I257" s="16"/>
+      <c r="J257" s="16"/>
     </row>
     <row r="258" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F258" s="17"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="17"/>
-      <c r="I258" s="17"/>
-      <c r="J258" s="17"/>
+      <c r="F258" s="16"/>
+      <c r="G258" s="16"/>
+      <c r="H258" s="16"/>
+      <c r="I258" s="16"/>
+      <c r="J258" s="16"/>
     </row>
     <row r="259" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F259" s="17"/>
-      <c r="G259" s="17"/>
-      <c r="H259" s="17"/>
-      <c r="I259" s="17"/>
-      <c r="J259" s="17"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="16"/>
+      <c r="H259" s="16"/>
+      <c r="I259" s="16"/>
+      <c r="J259" s="16"/>
     </row>
     <row r="260" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F260" s="17"/>
-      <c r="G260" s="17"/>
-      <c r="H260" s="17"/>
-      <c r="I260" s="17"/>
-      <c r="J260" s="17"/>
+      <c r="F260" s="16"/>
+      <c r="G260" s="16"/>
+      <c r="H260" s="16"/>
+      <c r="I260" s="16"/>
+      <c r="J260" s="16"/>
     </row>
     <row r="261" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F261" s="17"/>
-      <c r="G261" s="17"/>
-      <c r="H261" s="17"/>
-      <c r="I261" s="17"/>
-      <c r="J261" s="17"/>
+      <c r="F261" s="16"/>
+      <c r="G261" s="16"/>
+      <c r="H261" s="16"/>
+      <c r="I261" s="16"/>
+      <c r="J261" s="16"/>
     </row>
     <row r="262" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F262" s="17"/>
-      <c r="G262" s="17"/>
-      <c r="H262" s="17"/>
-      <c r="I262" s="17"/>
-      <c r="J262" s="17"/>
+      <c r="F262" s="16"/>
+      <c r="G262" s="16"/>
+      <c r="H262" s="16"/>
+      <c r="I262" s="16"/>
+      <c r="J262" s="16"/>
     </row>
     <row r="263" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F263" s="17"/>
-      <c r="G263" s="17"/>
-      <c r="H263" s="17"/>
-      <c r="I263" s="17"/>
-      <c r="J263" s="17"/>
+      <c r="F263" s="16"/>
+      <c r="G263" s="16"/>
+      <c r="H263" s="16"/>
+      <c r="I263" s="16"/>
+      <c r="J263" s="16"/>
     </row>
     <row r="264" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F264" s="17"/>
-      <c r="G264" s="17"/>
-      <c r="H264" s="17"/>
-      <c r="I264" s="17"/>
-      <c r="J264" s="17"/>
+      <c r="F264" s="16"/>
+      <c r="G264" s="16"/>
+      <c r="H264" s="16"/>
+      <c r="I264" s="16"/>
+      <c r="J264" s="16"/>
     </row>
     <row r="265" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F265" s="17"/>
-      <c r="G265" s="17"/>
-      <c r="H265" s="17"/>
-      <c r="I265" s="17"/>
-      <c r="J265" s="17"/>
+      <c r="F265" s="16"/>
+      <c r="G265" s="16"/>
+      <c r="H265" s="16"/>
+      <c r="I265" s="16"/>
+      <c r="J265" s="16"/>
     </row>
     <row r="266" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F266" s="17"/>
-      <c r="G266" s="17"/>
-      <c r="H266" s="17"/>
-      <c r="I266" s="17"/>
-      <c r="J266" s="17"/>
+      <c r="F266" s="16"/>
+      <c r="G266" s="16"/>
+      <c r="H266" s="16"/>
+      <c r="I266" s="16"/>
+      <c r="J266" s="16"/>
     </row>
     <row r="267" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F267" s="17"/>
-      <c r="G267" s="17"/>
-      <c r="H267" s="17"/>
-      <c r="I267" s="17"/>
-      <c r="J267" s="17"/>
+      <c r="F267" s="16"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="16"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
     </row>
     <row r="268" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F268" s="17"/>
-      <c r="G268" s="17"/>
-      <c r="H268" s="17"/>
-      <c r="I268" s="17"/>
-      <c r="J268" s="17"/>
+      <c r="F268" s="16"/>
+      <c r="G268" s="16"/>
+      <c r="H268" s="16"/>
+      <c r="I268" s="16"/>
+      <c r="J268" s="16"/>
     </row>
     <row r="269" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F269" s="17"/>
-      <c r="G269" s="17"/>
-      <c r="H269" s="17"/>
-      <c r="I269" s="17"/>
-      <c r="J269" s="17"/>
+      <c r="F269" s="16"/>
+      <c r="G269" s="16"/>
+      <c r="H269" s="16"/>
+      <c r="I269" s="16"/>
+      <c r="J269" s="16"/>
     </row>
     <row r="270" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F270" s="17"/>
-      <c r="G270" s="17"/>
-      <c r="H270" s="17"/>
-      <c r="I270" s="17"/>
-      <c r="J270" s="17"/>
+      <c r="F270" s="16"/>
+      <c r="G270" s="16"/>
+      <c r="H270" s="16"/>
+      <c r="I270" s="16"/>
+      <c r="J270" s="16"/>
     </row>
     <row r="271" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F271" s="17"/>
-      <c r="G271" s="17"/>
-      <c r="H271" s="17"/>
-      <c r="I271" s="17"/>
-      <c r="J271" s="17"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="16"/>
+      <c r="H271" s="16"/>
+      <c r="I271" s="16"/>
+      <c r="J271" s="16"/>
     </row>
     <row r="272" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F272" s="17"/>
-      <c r="G272" s="17"/>
-      <c r="H272" s="17"/>
-      <c r="I272" s="17"/>
-      <c r="J272" s="17"/>
+      <c r="F272" s="16"/>
+      <c r="G272" s="16"/>
+      <c r="H272" s="16"/>
+      <c r="I272" s="16"/>
+      <c r="J272" s="16"/>
     </row>
     <row r="273" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F273" s="17"/>
-      <c r="G273" s="17"/>
-      <c r="H273" s="17"/>
-      <c r="I273" s="17"/>
-      <c r="J273" s="17"/>
+      <c r="F273" s="16"/>
+      <c r="G273" s="16"/>
+      <c r="H273" s="16"/>
+      <c r="I273" s="16"/>
+      <c r="J273" s="16"/>
     </row>
     <row r="274" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F274" s="17"/>
-      <c r="G274" s="17"/>
-      <c r="H274" s="17"/>
-      <c r="I274" s="17"/>
-      <c r="J274" s="17"/>
+      <c r="F274" s="16"/>
+      <c r="G274" s="16"/>
+      <c r="H274" s="16"/>
+      <c r="I274" s="16"/>
+      <c r="J274" s="16"/>
     </row>
     <row r="275" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F275" s="17"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="17"/>
-      <c r="I275" s="17"/>
-      <c r="J275" s="17"/>
+      <c r="F275" s="16"/>
+      <c r="G275" s="16"/>
+      <c r="H275" s="16"/>
+      <c r="I275" s="16"/>
+      <c r="J275" s="16"/>
     </row>
     <row r="276" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F276" s="17"/>
-      <c r="G276" s="17"/>
-      <c r="H276" s="17"/>
-      <c r="I276" s="17"/>
-      <c r="J276" s="17"/>
+      <c r="F276" s="16"/>
+      <c r="G276" s="16"/>
+      <c r="H276" s="16"/>
+      <c r="I276" s="16"/>
+      <c r="J276" s="16"/>
     </row>
     <row r="277" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F277" s="17"/>
-      <c r="G277" s="17"/>
-      <c r="H277" s="17"/>
-      <c r="I277" s="17"/>
-      <c r="J277" s="17"/>
+      <c r="F277" s="16"/>
+      <c r="G277" s="16"/>
+      <c r="H277" s="16"/>
+      <c r="I277" s="16"/>
+      <c r="J277" s="16"/>
     </row>
     <row r="278" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F278" s="17"/>
-      <c r="G278" s="17"/>
-      <c r="H278" s="17"/>
-      <c r="I278" s="17"/>
-      <c r="J278" s="17"/>
+      <c r="F278" s="16"/>
+      <c r="G278" s="16"/>
+      <c r="H278" s="16"/>
+      <c r="I278" s="16"/>
+      <c r="J278" s="16"/>
     </row>
     <row r="279" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F279" s="17"/>
-      <c r="G279" s="17"/>
-      <c r="H279" s="17"/>
-      <c r="I279" s="17"/>
-      <c r="J279" s="17"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="16"/>
+      <c r="H279" s="16"/>
+      <c r="I279" s="16"/>
+      <c r="J279" s="16"/>
     </row>
     <row r="280" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F280" s="17"/>
-      <c r="G280" s="17"/>
-      <c r="H280" s="17"/>
-      <c r="I280" s="17"/>
-      <c r="J280" s="17"/>
+      <c r="F280" s="16"/>
+      <c r="G280" s="16"/>
+      <c r="H280" s="16"/>
+      <c r="I280" s="16"/>
+      <c r="J280" s="16"/>
     </row>
     <row r="281" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F281" s="17"/>
-      <c r="G281" s="17"/>
-      <c r="H281" s="17"/>
-      <c r="I281" s="17"/>
-      <c r="J281" s="17"/>
+      <c r="F281" s="16"/>
+      <c r="G281" s="16"/>
+      <c r="H281" s="16"/>
+      <c r="I281" s="16"/>
+      <c r="J281" s="16"/>
     </row>
     <row r="282" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F282" s="17"/>
-      <c r="G282" s="17"/>
-      <c r="H282" s="17"/>
-      <c r="I282" s="17"/>
-      <c r="J282" s="17"/>
+      <c r="F282" s="16"/>
+      <c r="G282" s="16"/>
+      <c r="H282" s="16"/>
+      <c r="I282" s="16"/>
+      <c r="J282" s="16"/>
     </row>
     <row r="283" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F283" s="17"/>
-      <c r="G283" s="17"/>
-      <c r="H283" s="17"/>
-      <c r="I283" s="17"/>
-      <c r="J283" s="17"/>
+      <c r="F283" s="16"/>
+      <c r="G283" s="16"/>
+      <c r="H283" s="16"/>
+      <c r="I283" s="16"/>
+      <c r="J283" s="16"/>
     </row>
     <row r="284" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
-      <c r="H284" s="17"/>
-      <c r="I284" s="17"/>
-      <c r="J284" s="17"/>
+      <c r="F284" s="16"/>
+      <c r="G284" s="16"/>
+      <c r="H284" s="16"/>
+      <c r="I284" s="16"/>
+      <c r="J284" s="16"/>
     </row>
     <row r="285" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F285" s="17"/>
-      <c r="G285" s="17"/>
-      <c r="H285" s="17"/>
-      <c r="I285" s="17"/>
-      <c r="J285" s="17"/>
+      <c r="F285" s="16"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="16"/>
+      <c r="I285" s="16"/>
+      <c r="J285" s="16"/>
     </row>
     <row r="286" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
-      <c r="H286" s="17"/>
-      <c r="I286" s="17"/>
-      <c r="J286" s="17"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="16"/>
+      <c r="H286" s="16"/>
+      <c r="I286" s="16"/>
+      <c r="J286" s="16"/>
     </row>
     <row r="287" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F287" s="17"/>
-      <c r="G287" s="17"/>
-      <c r="H287" s="17"/>
-      <c r="I287" s="17"/>
-      <c r="J287" s="17"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="16"/>
+      <c r="H287" s="16"/>
+      <c r="I287" s="16"/>
+      <c r="J287" s="16"/>
     </row>
     <row r="288" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F288" s="17"/>
-      <c r="G288" s="17"/>
-      <c r="H288" s="17"/>
-      <c r="I288" s="17"/>
-      <c r="J288" s="17"/>
+      <c r="F288" s="16"/>
+      <c r="G288" s="16"/>
+      <c r="H288" s="16"/>
+      <c r="I288" s="16"/>
+      <c r="J288" s="16"/>
     </row>
     <row r="289" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F289" s="17"/>
-      <c r="G289" s="17"/>
-      <c r="H289" s="17"/>
-      <c r="I289" s="17"/>
-      <c r="J289" s="17"/>
+      <c r="F289" s="16"/>
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="16"/>
+      <c r="J289" s="16"/>
     </row>
     <row r="290" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F290" s="17"/>
-      <c r="G290" s="17"/>
-      <c r="H290" s="17"/>
-      <c r="I290" s="17"/>
-      <c r="J290" s="17"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="16"/>
+      <c r="H290" s="16"/>
+      <c r="I290" s="16"/>
+      <c r="J290" s="16"/>
     </row>
     <row r="291" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F291" s="17"/>
-      <c r="G291" s="17"/>
-      <c r="H291" s="17"/>
-      <c r="I291" s="17"/>
-      <c r="J291" s="17"/>
+      <c r="F291" s="16"/>
+      <c r="G291" s="16"/>
+      <c r="H291" s="16"/>
+      <c r="I291" s="16"/>
+      <c r="J291" s="16"/>
     </row>
     <row r="292" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F292" s="17"/>
-      <c r="G292" s="17"/>
-      <c r="H292" s="17"/>
-      <c r="I292" s="17"/>
-      <c r="J292" s="17"/>
+      <c r="F292" s="16"/>
+      <c r="G292" s="16"/>
+      <c r="H292" s="16"/>
+      <c r="I292" s="16"/>
+      <c r="J292" s="16"/>
     </row>
     <row r="293" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F293" s="17"/>
-      <c r="G293" s="17"/>
-      <c r="H293" s="17"/>
-      <c r="I293" s="17"/>
-      <c r="J293" s="17"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
+      <c r="H293" s="16"/>
+      <c r="I293" s="16"/>
+      <c r="J293" s="16"/>
     </row>
     <row r="294" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F294" s="17"/>
-      <c r="G294" s="17"/>
-      <c r="H294" s="17"/>
-      <c r="I294" s="17"/>
-      <c r="J294" s="17"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
+      <c r="H294" s="16"/>
+      <c r="I294" s="16"/>
+      <c r="J294" s="16"/>
     </row>
     <row r="295" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F295" s="17"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="17"/>
-      <c r="I295" s="17"/>
-      <c r="J295" s="17"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
+      <c r="H295" s="16"/>
+      <c r="I295" s="16"/>
+      <c r="J295" s="16"/>
     </row>
     <row r="296" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F296" s="17"/>
-      <c r="G296" s="17"/>
-      <c r="H296" s="17"/>
-      <c r="I296" s="17"/>
-      <c r="J296" s="17"/>
+      <c r="F296" s="16"/>
+      <c r="G296" s="16"/>
+      <c r="H296" s="16"/>
+      <c r="I296" s="16"/>
+      <c r="J296" s="16"/>
     </row>
     <row r="297" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F297" s="17"/>
-      <c r="G297" s="17"/>
-      <c r="H297" s="17"/>
-      <c r="I297" s="17"/>
-      <c r="J297" s="17"/>
+      <c r="F297" s="16"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="16"/>
+      <c r="I297" s="16"/>
+      <c r="J297" s="16"/>
     </row>
     <row r="298" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F298" s="17"/>
-      <c r="G298" s="17"/>
-      <c r="H298" s="17"/>
-      <c r="I298" s="17"/>
-      <c r="J298" s="17"/>
+      <c r="F298" s="16"/>
+      <c r="G298" s="16"/>
+      <c r="H298" s="16"/>
+      <c r="I298" s="16"/>
+      <c r="J298" s="16"/>
     </row>
     <row r="299" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F299" s="17"/>
-      <c r="G299" s="17"/>
-      <c r="H299" s="17"/>
-      <c r="I299" s="17"/>
-      <c r="J299" s="17"/>
+      <c r="F299" s="16"/>
+      <c r="G299" s="16"/>
+      <c r="H299" s="16"/>
+      <c r="I299" s="16"/>
+      <c r="J299" s="16"/>
     </row>
     <row r="300" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F300" s="17"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="17"/>
-      <c r="I300" s="17"/>
-      <c r="J300" s="17"/>
+      <c r="F300" s="16"/>
+      <c r="G300" s="16"/>
+      <c r="H300" s="16"/>
+      <c r="I300" s="16"/>
+      <c r="J300" s="16"/>
     </row>
     <row r="301" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F301" s="17"/>
-      <c r="G301" s="17"/>
-      <c r="H301" s="17"/>
-      <c r="I301" s="17"/>
-      <c r="J301" s="17"/>
+      <c r="F301" s="16"/>
+      <c r="G301" s="16"/>
+      <c r="H301" s="16"/>
+      <c r="I301" s="16"/>
+      <c r="J301" s="16"/>
     </row>
     <row r="302" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F302" s="17"/>
-      <c r="G302" s="17"/>
-      <c r="H302" s="17"/>
-      <c r="I302" s="17"/>
-      <c r="J302" s="17"/>
+      <c r="F302" s="16"/>
+      <c r="G302" s="16"/>
+      <c r="H302" s="16"/>
+      <c r="I302" s="16"/>
+      <c r="J302" s="16"/>
     </row>
     <row r="303" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F303" s="17"/>
-      <c r="G303" s="17"/>
-      <c r="H303" s="17"/>
-      <c r="I303" s="17"/>
-      <c r="J303" s="17"/>
+      <c r="F303" s="16"/>
+      <c r="G303" s="16"/>
+      <c r="H303" s="16"/>
+      <c r="I303" s="16"/>
+      <c r="J303" s="16"/>
     </row>
     <row r="304" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F304" s="17"/>
-      <c r="G304" s="17"/>
-      <c r="H304" s="17"/>
-      <c r="I304" s="17"/>
-      <c r="J304" s="17"/>
+      <c r="F304" s="16"/>
+      <c r="G304" s="16"/>
+      <c r="H304" s="16"/>
+      <c r="I304" s="16"/>
+      <c r="J304" s="16"/>
     </row>
     <row r="305" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F305" s="17"/>
-      <c r="G305" s="17"/>
-      <c r="H305" s="17"/>
-      <c r="I305" s="17"/>
-      <c r="J305" s="17"/>
+      <c r="F305" s="16"/>
+      <c r="G305" s="16"/>
+      <c r="H305" s="16"/>
+      <c r="I305" s="16"/>
+      <c r="J305" s="16"/>
     </row>
     <row r="306" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F306" s="17"/>
-      <c r="G306" s="17"/>
-      <c r="H306" s="17"/>
-      <c r="I306" s="17"/>
-      <c r="J306" s="17"/>
+      <c r="F306" s="16"/>
+      <c r="G306" s="16"/>
+      <c r="H306" s="16"/>
+      <c r="I306" s="16"/>
+      <c r="J306" s="16"/>
     </row>
     <row r="307" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F307" s="17"/>
-      <c r="G307" s="17"/>
-      <c r="H307" s="17"/>
-      <c r="I307" s="17"/>
-      <c r="J307" s="17"/>
+      <c r="F307" s="16"/>
+      <c r="G307" s="16"/>
+      <c r="H307" s="16"/>
+      <c r="I307" s="16"/>
+      <c r="J307" s="16"/>
     </row>
     <row r="308" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F308" s="17"/>
-      <c r="G308" s="17"/>
-      <c r="H308" s="17"/>
-      <c r="I308" s="17"/>
-      <c r="J308" s="17"/>
+      <c r="F308" s="16"/>
+      <c r="G308" s="16"/>
+      <c r="H308" s="16"/>
+      <c r="I308" s="16"/>
+      <c r="J308" s="16"/>
     </row>
     <row r="309" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F309" s="17"/>
-      <c r="G309" s="17"/>
-      <c r="H309" s="17"/>
-      <c r="I309" s="17"/>
-      <c r="J309" s="17"/>
+      <c r="F309" s="16"/>
+      <c r="G309" s="16"/>
+      <c r="H309" s="16"/>
+      <c r="I309" s="16"/>
+      <c r="J309" s="16"/>
     </row>
     <row r="310" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F310" s="17"/>
-      <c r="G310" s="17"/>
-      <c r="H310" s="17"/>
-      <c r="I310" s="17"/>
-      <c r="J310" s="17"/>
+      <c r="F310" s="16"/>
+      <c r="G310" s="16"/>
+      <c r="H310" s="16"/>
+      <c r="I310" s="16"/>
+      <c r="J310" s="16"/>
     </row>
     <row r="311" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F311" s="17"/>
-      <c r="G311" s="17"/>
-      <c r="H311" s="17"/>
-      <c r="I311" s="17"/>
-      <c r="J311" s="17"/>
+      <c r="F311" s="16"/>
+      <c r="G311" s="16"/>
+      <c r="H311" s="16"/>
+      <c r="I311" s="16"/>
+      <c r="J311" s="16"/>
     </row>
     <row r="312" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F312" s="17"/>
-      <c r="G312" s="17"/>
-      <c r="H312" s="17"/>
-      <c r="I312" s="17"/>
-      <c r="J312" s="17"/>
+      <c r="F312" s="16"/>
+      <c r="G312" s="16"/>
+      <c r="H312" s="16"/>
+      <c r="I312" s="16"/>
+      <c r="J312" s="16"/>
     </row>
     <row r="313" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F313" s="17"/>
-      <c r="G313" s="17"/>
-      <c r="H313" s="17"/>
-      <c r="I313" s="17"/>
-      <c r="J313" s="17"/>
+      <c r="F313" s="16"/>
+      <c r="G313" s="16"/>
+      <c r="H313" s="16"/>
+      <c r="I313" s="16"/>
+      <c r="J313" s="16"/>
     </row>
     <row r="314" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="17"/>
-      <c r="I314" s="17"/>
-      <c r="J314" s="17"/>
+      <c r="F314" s="16"/>
+      <c r="G314" s="16"/>
+      <c r="H314" s="16"/>
+      <c r="I314" s="16"/>
+      <c r="J314" s="16"/>
     </row>
     <row r="315" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F315" s="17"/>
-      <c r="G315" s="17"/>
-      <c r="H315" s="17"/>
-      <c r="I315" s="17"/>
-      <c r="J315" s="17"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+      <c r="I315" s="16"/>
+      <c r="J315" s="16"/>
     </row>
     <row r="316" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F316" s="17"/>
-      <c r="G316" s="17"/>
-      <c r="H316" s="17"/>
-      <c r="I316" s="17"/>
-      <c r="J316" s="17"/>
+      <c r="F316" s="16"/>
+      <c r="G316" s="16"/>
+      <c r="H316" s="16"/>
+      <c r="I316" s="16"/>
+      <c r="J316" s="16"/>
     </row>
     <row r="317" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F317" s="17"/>
-      <c r="G317" s="17"/>
-      <c r="H317" s="17"/>
-      <c r="I317" s="17"/>
-      <c r="J317" s="17"/>
+      <c r="F317" s="16"/>
+      <c r="G317" s="16"/>
+      <c r="H317" s="16"/>
+      <c r="I317" s="16"/>
+      <c r="J317" s="16"/>
     </row>
     <row r="318" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F318" s="17"/>
-      <c r="G318" s="17"/>
-      <c r="H318" s="17"/>
-      <c r="I318" s="17"/>
-      <c r="J318" s="17"/>
+      <c r="F318" s="16"/>
+      <c r="G318" s="16"/>
+      <c r="H318" s="16"/>
+      <c r="I318" s="16"/>
+      <c r="J318" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4475,7 +4686,545 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6C2AD-B51A-464A-A8D3-BB9675F3DB86}">
+  <dimension ref="C4:P35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="6.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
@@ -4485,74 +5234,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="46.125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="46.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>100</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <v>20</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>200</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <v>2</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="46">
         <v>1</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="4" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4561,50 +5310,50 @@
     <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4626,8 +5375,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:F29"/>
   <sheetViews>
@@ -4637,249 +5386,249 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="57.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="57.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="49"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="49"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4899,431 +5648,475 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="G1:I52"/>
+  <dimension ref="G1:I57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="23.75" style="8" customWidth="1"/>
-    <col min="8" max="9" width="30.25" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="23.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="44.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.25" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="50">
+      <c r="G2" s="49">
         <v>45313</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="46" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G3" s="51"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <v>45317</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G5" s="51"/>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="50">
+      <c r="G6" s="49">
         <v>45320</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="52"/>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="50"/>
+      <c r="H7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="52"/>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="49"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G9" s="51"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="50">
+      <c r="G10" s="49">
         <v>45323</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="46" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="52"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="50"/>
+      <c r="H11" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I11" s="49"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="52"/>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="50"/>
+      <c r="H12" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I12" s="49"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="52"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="50"/>
+      <c r="H13" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G14" s="51"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="48"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="46" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="52"/>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="I16" s="49"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G17" s="52"/>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="50"/>
+      <c r="H17" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="51"/>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="48"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="51"/>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G22" s="51"/>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="47"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="52"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="50"/>
+      <c r="H24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="49"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G25" s="52"/>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="50"/>
+      <c r="H25" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I25" s="49"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="52"/>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="50"/>
+      <c r="H26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="52"/>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="50"/>
+      <c r="H27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="49"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="52"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="50"/>
+      <c r="H28" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I28" s="49"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G29" s="51"/>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="48"/>
+      <c r="I29" s="47"/>
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="47"/>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G31" s="52"/>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="50"/>
+      <c r="H31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I31" s="49"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G32" s="51"/>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I32" s="48"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="47"/>
+      <c r="I33" s="46"/>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G34" s="52"/>
-      <c r="H34" s="4" t="s">
+      <c r="G34" s="50"/>
+      <c r="H34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="49"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G35" s="52"/>
-      <c r="H35" s="4" t="s">
+      <c r="G35" s="50"/>
+      <c r="H35" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I35" s="49"/>
+      <c r="I35" s="48"/>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G36" s="52"/>
-      <c r="H36" s="4" t="s">
+      <c r="G36" s="50"/>
+      <c r="H36" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="I36" s="49"/>
+      <c r="I36" s="48"/>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G37" s="52"/>
-      <c r="H37" s="4" t="s">
+      <c r="G37" s="50"/>
+      <c r="H37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I37" s="49"/>
+      <c r="I37" s="48"/>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38" s="51"/>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I38" s="48"/>
+      <c r="I38" s="47"/>
     </row>
     <row r="39" spans="7:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="52" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G40" s="52"/>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="50"/>
+      <c r="H40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="49"/>
+      <c r="I40" s="48"/>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G41" s="52"/>
-      <c r="H41" s="4" t="s">
+      <c r="G41" s="50"/>
+      <c r="H41" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I41" s="49"/>
+      <c r="I41" s="48"/>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G42" s="52"/>
-      <c r="H42" s="4" t="s">
+      <c r="G42" s="50"/>
+      <c r="H42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="49"/>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G43" s="51"/>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="48"/>
+      <c r="I43" s="47"/>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I44" s="47"/>
+      <c r="I44" s="46"/>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G45" s="51"/>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I45" s="48"/>
+      <c r="I45" s="47"/>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G47" s="51"/>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I47" s="48"/>
+      <c r="I47" s="47"/>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G49" s="52"/>
-      <c r="H49" s="4" t="s">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G49" s="50"/>
+      <c r="H49" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G50" s="51"/>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H51" s="65" t="s">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G51" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="H51" s="36" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H52" s="65" t="s">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G52" s="51"/>
+      <c r="H52" s="36" t="s">
         <v>364</v>
       </c>
     </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H56" s="36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H57" s="36" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="I15:I18"/>
@@ -5331,12 +6124,6 @@
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
     <mergeCell ref="I23:I29"/>
     <mergeCell ref="G23:G29"/>
     <mergeCell ref="G21:G22"/>
@@ -5346,10 +6133,6 @@
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="G33:G38"/>
     <mergeCell ref="I33:I38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="I44:I45"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -5357,8 +6140,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="E3:F53"/>
   <sheetViews>
@@ -5368,234 +6151,234 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="84" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="84" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="5:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="15" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5606,8 +6389,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH10"/>
   <sheetViews>
@@ -5617,143 +6400,143 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="31.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="32.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="32.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="9" style="2" customWidth="1"/>
-    <col min="18" max="18" width="31.375" style="2" customWidth="1"/>
-    <col min="19" max="34" width="9" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="31.375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="32.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="32.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.375" style="1" customWidth="1"/>
+    <col min="19" max="34" width="9" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="40" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+      <c r="I1" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="M1" s="40"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="4:34" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="4"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="11" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
+      <c r="Q3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
     </row>
     <row r="4" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D4" s="9"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="D4" s="8"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="4:34" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="4"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="L7" s="40" t="s">
+      <c r="J7" s="39"/>
+      <c r="L7" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="M7" s="40"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="9" spans="4:34" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="4"/>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="13" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="10" spans="4:34" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5767,14 +6550,14 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448"/>
-    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451"/>
-    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -5782,8 +6565,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J66"/>
   <sheetViews>
@@ -5793,575 +6576,570 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="56.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="48.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="40.875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="56.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="56"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="33" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="57"/>
+      <c r="H3" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="30"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="58"/>
+      <c r="H4" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="58"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="59"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="60"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="35"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="33" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="31"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="21"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="33" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="22"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="21"/>
+      <c r="B14" s="39"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="61" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="33" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="21"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="39"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="33" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="21"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="33" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="B23" s="39"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="61" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="33" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="4"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="33" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="4"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="4"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H32" s="4"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="4"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="4"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="8:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="8:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="8:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="8:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
     </row>
     <row r="60" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
     </row>
     <row r="62" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
     </row>
     <row r="64" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="F2:F4"/>
@@ -6370,198 +7148,19 @@
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B11:B25"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="D3:D35"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="50.5" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D3" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D5" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D14" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D15" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="27" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="27" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-</worksheet>
 </file>
--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLASS\Desktop\Spenta\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E20508-7A0A-4C19-A1DB-F29FF26F6A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
@@ -1366,7 +1365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
@@ -1855,6 +1854,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1874,9 +1876,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2066,7 +2065,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2075,7 +2074,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2749,7 +2748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -3059,7 +3058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="D3:D35"/>
   <sheetViews>
@@ -3243,12 +3242,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X318"/>
   <sheetViews>
-    <sheetView topLeftCell="D82" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95"/>
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4686,7 +4685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6C2AD-B51A-464A-A8D3-BB9675F3DB86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5224,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
@@ -5376,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:F29"/>
   <sheetViews>
@@ -5649,13 +5648,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="G1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6063,7 +6062,7 @@
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G51" s="60" t="s">
+      <c r="G51" s="53" t="s">
         <v>367</v>
       </c>
       <c r="H51" s="36" t="s">
@@ -6106,33 +6105,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="I6:I9"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G51:G52"/>
     <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="I30:I32"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="I33:I38"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -6141,7 +6140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="E3:F53"/>
   <sheetViews>
@@ -6390,7 +6389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH10"/>
   <sheetViews>
@@ -6420,12 +6419,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="I1" s="39" t="s">
         <v>247</v>
       </c>
@@ -6550,14 +6549,14 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448"/>
+    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451"/>
+    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -6566,7 +6565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J66"/>
   <sheetViews>
@@ -6604,11 +6603,11 @@
       <c r="F1" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -6626,14 +6625,14 @@
       <c r="E2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="55"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -6647,7 +6646,7 @@
       <c r="E3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="H3" s="20" t="s">
         <v>298</v>
       </c>
@@ -6663,12 +6662,12 @@
       <c r="E4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F4" s="58"/>
+      <c r="F4" s="59"/>
       <c r="H4" s="25" t="s">
         <v>185</v>
       </c>
       <c r="I4" s="20"/>
-      <c r="J4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39"/>
@@ -6683,7 +6682,7 @@
         <v>207</v>
       </c>
       <c r="I5" s="20"/>
-      <c r="J5" s="57"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="39"/>
@@ -6698,7 +6697,7 @@
         <v>291</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="39"/>
@@ -6768,7 +6767,7 @@
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="39"/>
-      <c r="C12" s="59"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="3" t="s">
         <v>195</v>
       </c>
@@ -6849,7 +6848,7 @@
     </row>
     <row r="19" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="39"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="3" t="s">
         <v>182</v>
       </c>
@@ -6862,7 +6861,7 @@
     </row>
     <row r="20" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="39"/>
-      <c r="C20" s="59"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="3" t="s">
         <v>195</v>
       </c>
@@ -6875,7 +6874,7 @@
     </row>
     <row r="21" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="39"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="3" t="s">
         <v>195</v>
       </c>
@@ -7140,6 +7139,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="F2:F4"/>
@@ -7148,17 +7152,12 @@
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B11:B25"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="E30" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="382">
   <si>
     <t>아래 점프 구현</t>
   </si>
@@ -1360,6 +1360,53 @@
   <si>
     <t>플레이어 이펙트 사이즈 조정</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>나이든 현자의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모습</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>불꽃으로 이루어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사슴</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업할떄 개인용 씬 만들기</t>
+  </si>
+  <si>
+    <t>바뀐내역 잘 기억하기</t>
+  </si>
+  <si>
+    <t>하이어라키 절취선</t>
+  </si>
+  <si>
+    <t>partial 활용하기</t>
+  </si>
+  <si>
+    <t>프리맵 variant</t>
   </si>
 </sst>
 </file>
@@ -2185,6 +2232,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322781</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>47017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58C2936-F454-43DC-BB6D-680482652863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="37090350"/>
+          <a:ext cx="8552381" cy="4866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3246,8 +3337,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+    <sheetView topLeftCell="D169" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3710,6 +3801,31 @@
     <row r="111" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G111" s="16" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G133" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G134" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G136" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G141" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="181" spans="6:10" x14ac:dyDescent="0.3">
@@ -6105,25 +6221,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
     <mergeCell ref="G39:G43"/>
     <mergeCell ref="I39:I43"/>
     <mergeCell ref="G44:G45"/>
@@ -6132,6 +6229,25 @@
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="I30:I32"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -6144,8 +6260,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="E3:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6271,8 +6387,8 @@
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="3" t="s">
-        <v>94</v>
+      <c r="E29" s="36" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.3">
@@ -6327,8 +6443,8 @@
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="3" t="s">
-        <v>94</v>
+      <c r="E43" s="36" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
@@ -6393,8 +6509,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7139,11 +7255,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="F2:F4"/>
@@ -7152,6 +7263,11 @@
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B11:B25"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLASS\Desktop\Spenta\Spenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B75743-9EB5-4707-80EF-18B0F122FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="11970" yWindow="1365" windowWidth="12870" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
@@ -1365,7 +1366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
@@ -2065,7 +2066,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2074,7 +2075,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2748,7 +2749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -3058,7 +3059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="D3:D35"/>
   <sheetViews>
@@ -3242,11 +3243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="D106" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
@@ -4685,7 +4686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5223,7 +5224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
@@ -5375,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:F29"/>
   <sheetViews>
@@ -5648,13 +5649,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="G1:I57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6105,25 +6106,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
     <mergeCell ref="G39:G43"/>
     <mergeCell ref="I39:I43"/>
     <mergeCell ref="G44:G45"/>
@@ -6132,6 +6114,25 @@
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="I30:I32"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -6140,7 +6141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="E3:F53"/>
   <sheetViews>
@@ -6389,7 +6390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH10"/>
   <sheetViews>
@@ -6549,14 +6550,14 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448"/>
-    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451"/>
-    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -6565,7 +6566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J66"/>
   <sheetViews>
@@ -7139,11 +7140,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="F2:F4"/>
@@ -7152,12 +7148,17 @@
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B11:B25"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLASS\Desktop\Spenta\Spenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EC796B-12BB-4A61-A2BA-AC970F624D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
-    <sheet name="개발 메모" sheetId="2" r:id="rId2"/>
-    <sheet name="레이어" sheetId="10" r:id="rId3"/>
+    <sheet name="레이어" sheetId="10" r:id="rId2"/>
+    <sheet name="개발 메모" sheetId="2" r:id="rId3"/>
     <sheet name="플레이어" sheetId="3" r:id="rId4"/>
     <sheet name="구현 항목" sheetId="4" r:id="rId5"/>
-    <sheet name="개발 일지" sheetId="5" r:id="rId6"/>
-    <sheet name="NPC" sheetId="6" r:id="rId7"/>
+    <sheet name="NPC" sheetId="6" r:id="rId6"/>
+    <sheet name="개발 일지" sheetId="5" r:id="rId7"/>
     <sheet name="에셋" sheetId="7" r:id="rId8"/>
     <sheet name="필요 항목" sheetId="8" r:id="rId9"/>
     <sheet name="저장목록" sheetId="9" r:id="rId10"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="390">
   <si>
     <t>아래 점프 구현</t>
   </si>
@@ -68,10 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">    -PlayerStatus.nonSkillCoolTime</t>
-  </si>
-  <si>
-    <t>* 너는 내 분신이자 내 힘의 편린이다. 너는 나와 같으니, 어둠의 정령 다에바들을 
-물리치고 나의 힘을 되찾아다오. 나의 힘이 돌아올 수록 너 또한 강해진다.</t>
   </si>
   <si>
     <t>https://soundimage.org/sfx-footsteps/
@@ -92,19 +89,10 @@
 스킬 계수 : 2.0 / 쿨타임 : 7초 / 사정거리 : 전방 50</t>
   </si>
   <si>
-    <t>나의 영적인 힘 '카사트라'는 모든 물체를 관통하며 너의 적들도 무자비하게 관통 할 수 있을 것이야.</t>
-  </si>
-  <si>
     <t>*도와줘서 고마워, 내가 가진 불꽃의 힘을 일부 나눠줄게.</t>
   </si>
   <si>
     <t>Combat Whooshes 사운드 팩 ( 0:19 / 0:03 / 0:19 )</t>
-  </si>
-  <si>
-    <t>이곳을 떠나기 전에 한 번 권능을 시험해보며 익숙해지고 떠나는 것도 좋은 방법이지.</t>
-  </si>
-  <si>
-    <t>질서와 정의에서 오는 힘 '아샤'를 통해 적들 여럿에게 불길로서 심판 할 수도 있다.</t>
   </si>
   <si>
     <t>2D Spine, 
@@ -226,9 +214,6 @@
     <t>달리고 있음을 알게 해주는 소리</t>
   </si>
   <si>
-    <t>* 선한 생각에서 오는 강한 힘 '보후만'은 너의 힘을 순간적으로 증폭하여 강하게 공격할 수 있다.</t>
-  </si>
-  <si>
     <t>Mesh Renederer에서 색을 변경해서 몬스터가 죽으면 서서히 사라지게 하는 구조 불가능</t>
   </si>
   <si>
@@ -239,9 +224,6 @@
   </si>
   <si>
     <t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</t>
-  </si>
-  <si>
-    <t>*샤오샨츠야, 나는 아그라 마이뉴에게 패배하여 힘을 잃고 여기에 갇혀있다.</t>
   </si>
   <si>
     <t>Frog(몬스터) 가 플레이어 주변에 
@@ -271,12 +253,6 @@
 스킬 계수 : 1.7 / 쿨타임 : 25초 / 사거리 : 죄우 400</t>
   </si>
   <si>
-    <t>마지막으로 궁극적 진리 '아르마이티'를 깨달아 잠시동안 신격 미트라로 현신 할 수 있다.</t>
-  </si>
-  <si>
-    <t>* 붙잡힌 내 휘하의 아메샤 스펜타들을 만난다면 그들이 풀려나 힘들 되찾도록 도와다오.</t>
-  </si>
-  <si>
     <t>몬스터 처치를 통해 획득한 
 지식의 불꽃을 소모하여 자라투스트라의 모닥불(일반)에서 강화가능</t>
   </si>
@@ -296,9 +272,6 @@
  으로 인한 오류 수정</t>
   </si>
   <si>
-    <t>* 너는 나의 힘, 권능을 어느정도 다를 수 있다.</t>
-  </si>
-  <si>
     <t>개구리가 스킬을 쓸 떄 가까울 수록 더 높은 피해를 입힘</t>
   </si>
   <si>
@@ -342,9 +315,6 @@
   </si>
   <si>
     <t>기 모으는 소리 or 공기가 한 점에서 바깥으로 퍼져 나가는 소리</t>
-  </si>
-  <si>
-    <t>빛과 불꽃으로 이루어진 거대한 새, 어두운 색의 쇠사슬로 묶여있음</t>
   </si>
   <si>
     <t>데미지 공식 : 공격 계수 x 공격력 x 100/(100+방어력)</t>
@@ -454,9 +424,6 @@
     <t>1.자신의 역할에 대해 듣기</t>
   </si>
   <si>
-    <t>* 부디 무운을 빈다…</t>
-  </si>
-  <si>
     <t>상호작용 / 대화 : F</t>
   </si>
   <si>
@@ -1215,9 +1182,6 @@
   </si>
   <si>
     <t>버튼 위에 마우스를 올렷을 때 나는 소리</t>
-  </si>
-  <si>
-    <t>* 자네의 여정에 불의 가호가 있기를…</t>
   </si>
   <si>
     <t>* 고난을 이겨내고 악을 물리치기를…</t>
@@ -1408,11 +1372,92 @@
   <si>
     <t>프리맵 variant</t>
   </si>
+  <si>
+    <t>포탈 열에 모닥불</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 UI , 새로 하기 조작법 구현</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESC누르면 순서대로 닫히게 구현</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>패링필요</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화창 만들어야됨</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 눌렀을 때 나오는 상태 창 만들어야됨</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>권능 강화 창들 UI 필요</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damaged 함수 수정</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛과 불꽃으로 이루어진 거대한 새, 어두운 색의 쇠사슬로 묶여있음</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>*샤오샨츠야, 나는 아그라 마이뉴에게 패배하여 힘을 잃고 여기에 갇혀있다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 너는 내 분신이자 내 힘의 편린이다. 너는 나와 같으니, 어둠의 정령 다에바들을 
+물리치고 나의 힘을 되찾아다오. 나의 힘이 돌아올 수록 너 또한 강해진다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 붙잡힌 내 휘하의 아메샤 스펜타들을 만난다면 그들이 풀려나 힘들 되찾도록 도와다오.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 너는 나의 힘, 권능을 어느정도 다를 수 있다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 선한 생각에서 오는 강한 힘 '보후만'은 너의 힘을 순간적으로 증폭하여 강하게 공격할 수 있다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 영적인 힘 '카사트라'는 모든 물체를 관통하며 너의 적들도 무자비하게 관통 할 수 있을 것이야.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>질서와 정의에서 오는 힘 '아샤'를 통해 적들 여럿에게 불길로서 심판 할 수도 있다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막으로 궁극적 진리 '아르마이티'를 깨달아 잠시동안 신격 미트라로 현신 할 수 있다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳을 떠나기 전에 한 번 권능을 시험해보며 익숙해지고 떠나는 것도 좋은 방법이지.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 부디 무운을 빈다…</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㄹㄹ</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
@@ -1741,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1853,6 +1898,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1924,6 +1972,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2112,7 +2163,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2121,7 +2172,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2839,13 +2890,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13:D14"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2863,132 +2914,132 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2996,133 +3047,133 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="39"/>
+        <v>172</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="A9" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="H9" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="A13" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+        <v>27</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3149,7 +3200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="D3:D35"/>
   <sheetViews>
@@ -3164,7 +3215,7 @@
   <sheetData>
     <row r="3" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.3">
@@ -3182,27 +3233,27 @@
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D7" s="26" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D8" s="26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D9" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D10" s="26" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D11" s="26" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.3">
@@ -3222,22 +3273,22 @@
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D15" s="26" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D16" s="26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="26" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
@@ -3247,27 +3298,27 @@
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="26" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="26" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="27" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="26" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.3">
@@ -3277,7 +3328,7 @@
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="26" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.3">
@@ -3287,27 +3338,27 @@
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="28" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" s="27" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" s="27" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -3317,12 +3368,12 @@
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="27" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="27" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3333,1475 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:X318"/>
-  <sheetViews>
-    <sheetView topLeftCell="D169" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-    </row>
-    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="X65" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="X66" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-    </row>
-    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-    </row>
-    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-    </row>
-    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-    </row>
-    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-    </row>
-    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-    </row>
-    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-    </row>
-    <row r="74" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-    </row>
-    <row r="75" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-    </row>
-    <row r="76" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-    </row>
-    <row r="77" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-    </row>
-    <row r="78" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-    </row>
-    <row r="79" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="F79" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="F80" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F86" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="G86" s="16"/>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F87" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="G87" s="16"/>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F88" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G99" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G100" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G101" s="16"/>
-    </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G111" s="16" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G133" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G134" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G136" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G141" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G150" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="181" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G181" s="16"/>
-      <c r="H181" s="16"/>
-      <c r="I181" s="16"/>
-      <c r="J181" s="16"/>
-    </row>
-    <row r="182" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G182" s="16"/>
-      <c r="H182" s="16"/>
-      <c r="I182" s="16"/>
-      <c r="J182" s="16"/>
-    </row>
-    <row r="183" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G183" s="16"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="16"/>
-      <c r="J183" s="16"/>
-    </row>
-    <row r="184" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G184" s="16"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="16"/>
-      <c r="J184" s="16"/>
-    </row>
-    <row r="185" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G185" s="16"/>
-      <c r="H185" s="16"/>
-      <c r="I185" s="16"/>
-      <c r="J185" s="16"/>
-    </row>
-    <row r="186" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="16"/>
-      <c r="I186" s="16"/>
-      <c r="J186" s="16"/>
-    </row>
-    <row r="187" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="16"/>
-      <c r="I187" s="16"/>
-      <c r="J187" s="16"/>
-    </row>
-    <row r="188" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F188" s="16"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="16"/>
-      <c r="I188" s="16"/>
-      <c r="J188" s="16"/>
-    </row>
-    <row r="189" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="16"/>
-      <c r="I189" s="16"/>
-      <c r="J189" s="16"/>
-    </row>
-    <row r="190" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F190" s="16"/>
-      <c r="G190" s="16"/>
-      <c r="H190" s="16"/>
-      <c r="I190" s="16"/>
-      <c r="J190" s="16"/>
-    </row>
-    <row r="191" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F191" s="16"/>
-      <c r="G191" s="16"/>
-      <c r="H191" s="16"/>
-      <c r="I191" s="16"/>
-      <c r="J191" s="16"/>
-    </row>
-    <row r="192" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F192" s="16"/>
-      <c r="G192" s="16"/>
-      <c r="H192" s="16"/>
-      <c r="I192" s="16"/>
-      <c r="J192" s="16"/>
-    </row>
-    <row r="193" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
-      <c r="H193" s="16"/>
-      <c r="I193" s="16"/>
-      <c r="J193" s="16"/>
-    </row>
-    <row r="194" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F194" s="16"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="16"/>
-      <c r="I194" s="16"/>
-      <c r="J194" s="16"/>
-    </row>
-    <row r="195" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F195" s="16"/>
-      <c r="G195" s="16"/>
-      <c r="H195" s="16"/>
-      <c r="I195" s="16"/>
-      <c r="J195" s="16"/>
-    </row>
-    <row r="196" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F196" s="16"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="16"/>
-      <c r="I196" s="16"/>
-      <c r="J196" s="16"/>
-    </row>
-    <row r="197" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="16"/>
-      <c r="I197" s="16"/>
-      <c r="J197" s="16"/>
-    </row>
-    <row r="198" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F198" s="16"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="16"/>
-      <c r="I198" s="16"/>
-      <c r="J198" s="16"/>
-    </row>
-    <row r="199" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F199" s="16"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="16"/>
-      <c r="I199" s="16"/>
-      <c r="J199" s="16"/>
-    </row>
-    <row r="200" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F200" s="16"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="16"/>
-      <c r="I200" s="16"/>
-      <c r="J200" s="16"/>
-    </row>
-    <row r="201" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F201" s="16"/>
-      <c r="G201" s="16"/>
-      <c r="H201" s="16"/>
-      <c r="I201" s="16"/>
-      <c r="J201" s="16"/>
-    </row>
-    <row r="202" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F202" s="16"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="16"/>
-      <c r="I202" s="16"/>
-      <c r="J202" s="16"/>
-    </row>
-    <row r="203" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="16"/>
-      <c r="I203" s="16"/>
-      <c r="J203" s="16"/>
-    </row>
-    <row r="204" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F204" s="16"/>
-      <c r="G204" s="16"/>
-      <c r="H204" s="16"/>
-      <c r="I204" s="16"/>
-      <c r="J204" s="16"/>
-    </row>
-    <row r="205" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F205" s="16"/>
-      <c r="G205" s="16"/>
-      <c r="H205" s="16"/>
-      <c r="I205" s="16"/>
-      <c r="J205" s="16"/>
-    </row>
-    <row r="206" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F206" s="16"/>
-      <c r="G206" s="16"/>
-      <c r="H206" s="16"/>
-      <c r="I206" s="16"/>
-      <c r="J206" s="16"/>
-    </row>
-    <row r="207" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F207" s="16"/>
-      <c r="G207" s="16"/>
-      <c r="H207" s="16"/>
-      <c r="I207" s="16"/>
-      <c r="J207" s="16"/>
-    </row>
-    <row r="208" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F208" s="16"/>
-      <c r="G208" s="16"/>
-      <c r="H208" s="16"/>
-      <c r="I208" s="16"/>
-      <c r="J208" s="16"/>
-    </row>
-    <row r="209" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F209" s="16"/>
-      <c r="G209" s="16"/>
-      <c r="H209" s="16"/>
-      <c r="I209" s="16"/>
-      <c r="J209" s="16"/>
-    </row>
-    <row r="210" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F210" s="16"/>
-      <c r="G210" s="16"/>
-      <c r="H210" s="16"/>
-      <c r="I210" s="16"/>
-      <c r="J210" s="16"/>
-    </row>
-    <row r="211" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F211" s="16"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="16"/>
-      <c r="I211" s="16"/>
-      <c r="J211" s="16"/>
-    </row>
-    <row r="212" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F212" s="16"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="16"/>
-      <c r="I212" s="16"/>
-      <c r="J212" s="16"/>
-    </row>
-    <row r="213" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F213" s="16"/>
-      <c r="G213" s="16"/>
-      <c r="H213" s="16"/>
-      <c r="I213" s="16"/>
-      <c r="J213" s="16"/>
-    </row>
-    <row r="214" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F214" s="16"/>
-      <c r="G214" s="16"/>
-      <c r="H214" s="16"/>
-      <c r="I214" s="16"/>
-      <c r="J214" s="16"/>
-    </row>
-    <row r="215" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F215" s="16"/>
-      <c r="G215" s="16"/>
-      <c r="H215" s="16"/>
-      <c r="I215" s="16"/>
-      <c r="J215" s="16"/>
-    </row>
-    <row r="216" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F216" s="16"/>
-      <c r="G216" s="16"/>
-      <c r="H216" s="16"/>
-      <c r="I216" s="16"/>
-      <c r="J216" s="16"/>
-    </row>
-    <row r="217" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F217" s="16"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="16"/>
-      <c r="I217" s="16"/>
-      <c r="J217" s="16"/>
-    </row>
-    <row r="218" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F218" s="16"/>
-      <c r="G218" s="16"/>
-      <c r="H218" s="16"/>
-      <c r="I218" s="16"/>
-      <c r="J218" s="16"/>
-    </row>
-    <row r="219" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F219" s="16"/>
-      <c r="G219" s="16"/>
-      <c r="H219" s="16"/>
-      <c r="I219" s="16"/>
-      <c r="J219" s="16"/>
-    </row>
-    <row r="220" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F220" s="16"/>
-      <c r="G220" s="16"/>
-      <c r="H220" s="16"/>
-      <c r="I220" s="16"/>
-      <c r="J220" s="16"/>
-    </row>
-    <row r="221" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F221" s="16"/>
-      <c r="G221" s="16"/>
-      <c r="H221" s="16"/>
-      <c r="I221" s="16"/>
-      <c r="J221" s="16"/>
-    </row>
-    <row r="222" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F222" s="16"/>
-      <c r="G222" s="16"/>
-      <c r="H222" s="16"/>
-      <c r="I222" s="16"/>
-      <c r="J222" s="16"/>
-    </row>
-    <row r="223" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F223" s="16"/>
-      <c r="G223" s="16"/>
-      <c r="H223" s="16"/>
-      <c r="I223" s="16"/>
-      <c r="J223" s="16"/>
-    </row>
-    <row r="224" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F224" s="16"/>
-      <c r="G224" s="16"/>
-      <c r="H224" s="16"/>
-      <c r="I224" s="16"/>
-      <c r="J224" s="16"/>
-    </row>
-    <row r="225" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F225" s="16"/>
-      <c r="G225" s="16"/>
-      <c r="H225" s="16"/>
-      <c r="I225" s="16"/>
-      <c r="J225" s="16"/>
-    </row>
-    <row r="226" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F226" s="16"/>
-      <c r="G226" s="16"/>
-      <c r="H226" s="16"/>
-      <c r="I226" s="16"/>
-      <c r="J226" s="16"/>
-    </row>
-    <row r="227" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F227" s="16"/>
-      <c r="G227" s="16"/>
-      <c r="H227" s="16"/>
-      <c r="I227" s="16"/>
-      <c r="J227" s="16"/>
-    </row>
-    <row r="228" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F228" s="16"/>
-      <c r="G228" s="16"/>
-      <c r="H228" s="16"/>
-      <c r="I228" s="16"/>
-      <c r="J228" s="16"/>
-    </row>
-    <row r="229" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F229" s="16"/>
-      <c r="G229" s="16"/>
-      <c r="H229" s="16"/>
-      <c r="I229" s="16"/>
-      <c r="J229" s="16"/>
-    </row>
-    <row r="230" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F230" s="16"/>
-      <c r="G230" s="16"/>
-      <c r="H230" s="16"/>
-      <c r="I230" s="16"/>
-      <c r="J230" s="16"/>
-    </row>
-    <row r="231" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F231" s="16"/>
-      <c r="G231" s="16"/>
-      <c r="H231" s="16"/>
-      <c r="I231" s="16"/>
-      <c r="J231" s="16"/>
-    </row>
-    <row r="232" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F232" s="16"/>
-      <c r="G232" s="16"/>
-      <c r="H232" s="16"/>
-      <c r="I232" s="16"/>
-      <c r="J232" s="16"/>
-    </row>
-    <row r="233" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F233" s="16"/>
-      <c r="G233" s="16"/>
-      <c r="H233" s="16"/>
-      <c r="I233" s="16"/>
-      <c r="J233" s="16"/>
-    </row>
-    <row r="234" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F234" s="16"/>
-      <c r="G234" s="16"/>
-      <c r="H234" s="16"/>
-      <c r="I234" s="16"/>
-      <c r="J234" s="16"/>
-    </row>
-    <row r="235" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F235" s="16"/>
-      <c r="G235" s="16"/>
-      <c r="H235" s="16"/>
-      <c r="I235" s="16"/>
-      <c r="J235" s="16"/>
-    </row>
-    <row r="236" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F236" s="16"/>
-      <c r="G236" s="16"/>
-      <c r="H236" s="16"/>
-      <c r="I236" s="16"/>
-      <c r="J236" s="16"/>
-    </row>
-    <row r="237" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F237" s="16"/>
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="16"/>
-      <c r="J237" s="16"/>
-    </row>
-    <row r="238" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F238" s="16"/>
-      <c r="G238" s="16"/>
-      <c r="H238" s="16"/>
-      <c r="I238" s="16"/>
-      <c r="J238" s="16"/>
-    </row>
-    <row r="239" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F239" s="16"/>
-      <c r="G239" s="16"/>
-      <c r="H239" s="16"/>
-      <c r="I239" s="16"/>
-      <c r="J239" s="16"/>
-    </row>
-    <row r="240" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F240" s="16"/>
-      <c r="G240" s="16"/>
-      <c r="H240" s="16"/>
-      <c r="I240" s="16"/>
-      <c r="J240" s="16"/>
-    </row>
-    <row r="241" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F241" s="16"/>
-      <c r="G241" s="16"/>
-      <c r="H241" s="16"/>
-      <c r="I241" s="16"/>
-      <c r="J241" s="16"/>
-    </row>
-    <row r="242" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F242" s="16"/>
-      <c r="G242" s="16"/>
-      <c r="H242" s="16"/>
-      <c r="I242" s="16"/>
-      <c r="J242" s="16"/>
-    </row>
-    <row r="243" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F243" s="16"/>
-      <c r="G243" s="16"/>
-      <c r="H243" s="16"/>
-      <c r="I243" s="16"/>
-      <c r="J243" s="16"/>
-    </row>
-    <row r="244" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F244" s="16"/>
-      <c r="G244" s="16"/>
-      <c r="H244" s="16"/>
-      <c r="I244" s="16"/>
-      <c r="J244" s="16"/>
-    </row>
-    <row r="245" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F245" s="16"/>
-      <c r="G245" s="16"/>
-      <c r="H245" s="16"/>
-      <c r="I245" s="16"/>
-      <c r="J245" s="16"/>
-    </row>
-    <row r="246" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F246" s="16"/>
-      <c r="G246" s="16"/>
-      <c r="H246" s="16"/>
-      <c r="I246" s="16"/>
-      <c r="J246" s="16"/>
-    </row>
-    <row r="247" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F247" s="16"/>
-      <c r="G247" s="16"/>
-      <c r="H247" s="16"/>
-      <c r="I247" s="16"/>
-      <c r="J247" s="16"/>
-    </row>
-    <row r="248" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F248" s="16"/>
-      <c r="G248" s="16"/>
-      <c r="H248" s="16"/>
-      <c r="I248" s="16"/>
-      <c r="J248" s="16"/>
-    </row>
-    <row r="249" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F249" s="16"/>
-      <c r="G249" s="16"/>
-      <c r="H249" s="16"/>
-      <c r="I249" s="16"/>
-      <c r="J249" s="16"/>
-    </row>
-    <row r="250" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F250" s="16"/>
-      <c r="G250" s="16"/>
-      <c r="H250" s="16"/>
-      <c r="I250" s="16"/>
-      <c r="J250" s="16"/>
-    </row>
-    <row r="251" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F251" s="16"/>
-      <c r="G251" s="16"/>
-      <c r="H251" s="16"/>
-      <c r="I251" s="16"/>
-      <c r="J251" s="16"/>
-    </row>
-    <row r="252" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F252" s="16"/>
-      <c r="G252" s="16"/>
-      <c r="H252" s="16"/>
-      <c r="I252" s="16"/>
-      <c r="J252" s="16"/>
-    </row>
-    <row r="253" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F253" s="16"/>
-      <c r="G253" s="16"/>
-      <c r="H253" s="16"/>
-      <c r="I253" s="16"/>
-      <c r="J253" s="16"/>
-    </row>
-    <row r="254" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F254" s="16"/>
-      <c r="G254" s="16"/>
-      <c r="H254" s="16"/>
-      <c r="I254" s="16"/>
-      <c r="J254" s="16"/>
-    </row>
-    <row r="255" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F255" s="16"/>
-      <c r="G255" s="16"/>
-      <c r="H255" s="16"/>
-      <c r="I255" s="16"/>
-      <c r="J255" s="16"/>
-    </row>
-    <row r="256" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F256" s="16"/>
-      <c r="G256" s="16"/>
-      <c r="H256" s="16"/>
-      <c r="I256" s="16"/>
-      <c r="J256" s="16"/>
-    </row>
-    <row r="257" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F257" s="16"/>
-      <c r="G257" s="16"/>
-      <c r="H257" s="16"/>
-      <c r="I257" s="16"/>
-      <c r="J257" s="16"/>
-    </row>
-    <row r="258" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F258" s="16"/>
-      <c r="G258" s="16"/>
-      <c r="H258" s="16"/>
-      <c r="I258" s="16"/>
-      <c r="J258" s="16"/>
-    </row>
-    <row r="259" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F259" s="16"/>
-      <c r="G259" s="16"/>
-      <c r="H259" s="16"/>
-      <c r="I259" s="16"/>
-      <c r="J259" s="16"/>
-    </row>
-    <row r="260" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F260" s="16"/>
-      <c r="G260" s="16"/>
-      <c r="H260" s="16"/>
-      <c r="I260" s="16"/>
-      <c r="J260" s="16"/>
-    </row>
-    <row r="261" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F261" s="16"/>
-      <c r="G261" s="16"/>
-      <c r="H261" s="16"/>
-      <c r="I261" s="16"/>
-      <c r="J261" s="16"/>
-    </row>
-    <row r="262" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F262" s="16"/>
-      <c r="G262" s="16"/>
-      <c r="H262" s="16"/>
-      <c r="I262" s="16"/>
-      <c r="J262" s="16"/>
-    </row>
-    <row r="263" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F263" s="16"/>
-      <c r="G263" s="16"/>
-      <c r="H263" s="16"/>
-      <c r="I263" s="16"/>
-      <c r="J263" s="16"/>
-    </row>
-    <row r="264" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F264" s="16"/>
-      <c r="G264" s="16"/>
-      <c r="H264" s="16"/>
-      <c r="I264" s="16"/>
-      <c r="J264" s="16"/>
-    </row>
-    <row r="265" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F265" s="16"/>
-      <c r="G265" s="16"/>
-      <c r="H265" s="16"/>
-      <c r="I265" s="16"/>
-      <c r="J265" s="16"/>
-    </row>
-    <row r="266" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F266" s="16"/>
-      <c r="G266" s="16"/>
-      <c r="H266" s="16"/>
-      <c r="I266" s="16"/>
-      <c r="J266" s="16"/>
-    </row>
-    <row r="267" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F267" s="16"/>
-      <c r="G267" s="16"/>
-      <c r="H267" s="16"/>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
-    </row>
-    <row r="268" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F268" s="16"/>
-      <c r="G268" s="16"/>
-      <c r="H268" s="16"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="16"/>
-    </row>
-    <row r="269" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F269" s="16"/>
-      <c r="G269" s="16"/>
-      <c r="H269" s="16"/>
-      <c r="I269" s="16"/>
-      <c r="J269" s="16"/>
-    </row>
-    <row r="270" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F270" s="16"/>
-      <c r="G270" s="16"/>
-      <c r="H270" s="16"/>
-      <c r="I270" s="16"/>
-      <c r="J270" s="16"/>
-    </row>
-    <row r="271" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F271" s="16"/>
-      <c r="G271" s="16"/>
-      <c r="H271" s="16"/>
-      <c r="I271" s="16"/>
-      <c r="J271" s="16"/>
-    </row>
-    <row r="272" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F272" s="16"/>
-      <c r="G272" s="16"/>
-      <c r="H272" s="16"/>
-      <c r="I272" s="16"/>
-      <c r="J272" s="16"/>
-    </row>
-    <row r="273" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F273" s="16"/>
-      <c r="G273" s="16"/>
-      <c r="H273" s="16"/>
-      <c r="I273" s="16"/>
-      <c r="J273" s="16"/>
-    </row>
-    <row r="274" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F274" s="16"/>
-      <c r="G274" s="16"/>
-      <c r="H274" s="16"/>
-      <c r="I274" s="16"/>
-      <c r="J274" s="16"/>
-    </row>
-    <row r="275" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F275" s="16"/>
-      <c r="G275" s="16"/>
-      <c r="H275" s="16"/>
-      <c r="I275" s="16"/>
-      <c r="J275" s="16"/>
-    </row>
-    <row r="276" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F276" s="16"/>
-      <c r="G276" s="16"/>
-      <c r="H276" s="16"/>
-      <c r="I276" s="16"/>
-      <c r="J276" s="16"/>
-    </row>
-    <row r="277" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F277" s="16"/>
-      <c r="G277" s="16"/>
-      <c r="H277" s="16"/>
-      <c r="I277" s="16"/>
-      <c r="J277" s="16"/>
-    </row>
-    <row r="278" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F278" s="16"/>
-      <c r="G278" s="16"/>
-      <c r="H278" s="16"/>
-      <c r="I278" s="16"/>
-      <c r="J278" s="16"/>
-    </row>
-    <row r="279" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F279" s="16"/>
-      <c r="G279" s="16"/>
-      <c r="H279" s="16"/>
-      <c r="I279" s="16"/>
-      <c r="J279" s="16"/>
-    </row>
-    <row r="280" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F280" s="16"/>
-      <c r="G280" s="16"/>
-      <c r="H280" s="16"/>
-      <c r="I280" s="16"/>
-      <c r="J280" s="16"/>
-    </row>
-    <row r="281" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F281" s="16"/>
-      <c r="G281" s="16"/>
-      <c r="H281" s="16"/>
-      <c r="I281" s="16"/>
-      <c r="J281" s="16"/>
-    </row>
-    <row r="282" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F282" s="16"/>
-      <c r="G282" s="16"/>
-      <c r="H282" s="16"/>
-      <c r="I282" s="16"/>
-      <c r="J282" s="16"/>
-    </row>
-    <row r="283" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F283" s="16"/>
-      <c r="G283" s="16"/>
-      <c r="H283" s="16"/>
-      <c r="I283" s="16"/>
-      <c r="J283" s="16"/>
-    </row>
-    <row r="284" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F284" s="16"/>
-      <c r="G284" s="16"/>
-      <c r="H284" s="16"/>
-      <c r="I284" s="16"/>
-      <c r="J284" s="16"/>
-    </row>
-    <row r="285" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F285" s="16"/>
-      <c r="G285" s="16"/>
-      <c r="H285" s="16"/>
-      <c r="I285" s="16"/>
-      <c r="J285" s="16"/>
-    </row>
-    <row r="286" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F286" s="16"/>
-      <c r="G286" s="16"/>
-      <c r="H286" s="16"/>
-      <c r="I286" s="16"/>
-      <c r="J286" s="16"/>
-    </row>
-    <row r="287" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F287" s="16"/>
-      <c r="G287" s="16"/>
-      <c r="H287" s="16"/>
-      <c r="I287" s="16"/>
-      <c r="J287" s="16"/>
-    </row>
-    <row r="288" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F288" s="16"/>
-      <c r="G288" s="16"/>
-      <c r="H288" s="16"/>
-      <c r="I288" s="16"/>
-      <c r="J288" s="16"/>
-    </row>
-    <row r="289" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F289" s="16"/>
-      <c r="G289" s="16"/>
-      <c r="H289" s="16"/>
-      <c r="I289" s="16"/>
-      <c r="J289" s="16"/>
-    </row>
-    <row r="290" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F290" s="16"/>
-      <c r="G290" s="16"/>
-      <c r="H290" s="16"/>
-      <c r="I290" s="16"/>
-      <c r="J290" s="16"/>
-    </row>
-    <row r="291" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F291" s="16"/>
-      <c r="G291" s="16"/>
-      <c r="H291" s="16"/>
-      <c r="I291" s="16"/>
-      <c r="J291" s="16"/>
-    </row>
-    <row r="292" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F292" s="16"/>
-      <c r="G292" s="16"/>
-      <c r="H292" s="16"/>
-      <c r="I292" s="16"/>
-      <c r="J292" s="16"/>
-    </row>
-    <row r="293" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F293" s="16"/>
-      <c r="G293" s="16"/>
-      <c r="H293" s="16"/>
-      <c r="I293" s="16"/>
-      <c r="J293" s="16"/>
-    </row>
-    <row r="294" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F294" s="16"/>
-      <c r="G294" s="16"/>
-      <c r="H294" s="16"/>
-      <c r="I294" s="16"/>
-      <c r="J294" s="16"/>
-    </row>
-    <row r="295" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F295" s="16"/>
-      <c r="G295" s="16"/>
-      <c r="H295" s="16"/>
-      <c r="I295" s="16"/>
-      <c r="J295" s="16"/>
-    </row>
-    <row r="296" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F296" s="16"/>
-      <c r="G296" s="16"/>
-      <c r="H296" s="16"/>
-      <c r="I296" s="16"/>
-      <c r="J296" s="16"/>
-    </row>
-    <row r="297" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F297" s="16"/>
-      <c r="G297" s="16"/>
-      <c r="H297" s="16"/>
-      <c r="I297" s="16"/>
-      <c r="J297" s="16"/>
-    </row>
-    <row r="298" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F298" s="16"/>
-      <c r="G298" s="16"/>
-      <c r="H298" s="16"/>
-      <c r="I298" s="16"/>
-      <c r="J298" s="16"/>
-    </row>
-    <row r="299" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F299" s="16"/>
-      <c r="G299" s="16"/>
-      <c r="H299" s="16"/>
-      <c r="I299" s="16"/>
-      <c r="J299" s="16"/>
-    </row>
-    <row r="300" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F300" s="16"/>
-      <c r="G300" s="16"/>
-      <c r="H300" s="16"/>
-      <c r="I300" s="16"/>
-      <c r="J300" s="16"/>
-    </row>
-    <row r="301" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F301" s="16"/>
-      <c r="G301" s="16"/>
-      <c r="H301" s="16"/>
-      <c r="I301" s="16"/>
-      <c r="J301" s="16"/>
-    </row>
-    <row r="302" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F302" s="16"/>
-      <c r="G302" s="16"/>
-      <c r="H302" s="16"/>
-      <c r="I302" s="16"/>
-      <c r="J302" s="16"/>
-    </row>
-    <row r="303" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F303" s="16"/>
-      <c r="G303" s="16"/>
-      <c r="H303" s="16"/>
-      <c r="I303" s="16"/>
-      <c r="J303" s="16"/>
-    </row>
-    <row r="304" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F304" s="16"/>
-      <c r="G304" s="16"/>
-      <c r="H304" s="16"/>
-      <c r="I304" s="16"/>
-      <c r="J304" s="16"/>
-    </row>
-    <row r="305" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F305" s="16"/>
-      <c r="G305" s="16"/>
-      <c r="H305" s="16"/>
-      <c r="I305" s="16"/>
-      <c r="J305" s="16"/>
-    </row>
-    <row r="306" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F306" s="16"/>
-      <c r="G306" s="16"/>
-      <c r="H306" s="16"/>
-      <c r="I306" s="16"/>
-      <c r="J306" s="16"/>
-    </row>
-    <row r="307" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F307" s="16"/>
-      <c r="G307" s="16"/>
-      <c r="H307" s="16"/>
-      <c r="I307" s="16"/>
-      <c r="J307" s="16"/>
-    </row>
-    <row r="308" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F308" s="16"/>
-      <c r="G308" s="16"/>
-      <c r="H308" s="16"/>
-      <c r="I308" s="16"/>
-      <c r="J308" s="16"/>
-    </row>
-    <row r="309" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F309" s="16"/>
-      <c r="G309" s="16"/>
-      <c r="H309" s="16"/>
-      <c r="I309" s="16"/>
-      <c r="J309" s="16"/>
-    </row>
-    <row r="310" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F310" s="16"/>
-      <c r="G310" s="16"/>
-      <c r="H310" s="16"/>
-      <c r="I310" s="16"/>
-      <c r="J310" s="16"/>
-    </row>
-    <row r="311" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F311" s="16"/>
-      <c r="G311" s="16"/>
-      <c r="H311" s="16"/>
-      <c r="I311" s="16"/>
-      <c r="J311" s="16"/>
-    </row>
-    <row r="312" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F312" s="16"/>
-      <c r="G312" s="16"/>
-      <c r="H312" s="16"/>
-      <c r="I312" s="16"/>
-      <c r="J312" s="16"/>
-    </row>
-    <row r="313" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F313" s="16"/>
-      <c r="G313" s="16"/>
-      <c r="H313" s="16"/>
-      <c r="I313" s="16"/>
-      <c r="J313" s="16"/>
-    </row>
-    <row r="314" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F314" s="16"/>
-      <c r="G314" s="16"/>
-      <c r="H314" s="16"/>
-      <c r="I314" s="16"/>
-      <c r="J314" s="16"/>
-    </row>
-    <row r="315" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F315" s="16"/>
-      <c r="G315" s="16"/>
-      <c r="H315" s="16"/>
-      <c r="I315" s="16"/>
-      <c r="J315" s="16"/>
-    </row>
-    <row r="316" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F316" s="16"/>
-      <c r="G316" s="16"/>
-      <c r="H316" s="16"/>
-      <c r="I316" s="16"/>
-      <c r="J316" s="16"/>
-    </row>
-    <row r="317" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F317" s="16"/>
-      <c r="G317" s="16"/>
-      <c r="H317" s="16"/>
-      <c r="I317" s="16"/>
-      <c r="J317" s="16"/>
-    </row>
-    <row r="318" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F318" s="16"/>
-      <c r="G318" s="16"/>
-      <c r="H318" s="16"/>
-      <c r="I318" s="16"/>
-      <c r="J318" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4821,7 +3404,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -5338,8 +3921,1593 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:X318"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B172" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S186" sqref="S186"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="X65" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="X66" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+    </row>
+    <row r="75" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+    </row>
+    <row r="76" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+    </row>
+    <row r="77" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+    </row>
+    <row r="78" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+    </row>
+    <row r="79" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="F79" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="F80" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G99" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G100" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G101" s="16"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G111" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G133" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G134" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G136" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G141" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="178" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="R178" s="16"/>
+      <c r="S178" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="T178" s="16"/>
+      <c r="U178" s="16"/>
+      <c r="V178" s="16"/>
+    </row>
+    <row r="179" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="R179" s="16"/>
+      <c r="S179" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="T179" s="16"/>
+      <c r="U179" s="16"/>
+      <c r="V179" s="16"/>
+    </row>
+    <row r="180" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="R180" s="16"/>
+      <c r="S180" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="T180" s="16"/>
+      <c r="U180" s="16"/>
+      <c r="V180" s="16"/>
+    </row>
+    <row r="181" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="16"/>
+      <c r="J181" s="16"/>
+      <c r="R181" s="16"/>
+      <c r="S181" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="T181" s="16"/>
+      <c r="U181" s="16"/>
+      <c r="V181" s="16"/>
+    </row>
+    <row r="182" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
+      <c r="R182" s="16"/>
+      <c r="S182" s="16"/>
+      <c r="T182" s="16"/>
+      <c r="U182" s="16"/>
+      <c r="V182" s="16"/>
+    </row>
+    <row r="183" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16"/>
+      <c r="R183" s="16"/>
+      <c r="S183" s="16"/>
+      <c r="T183" s="16"/>
+      <c r="U183" s="16"/>
+      <c r="V183" s="16"/>
+    </row>
+    <row r="184" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
+      <c r="R184" s="16"/>
+      <c r="S184" s="16"/>
+      <c r="T184" s="16"/>
+      <c r="U184" s="16"/>
+      <c r="V184" s="16"/>
+    </row>
+    <row r="185" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+      <c r="J185" s="16"/>
+      <c r="R185" s="16"/>
+      <c r="S185" s="16"/>
+      <c r="T185" s="16"/>
+      <c r="U185" s="16"/>
+      <c r="V185" s="16"/>
+    </row>
+    <row r="186" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16"/>
+      <c r="R186" s="16"/>
+      <c r="S186" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="T186" s="37"/>
+      <c r="U186" s="16"/>
+      <c r="V186" s="16"/>
+    </row>
+    <row r="187" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
+      <c r="J187" s="16"/>
+      <c r="R187" s="16"/>
+      <c r="S187" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="T187" s="37"/>
+      <c r="U187" s="37"/>
+      <c r="V187" s="37"/>
+    </row>
+    <row r="188" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="16"/>
+      <c r="J188" s="16"/>
+      <c r="R188" s="16"/>
+      <c r="S188" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="T188" s="16"/>
+      <c r="U188" s="16"/>
+      <c r="V188" s="16"/>
+    </row>
+    <row r="189" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="16"/>
+      <c r="J189" s="16"/>
+      <c r="R189" s="16"/>
+      <c r="S189" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="T189" s="37"/>
+      <c r="U189" s="16"/>
+      <c r="V189" s="16"/>
+    </row>
+    <row r="190" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="16"/>
+      <c r="J190" s="16"/>
+      <c r="R190" s="16"/>
+      <c r="S190" s="16"/>
+      <c r="T190" s="16"/>
+      <c r="U190" s="16"/>
+      <c r="V190" s="16"/>
+    </row>
+    <row r="191" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="16"/>
+      <c r="J191" s="16"/>
+      <c r="R191" s="16"/>
+      <c r="S191" s="16"/>
+      <c r="T191" s="16"/>
+      <c r="U191" s="16"/>
+      <c r="V191" s="16"/>
+    </row>
+    <row r="192" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="16"/>
+      <c r="J192" s="16"/>
+      <c r="R192" s="16"/>
+      <c r="S192" s="16"/>
+      <c r="T192" s="16"/>
+      <c r="U192" s="16"/>
+      <c r="V192" s="16"/>
+    </row>
+    <row r="193" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="16"/>
+      <c r="J193" s="16"/>
+      <c r="R193" s="16"/>
+      <c r="S193" s="16"/>
+      <c r="T193" s="16"/>
+      <c r="U193" s="16"/>
+      <c r="V193" s="16"/>
+    </row>
+    <row r="194" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="16"/>
+      <c r="I194" s="16"/>
+      <c r="J194" s="16"/>
+      <c r="R194" s="16"/>
+      <c r="S194" s="16"/>
+      <c r="T194" s="16"/>
+      <c r="U194" s="16"/>
+      <c r="V194" s="16"/>
+    </row>
+    <row r="195" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="16"/>
+      <c r="J195" s="16"/>
+      <c r="R195" s="16"/>
+      <c r="S195" s="16"/>
+      <c r="T195" s="16"/>
+      <c r="U195" s="16"/>
+      <c r="V195" s="16"/>
+    </row>
+    <row r="196" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="16"/>
+      <c r="I196" s="16"/>
+      <c r="J196" s="16"/>
+      <c r="R196" s="16"/>
+      <c r="S196" s="16"/>
+      <c r="T196" s="16"/>
+      <c r="U196" s="16"/>
+      <c r="V196" s="16"/>
+    </row>
+    <row r="197" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16"/>
+      <c r="I197" s="16"/>
+      <c r="J197" s="16"/>
+    </row>
+    <row r="198" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16"/>
+      <c r="I198" s="16"/>
+      <c r="J198" s="16"/>
+    </row>
+    <row r="199" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="16"/>
+      <c r="I199" s="16"/>
+      <c r="J199" s="16"/>
+    </row>
+    <row r="200" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="16"/>
+      <c r="I200" s="16"/>
+      <c r="J200" s="16"/>
+    </row>
+    <row r="201" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F201" s="16"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="16"/>
+      <c r="I201" s="16"/>
+      <c r="J201" s="16"/>
+    </row>
+    <row r="202" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
+      <c r="I202" s="16"/>
+      <c r="J202" s="16"/>
+    </row>
+    <row r="203" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F203" s="16"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="16"/>
+      <c r="I203" s="16"/>
+      <c r="J203" s="16"/>
+    </row>
+    <row r="204" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+      <c r="J204" s="16"/>
+    </row>
+    <row r="205" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="16"/>
+      <c r="J205" s="16"/>
+    </row>
+    <row r="206" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F206" s="16"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
+      <c r="I206" s="16"/>
+      <c r="J206" s="16"/>
+    </row>
+    <row r="207" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F207" s="16"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="16"/>
+      <c r="I207" s="16"/>
+      <c r="J207" s="16"/>
+    </row>
+    <row r="208" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F208" s="16"/>
+      <c r="G208" s="16"/>
+      <c r="H208" s="16"/>
+      <c r="I208" s="16"/>
+      <c r="J208" s="16"/>
+    </row>
+    <row r="209" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F209" s="16"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="16"/>
+      <c r="I209" s="16"/>
+      <c r="J209" s="16"/>
+    </row>
+    <row r="210" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F210" s="16"/>
+      <c r="G210" s="16"/>
+      <c r="H210" s="16"/>
+      <c r="I210" s="16"/>
+      <c r="J210" s="16"/>
+    </row>
+    <row r="211" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="16"/>
+      <c r="I211" s="16"/>
+      <c r="J211" s="16"/>
+    </row>
+    <row r="212" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F212" s="16"/>
+      <c r="G212" s="16"/>
+      <c r="H212" s="16"/>
+      <c r="I212" s="16"/>
+      <c r="J212" s="16"/>
+    </row>
+    <row r="213" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F213" s="16"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16"/>
+      <c r="I213" s="16"/>
+      <c r="J213" s="16"/>
+    </row>
+    <row r="214" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F214" s="16"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16"/>
+      <c r="I214" s="16"/>
+      <c r="J214" s="16"/>
+    </row>
+    <row r="215" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="16"/>
+      <c r="I215" s="16"/>
+      <c r="J215" s="16"/>
+    </row>
+    <row r="216" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16"/>
+      <c r="I216" s="16"/>
+      <c r="J216" s="16"/>
+    </row>
+    <row r="217" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+      <c r="I217" s="16"/>
+      <c r="J217" s="16"/>
+    </row>
+    <row r="218" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F218" s="16"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16"/>
+      <c r="I218" s="16"/>
+      <c r="J218" s="16"/>
+    </row>
+    <row r="219" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="16"/>
+      <c r="I219" s="16"/>
+      <c r="J219" s="16"/>
+    </row>
+    <row r="220" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="16"/>
+      <c r="I220" s="16"/>
+      <c r="J220" s="16"/>
+    </row>
+    <row r="221" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="16"/>
+      <c r="I221" s="16"/>
+      <c r="J221" s="16"/>
+    </row>
+    <row r="222" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="16"/>
+      <c r="J222" s="16"/>
+    </row>
+    <row r="223" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="16"/>
+      <c r="J223" s="16"/>
+    </row>
+    <row r="224" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="16"/>
+      <c r="I224" s="16"/>
+      <c r="J224" s="16"/>
+    </row>
+    <row r="225" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F225" s="16"/>
+      <c r="G225" s="16"/>
+      <c r="H225" s="16"/>
+      <c r="I225" s="16"/>
+      <c r="J225" s="16"/>
+    </row>
+    <row r="226" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+      <c r="H226" s="16"/>
+      <c r="I226" s="16"/>
+      <c r="J226" s="16"/>
+    </row>
+    <row r="227" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
+      <c r="H227" s="16"/>
+      <c r="I227" s="16"/>
+      <c r="J227" s="16"/>
+    </row>
+    <row r="228" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F228" s="16"/>
+      <c r="G228" s="16"/>
+      <c r="H228" s="16"/>
+      <c r="I228" s="16"/>
+      <c r="J228" s="16"/>
+    </row>
+    <row r="229" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F229" s="16"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="16"/>
+      <c r="I229" s="16"/>
+      <c r="J229" s="16"/>
+    </row>
+    <row r="230" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F230" s="16"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+      <c r="I230" s="16"/>
+      <c r="J230" s="16"/>
+    </row>
+    <row r="231" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+      <c r="H231" s="16"/>
+      <c r="I231" s="16"/>
+      <c r="J231" s="16"/>
+    </row>
+    <row r="232" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F232" s="16"/>
+      <c r="G232" s="16"/>
+      <c r="H232" s="16"/>
+      <c r="I232" s="16"/>
+      <c r="J232" s="16"/>
+    </row>
+    <row r="233" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F233" s="16"/>
+      <c r="G233" s="16"/>
+      <c r="H233" s="16"/>
+      <c r="I233" s="16"/>
+      <c r="J233" s="16"/>
+    </row>
+    <row r="234" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F234" s="16"/>
+      <c r="G234" s="16"/>
+      <c r="H234" s="16"/>
+      <c r="I234" s="16"/>
+      <c r="J234" s="16"/>
+    </row>
+    <row r="235" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F235" s="16"/>
+      <c r="G235" s="16"/>
+      <c r="H235" s="16"/>
+      <c r="I235" s="16"/>
+      <c r="J235" s="16"/>
+    </row>
+    <row r="236" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F236" s="16"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="16"/>
+      <c r="I236" s="16"/>
+      <c r="J236" s="16"/>
+    </row>
+    <row r="237" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F237" s="16"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="16"/>
+      <c r="I237" s="16"/>
+      <c r="J237" s="16"/>
+    </row>
+    <row r="238" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
+      <c r="I238" s="16"/>
+      <c r="J238" s="16"/>
+    </row>
+    <row r="239" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+      <c r="I239" s="16"/>
+      <c r="J239" s="16"/>
+    </row>
+    <row r="240" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F240" s="16"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
+      <c r="I240" s="16"/>
+      <c r="J240" s="16"/>
+    </row>
+    <row r="241" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="16"/>
+      <c r="I241" s="16"/>
+      <c r="J241" s="16"/>
+    </row>
+    <row r="242" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F242" s="16"/>
+      <c r="G242" s="16"/>
+      <c r="H242" s="16"/>
+      <c r="I242" s="16"/>
+      <c r="J242" s="16"/>
+    </row>
+    <row r="243" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F243" s="16"/>
+      <c r="G243" s="16"/>
+      <c r="H243" s="16"/>
+      <c r="I243" s="16"/>
+      <c r="J243" s="16"/>
+    </row>
+    <row r="244" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F244" s="16"/>
+      <c r="G244" s="16"/>
+      <c r="H244" s="16"/>
+      <c r="I244" s="16"/>
+      <c r="J244" s="16"/>
+    </row>
+    <row r="245" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F245" s="16"/>
+      <c r="G245" s="16"/>
+      <c r="H245" s="16"/>
+      <c r="I245" s="16"/>
+      <c r="J245" s="16"/>
+    </row>
+    <row r="246" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F246" s="16"/>
+      <c r="G246" s="16"/>
+      <c r="H246" s="16"/>
+      <c r="I246" s="16"/>
+      <c r="J246" s="16"/>
+    </row>
+    <row r="247" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F247" s="16"/>
+      <c r="G247" s="16"/>
+      <c r="H247" s="16"/>
+      <c r="I247" s="16"/>
+      <c r="J247" s="16"/>
+    </row>
+    <row r="248" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F248" s="16"/>
+      <c r="G248" s="16"/>
+      <c r="H248" s="16"/>
+      <c r="I248" s="16"/>
+      <c r="J248" s="16"/>
+    </row>
+    <row r="249" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F249" s="16"/>
+      <c r="G249" s="16"/>
+      <c r="H249" s="16"/>
+      <c r="I249" s="16"/>
+      <c r="J249" s="16"/>
+    </row>
+    <row r="250" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F250" s="16"/>
+      <c r="G250" s="16"/>
+      <c r="H250" s="16"/>
+      <c r="I250" s="16"/>
+      <c r="J250" s="16"/>
+    </row>
+    <row r="251" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+      <c r="H251" s="16"/>
+      <c r="I251" s="16"/>
+      <c r="J251" s="16"/>
+    </row>
+    <row r="252" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F252" s="16"/>
+      <c r="G252" s="16"/>
+      <c r="H252" s="16"/>
+      <c r="I252" s="16"/>
+      <c r="J252" s="16"/>
+    </row>
+    <row r="253" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+      <c r="H253" s="16"/>
+      <c r="I253" s="16"/>
+      <c r="J253" s="16"/>
+    </row>
+    <row r="254" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F254" s="16"/>
+      <c r="G254" s="16"/>
+      <c r="H254" s="16"/>
+      <c r="I254" s="16"/>
+      <c r="J254" s="16"/>
+    </row>
+    <row r="255" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F255" s="16"/>
+      <c r="G255" s="16"/>
+      <c r="H255" s="16"/>
+      <c r="I255" s="16"/>
+      <c r="J255" s="16"/>
+    </row>
+    <row r="256" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F256" s="16"/>
+      <c r="G256" s="16"/>
+      <c r="H256" s="16"/>
+      <c r="I256" s="16"/>
+      <c r="J256" s="16"/>
+    </row>
+    <row r="257" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F257" s="16"/>
+      <c r="G257" s="16"/>
+      <c r="H257" s="16"/>
+      <c r="I257" s="16"/>
+      <c r="J257" s="16"/>
+    </row>
+    <row r="258" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F258" s="16"/>
+      <c r="G258" s="16"/>
+      <c r="H258" s="16"/>
+      <c r="I258" s="16"/>
+      <c r="J258" s="16"/>
+    </row>
+    <row r="259" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F259" s="16"/>
+      <c r="G259" s="16"/>
+      <c r="H259" s="16"/>
+      <c r="I259" s="16"/>
+      <c r="J259" s="16"/>
+    </row>
+    <row r="260" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F260" s="16"/>
+      <c r="G260" s="16"/>
+      <c r="H260" s="16"/>
+      <c r="I260" s="16"/>
+      <c r="J260" s="16"/>
+    </row>
+    <row r="261" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F261" s="16"/>
+      <c r="G261" s="16"/>
+      <c r="H261" s="16"/>
+      <c r="I261" s="16"/>
+      <c r="J261" s="16"/>
+    </row>
+    <row r="262" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F262" s="16"/>
+      <c r="G262" s="16"/>
+      <c r="H262" s="16"/>
+      <c r="I262" s="16"/>
+      <c r="J262" s="16"/>
+    </row>
+    <row r="263" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F263" s="16"/>
+      <c r="G263" s="16"/>
+      <c r="H263" s="16"/>
+      <c r="I263" s="16"/>
+      <c r="J263" s="16"/>
+    </row>
+    <row r="264" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F264" s="16"/>
+      <c r="G264" s="16"/>
+      <c r="H264" s="16"/>
+      <c r="I264" s="16"/>
+      <c r="J264" s="16"/>
+    </row>
+    <row r="265" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F265" s="16"/>
+      <c r="G265" s="16"/>
+      <c r="H265" s="16"/>
+      <c r="I265" s="16"/>
+      <c r="J265" s="16"/>
+    </row>
+    <row r="266" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F266" s="16"/>
+      <c r="G266" s="16"/>
+      <c r="H266" s="16"/>
+      <c r="I266" s="16"/>
+      <c r="J266" s="16"/>
+    </row>
+    <row r="267" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F267" s="16"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="16"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
+    </row>
+    <row r="268" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F268" s="16"/>
+      <c r="G268" s="16"/>
+      <c r="H268" s="16"/>
+      <c r="I268" s="16"/>
+      <c r="J268" s="16"/>
+    </row>
+    <row r="269" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F269" s="16"/>
+      <c r="G269" s="16"/>
+      <c r="H269" s="16"/>
+      <c r="I269" s="16"/>
+      <c r="J269" s="16"/>
+    </row>
+    <row r="270" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F270" s="16"/>
+      <c r="G270" s="16"/>
+      <c r="H270" s="16"/>
+      <c r="I270" s="16"/>
+      <c r="J270" s="16"/>
+    </row>
+    <row r="271" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F271" s="16"/>
+      <c r="G271" s="16"/>
+      <c r="H271" s="16"/>
+      <c r="I271" s="16"/>
+      <c r="J271" s="16"/>
+    </row>
+    <row r="272" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F272" s="16"/>
+      <c r="G272" s="16"/>
+      <c r="H272" s="16"/>
+      <c r="I272" s="16"/>
+      <c r="J272" s="16"/>
+    </row>
+    <row r="273" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F273" s="16"/>
+      <c r="G273" s="16"/>
+      <c r="H273" s="16"/>
+      <c r="I273" s="16"/>
+      <c r="J273" s="16"/>
+    </row>
+    <row r="274" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F274" s="16"/>
+      <c r="G274" s="16"/>
+      <c r="H274" s="16"/>
+      <c r="I274" s="16"/>
+      <c r="J274" s="16"/>
+    </row>
+    <row r="275" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F275" s="16"/>
+      <c r="G275" s="16"/>
+      <c r="H275" s="16"/>
+      <c r="I275" s="16"/>
+      <c r="J275" s="16"/>
+    </row>
+    <row r="276" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F276" s="16"/>
+      <c r="G276" s="16"/>
+      <c r="H276" s="16"/>
+      <c r="I276" s="16"/>
+      <c r="J276" s="16"/>
+    </row>
+    <row r="277" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F277" s="16"/>
+      <c r="G277" s="16"/>
+      <c r="H277" s="16"/>
+      <c r="I277" s="16"/>
+      <c r="J277" s="16"/>
+    </row>
+    <row r="278" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F278" s="16"/>
+      <c r="G278" s="16"/>
+      <c r="H278" s="16"/>
+      <c r="I278" s="16"/>
+      <c r="J278" s="16"/>
+    </row>
+    <row r="279" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F279" s="16"/>
+      <c r="G279" s="16"/>
+      <c r="H279" s="16"/>
+      <c r="I279" s="16"/>
+      <c r="J279" s="16"/>
+    </row>
+    <row r="280" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F280" s="16"/>
+      <c r="G280" s="16"/>
+      <c r="H280" s="16"/>
+      <c r="I280" s="16"/>
+      <c r="J280" s="16"/>
+    </row>
+    <row r="281" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F281" s="16"/>
+      <c r="G281" s="16"/>
+      <c r="H281" s="16"/>
+      <c r="I281" s="16"/>
+      <c r="J281" s="16"/>
+    </row>
+    <row r="282" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F282" s="16"/>
+      <c r="G282" s="16"/>
+      <c r="H282" s="16"/>
+      <c r="I282" s="16"/>
+      <c r="J282" s="16"/>
+    </row>
+    <row r="283" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F283" s="16"/>
+      <c r="G283" s="16"/>
+      <c r="H283" s="16"/>
+      <c r="I283" s="16"/>
+      <c r="J283" s="16"/>
+    </row>
+    <row r="284" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F284" s="16"/>
+      <c r="G284" s="16"/>
+      <c r="H284" s="16"/>
+      <c r="I284" s="16"/>
+      <c r="J284" s="16"/>
+    </row>
+    <row r="285" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F285" s="16"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="16"/>
+      <c r="I285" s="16"/>
+      <c r="J285" s="16"/>
+    </row>
+    <row r="286" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F286" s="16"/>
+      <c r="G286" s="16"/>
+      <c r="H286" s="16"/>
+      <c r="I286" s="16"/>
+      <c r="J286" s="16"/>
+    </row>
+    <row r="287" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F287" s="16"/>
+      <c r="G287" s="16"/>
+      <c r="H287" s="16"/>
+      <c r="I287" s="16"/>
+      <c r="J287" s="16"/>
+    </row>
+    <row r="288" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F288" s="16"/>
+      <c r="G288" s="16"/>
+      <c r="H288" s="16"/>
+      <c r="I288" s="16"/>
+      <c r="J288" s="16"/>
+    </row>
+    <row r="289" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F289" s="16"/>
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="16"/>
+      <c r="J289" s="16"/>
+    </row>
+    <row r="290" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F290" s="16"/>
+      <c r="G290" s="16"/>
+      <c r="H290" s="16"/>
+      <c r="I290" s="16"/>
+      <c r="J290" s="16"/>
+    </row>
+    <row r="291" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F291" s="16"/>
+      <c r="G291" s="16"/>
+      <c r="H291" s="16"/>
+      <c r="I291" s="16"/>
+      <c r="J291" s="16"/>
+    </row>
+    <row r="292" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F292" s="16"/>
+      <c r="G292" s="16"/>
+      <c r="H292" s="16"/>
+      <c r="I292" s="16"/>
+      <c r="J292" s="16"/>
+    </row>
+    <row r="293" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
+      <c r="H293" s="16"/>
+      <c r="I293" s="16"/>
+      <c r="J293" s="16"/>
+    </row>
+    <row r="294" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
+      <c r="H294" s="16"/>
+      <c r="I294" s="16"/>
+      <c r="J294" s="16"/>
+    </row>
+    <row r="295" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
+      <c r="H295" s="16"/>
+      <c r="I295" s="16"/>
+      <c r="J295" s="16"/>
+    </row>
+    <row r="296" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F296" s="16"/>
+      <c r="G296" s="16"/>
+      <c r="H296" s="16"/>
+      <c r="I296" s="16"/>
+      <c r="J296" s="16"/>
+    </row>
+    <row r="297" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F297" s="16"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="16"/>
+      <c r="I297" s="16"/>
+      <c r="J297" s="16"/>
+    </row>
+    <row r="298" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F298" s="16"/>
+      <c r="G298" s="16"/>
+      <c r="H298" s="16"/>
+      <c r="I298" s="16"/>
+      <c r="J298" s="16"/>
+    </row>
+    <row r="299" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F299" s="16"/>
+      <c r="G299" s="16"/>
+      <c r="H299" s="16"/>
+      <c r="I299" s="16"/>
+      <c r="J299" s="16"/>
+    </row>
+    <row r="300" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F300" s="16"/>
+      <c r="G300" s="16"/>
+      <c r="H300" s="16"/>
+      <c r="I300" s="16"/>
+      <c r="J300" s="16"/>
+    </row>
+    <row r="301" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F301" s="16"/>
+      <c r="G301" s="16"/>
+      <c r="H301" s="16"/>
+      <c r="I301" s="16"/>
+      <c r="J301" s="16"/>
+    </row>
+    <row r="302" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F302" s="16"/>
+      <c r="G302" s="16"/>
+      <c r="H302" s="16"/>
+      <c r="I302" s="16"/>
+      <c r="J302" s="16"/>
+    </row>
+    <row r="303" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F303" s="16"/>
+      <c r="G303" s="16"/>
+      <c r="H303" s="16"/>
+      <c r="I303" s="16"/>
+      <c r="J303" s="16"/>
+    </row>
+    <row r="304" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F304" s="16"/>
+      <c r="G304" s="16"/>
+      <c r="H304" s="16"/>
+      <c r="I304" s="16"/>
+      <c r="J304" s="16"/>
+    </row>
+    <row r="305" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F305" s="16"/>
+      <c r="G305" s="16"/>
+      <c r="H305" s="16"/>
+      <c r="I305" s="16"/>
+      <c r="J305" s="16"/>
+    </row>
+    <row r="306" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F306" s="16"/>
+      <c r="G306" s="16"/>
+      <c r="H306" s="16"/>
+      <c r="I306" s="16"/>
+      <c r="J306" s="16"/>
+    </row>
+    <row r="307" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F307" s="16"/>
+      <c r="G307" s="16"/>
+      <c r="H307" s="16"/>
+      <c r="I307" s="16"/>
+      <c r="J307" s="16"/>
+    </row>
+    <row r="308" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F308" s="16"/>
+      <c r="G308" s="16"/>
+      <c r="H308" s="16"/>
+      <c r="I308" s="16"/>
+      <c r="J308" s="16"/>
+    </row>
+    <row r="309" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F309" s="16"/>
+      <c r="G309" s="16"/>
+      <c r="H309" s="16"/>
+      <c r="I309" s="16"/>
+      <c r="J309" s="16"/>
+    </row>
+    <row r="310" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F310" s="16"/>
+      <c r="G310" s="16"/>
+      <c r="H310" s="16"/>
+      <c r="I310" s="16"/>
+      <c r="J310" s="16"/>
+    </row>
+    <row r="311" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F311" s="16"/>
+      <c r="G311" s="16"/>
+      <c r="H311" s="16"/>
+      <c r="I311" s="16"/>
+      <c r="J311" s="16"/>
+    </row>
+    <row r="312" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F312" s="16"/>
+      <c r="G312" s="16"/>
+      <c r="H312" s="16"/>
+      <c r="I312" s="16"/>
+      <c r="J312" s="16"/>
+    </row>
+    <row r="313" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F313" s="16"/>
+      <c r="G313" s="16"/>
+      <c r="H313" s="16"/>
+      <c r="I313" s="16"/>
+      <c r="J313" s="16"/>
+    </row>
+    <row r="314" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F314" s="16"/>
+      <c r="G314" s="16"/>
+      <c r="H314" s="16"/>
+      <c r="I314" s="16"/>
+      <c r="J314" s="16"/>
+    </row>
+    <row r="315" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F315" s="16"/>
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+      <c r="I315" s="16"/>
+      <c r="J315" s="16"/>
+    </row>
+    <row r="316" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F316" s="16"/>
+      <c r="G316" s="16"/>
+      <c r="H316" s="16"/>
+      <c r="I316" s="16"/>
+      <c r="J316" s="16"/>
+    </row>
+    <row r="317" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F317" s="16"/>
+      <c r="G317" s="16"/>
+      <c r="H317" s="16"/>
+      <c r="I317" s="16"/>
+      <c r="J317" s="16"/>
+    </row>
+    <row r="318" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F318" s="16"/>
+      <c r="G318" s="16"/>
+      <c r="H318" s="16"/>
+      <c r="I318" s="16"/>
+      <c r="J318" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
@@ -5358,66 +5526,66 @@
   <sheetData>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="I2" s="37"/>
+        <v>270</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <v>100</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="47">
         <v>20</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="47">
         <v>200</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="47">
         <v>2</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="47">
         <v>1</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="47">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5425,50 +5593,50 @@
     <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="E14" s="39"/>
+        <v>246</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="39"/>
+        <v>177</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="39"/>
+        <v>149</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5491,12 +5659,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5512,236 +5680,236 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>196</v>
+      <c r="B3" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="40"/>
+      <c r="C5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="40"/>
+      <c r="C6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="40"/>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="49"/>
+      <c r="C9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="49"/>
+      <c r="C10" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="3" t="s">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
-      <c r="C11" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>167</v>
+      <c r="B12" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>156</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
-        <v>222</v>
+      <c r="B14" s="47" t="s">
+        <v>211</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
-        <v>220</v>
+      <c r="B17" s="47" t="s">
+        <v>209</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="49"/>
+      <c r="C20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="48"/>
+      <c r="C21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="49"/>
+      <c r="C23" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -5764,7 +5932,256 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="E3:F53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="84" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="36" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="E12" s="62" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="36" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="G1:I57"/>
   <sheetViews>
@@ -5784,439 +6201,439 @@
   <sheetData>
     <row r="1" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="50">
+        <v>45313</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="49">
-        <v>45313</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>201</v>
+      <c r="I2" s="47" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" s="47"/>
+        <v>173</v>
+      </c>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="49">
+      <c r="G4" s="50">
         <v>45317</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="52"/>
+      <c r="H5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="50">
+        <v>45320</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="51"/>
+      <c r="H7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="51"/>
+      <c r="H8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="52"/>
+      <c r="H9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="50">
+        <v>45323</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="51"/>
+      <c r="H11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="51"/>
+      <c r="H12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="49"/>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="51"/>
+      <c r="H13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="49"/>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="52"/>
+      <c r="H14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G15" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G16" s="51"/>
+      <c r="H16" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="51"/>
+      <c r="H17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="52"/>
+      <c r="H18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G19" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G20" s="52"/>
+      <c r="H20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G21" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G22" s="52"/>
+      <c r="H22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G23" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="51"/>
+      <c r="H24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G25" s="51"/>
+      <c r="H25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G26" s="51"/>
+      <c r="H26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G27" s="51"/>
+      <c r="H27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="51"/>
+      <c r="H28" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I28" s="49"/>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G29" s="52"/>
+      <c r="H29" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" s="48"/>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="51"/>
+      <c r="H31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="49"/>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G32" s="52"/>
+      <c r="H32" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I32" s="48"/>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="47"/>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="51"/>
+      <c r="H34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="49"/>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G35" s="51"/>
+      <c r="H35" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" s="49"/>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G36" s="51"/>
+      <c r="H36" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I36" s="49"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G37" s="51"/>
+      <c r="H37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="49"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G38" s="52"/>
+      <c r="H38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="48"/>
+    </row>
+    <row r="39" spans="7:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G40" s="51"/>
+      <c r="H40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="49"/>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G41" s="51"/>
+      <c r="H41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="49"/>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G42" s="51"/>
+      <c r="H42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="49"/>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G43" s="52"/>
+      <c r="H43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="48"/>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G44" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="51"/>
-      <c r="H5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="49">
-        <v>45320</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="50"/>
-      <c r="H7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="50"/>
-      <c r="H8" s="3" t="s">
+      <c r="I44" s="47"/>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G45" s="52"/>
+      <c r="H45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="48"/>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G46" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="51"/>
-      <c r="H9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="49">
-        <v>45323</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="50"/>
-      <c r="H11" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I11" s="48"/>
-    </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="50"/>
-      <c r="H12" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="50"/>
-      <c r="H13" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="51"/>
-      <c r="H14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G15" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="50"/>
-      <c r="H16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G17" s="50"/>
-      <c r="H17" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G18" s="51"/>
-      <c r="H18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G19" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G20" s="51"/>
-      <c r="H20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G21" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="51"/>
-      <c r="H22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G23" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="46"/>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="50"/>
-      <c r="H24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="48"/>
-    </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G25" s="50"/>
-      <c r="H25" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="50"/>
-      <c r="H26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="48"/>
-    </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="50"/>
-      <c r="H27" s="3" t="s">
+      <c r="I46" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="48"/>
-    </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="50"/>
-      <c r="H28" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="I28" s="48"/>
-    </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="51"/>
-      <c r="H29" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I29" s="47"/>
-    </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="46"/>
-    </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G31" s="50"/>
-      <c r="H31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="48"/>
-    </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G32" s="51"/>
-      <c r="H32" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G33" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I33" s="46"/>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G34" s="50"/>
-      <c r="H34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" s="48"/>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G35" s="50"/>
-      <c r="H35" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="I35" s="48"/>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G36" s="50"/>
-      <c r="H36" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="I36" s="48"/>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G37" s="50"/>
-      <c r="H37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="48"/>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G38" s="51"/>
-      <c r="H38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" s="47"/>
-    </row>
-    <row r="39" spans="7:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G40" s="50"/>
-      <c r="H40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" s="48"/>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G41" s="50"/>
-      <c r="H41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="48"/>
-    </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G42" s="50"/>
-      <c r="H42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="48"/>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G43" s="51"/>
-      <c r="H43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="47"/>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G44" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" s="46"/>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G45" s="51"/>
-      <c r="H45" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="47"/>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G46" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="I46" s="46" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G47" s="51"/>
+      <c r="G47" s="52"/>
       <c r="H47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" s="47"/>
+        <v>119</v>
+      </c>
+      <c r="I47" s="48"/>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G48" s="49" t="s">
-        <v>284</v>
+      <c r="G48" s="50" t="s">
+        <v>273</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G49" s="50"/>
+      <c r="G49" s="51"/>
       <c r="H49" s="3" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G50" s="51"/>
+      <c r="G50" s="52"/>
       <c r="H50" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G51" s="53" t="s">
-        <v>367</v>
+      <c r="G51" s="54" t="s">
+        <v>355</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G52" s="51"/>
+      <c r="G52" s="52"/>
       <c r="H52" s="36" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H53" s="36" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H54" s="36" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H55" s="36" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H56" s="36" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H57" s="36" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6255,262 +6672,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="E3:F53"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="84" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E5" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="36" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E30" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="36" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6535,59 +6703,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1" s="39"/>
-      <c r="L1" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="M1" s="39"/>
+      <c r="D1" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="40"/>
+      <c r="L1" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="4:34" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="9" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="10" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="T3" s="11"/>
@@ -6614,45 +6782,45 @@
     <row r="5" spans="4:34" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="3"/>
       <c r="J5" s="9" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="I7" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="L7" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="M7" s="39"/>
+      <c r="I7" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="4:34" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="13" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="4:34" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M10" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6665,14 +6833,14 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448"/>
-    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451"/>
-    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -6681,11 +6849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -6705,155 +6873,155 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+        <v>247</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>181</v>
+        <v>269</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>20</v>
+        <v>299</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="56"/>
+        <v>262</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+        <v>265</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F3" s="58"/>
+        <v>300</v>
+      </c>
+      <c r="F3" s="59"/>
       <c r="H3" s="20" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="59"/>
+        <v>296</v>
+      </c>
+      <c r="F4" s="60"/>
       <c r="H4" s="25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I4" s="20"/>
-      <c r="J4" s="57"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="I5" s="20"/>
-      <c r="J5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="59"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="25"/>
@@ -6865,184 +7033,184 @@
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>308</v>
+      <c r="B11" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>297</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="25"/>
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="25"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="25"/>
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="H14" s="20"/>
       <c r="I14" s="25"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="42" t="s">
-        <v>212</v>
+      <c r="B15" s="40"/>
+      <c r="C15" s="43" t="s">
+        <v>201</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="25"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="45"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="25"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="H17" s="20"/>
       <c r="I17" s="25"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="42" t="s">
-        <v>213</v>
+      <c r="B18" s="40"/>
+      <c r="C18" s="43" t="s">
+        <v>202</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="25"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="60"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="25"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
-      <c r="C20" s="60"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="25"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="22"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39"/>
+      <c r="B23" s="40"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
-      <c r="C24" s="42" t="s">
-        <v>214</v>
+      <c r="B24" s="40"/>
+      <c r="C24" s="43" t="s">
+        <v>203</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="18"/>
@@ -7054,30 +7222,30 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>246</v>
+      <c r="B27" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>235</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="18"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="18"/>
@@ -7090,13 +7258,13 @@
     </row>
     <row r="30" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>11</v>
@@ -7271,9 +7439,9 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송준민\Desktop\Spenta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCLASS\Desktop\Spenta\Spenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EC796B-12BB-4A61-A2BA-AC970F624D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
@@ -223,9 +222,6 @@
     <t>네임드 몬스터 처치를 통해 획득하는 꺠달음의 조각 -&gt; 스펜타의 권능 강화 (각성 스테이지 에서)</t>
   </si>
   <si>
-    <t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</t>
-  </si>
-  <si>
     <t>Frog(몬스터) 가 플레이어 주변에 
 있을때 더이상 점프하지 않게 수정</t>
   </si>
@@ -1119,9 +1115,6 @@
     <t>공격을 받은 상태 (공격을 가한 상태 x)</t>
   </si>
   <si>
-    <t>* 허허, 자네가 바로 예언의 화신이로군.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Frog(몬스터) 구현 중 ( 완성 x) </t>
   </si>
   <si>
@@ -1167,9 +1160,6 @@
   </si>
   <si>
     <t>LV당 보호막 최대치 +10(max2)</t>
-  </si>
-  <si>
-    <t>* 이곳에서 심득을 얻어가면 좋겠네.</t>
   </si>
   <si>
     <t>적 처치시 쿨타임 초기화 (max 1)</t>
@@ -1450,14 +1440,26 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>ㄹㄹㄹ</t>
+    <t>*자네의 여정에 불의 가호가 있기를…</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 허허, 자네가 바로 예언의 화신이로군.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이곳에서 심득을 얻어가면 좋겠네.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d\.;@"/>
   </numFmts>
@@ -1901,6 +1903,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1972,9 +1977,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2163,7 +2165,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2172,7 +2174,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2890,7 +2892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -2914,108 +2916,108 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -3023,13 +3025,13 @@
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
@@ -3039,7 +3041,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3047,133 +3049,133 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="40"/>
+        <v>171</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="H9" s="40"/>
+      <c r="G9" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="40"/>
+      <c r="G13" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="A15" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3200,7 +3202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="D3:D35"/>
   <sheetViews>
@@ -3215,7 +3217,7 @@
   <sheetData>
     <row r="3" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.3">
@@ -3233,27 +3235,27 @@
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D7" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D8" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D9" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D10" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D11" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.3">
@@ -3273,22 +3275,22 @@
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D15" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D16" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
@@ -3298,27 +3300,27 @@
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="26" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.3">
@@ -3328,7 +3330,7 @@
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.3">
@@ -3338,27 +3340,27 @@
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -3368,12 +3370,12 @@
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3404,7 +3406,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3922,11 +3924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B172" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="B169" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="S186" sqref="S186"/>
     </sheetView>
   </sheetViews>
@@ -3940,88 +3942,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.3">
@@ -4157,7 +4159,7 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="X66" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.3">
@@ -4165,7 +4167,7 @@
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
@@ -4311,7 +4313,7 @@
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -4327,7 +4329,7 @@
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -4345,7 +4347,7 @@
     </row>
     <row r="80" spans="3:24" x14ac:dyDescent="0.3">
       <c r="F80" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
@@ -4354,19 +4356,19 @@
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="35" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G86" s="16"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G87" s="16"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="35" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G88" s="16"/>
     </row>
@@ -4376,12 +4378,12 @@
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G99" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G100" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.3">
@@ -4389,38 +4391,38 @@
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G111" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G133" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G134" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G136" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G141" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G150" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="178" spans="6:22" x14ac:dyDescent="0.3">
       <c r="R178" s="16"/>
       <c r="S178" s="35" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T178" s="16"/>
       <c r="U178" s="16"/>
@@ -4429,7 +4431,7 @@
     <row r="179" spans="6:22" x14ac:dyDescent="0.3">
       <c r="R179" s="16"/>
       <c r="S179" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="T179" s="16"/>
       <c r="U179" s="16"/>
@@ -4438,7 +4440,7 @@
     <row r="180" spans="6:22" x14ac:dyDescent="0.3">
       <c r="R180" s="16"/>
       <c r="S180" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T180" s="16"/>
       <c r="U180" s="16"/>
@@ -4451,7 +4453,7 @@
       <c r="J181" s="16"/>
       <c r="R181" s="16"/>
       <c r="S181" s="35" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="T181" s="16"/>
       <c r="U181" s="16"/>
@@ -4509,7 +4511,7 @@
       <c r="J186" s="16"/>
       <c r="R186" s="16"/>
       <c r="S186" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="T186" s="37"/>
       <c r="U186" s="16"/>
@@ -4523,7 +4525,7 @@
       <c r="J187" s="16"/>
       <c r="R187" s="16"/>
       <c r="S187" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="T187" s="37"/>
       <c r="U187" s="37"/>
@@ -4537,7 +4539,7 @@
       <c r="J188" s="16"/>
       <c r="R188" s="16"/>
       <c r="S188" s="35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="T188" s="16"/>
       <c r="U188" s="16"/>
@@ -4551,7 +4553,7 @@
       <c r="J189" s="16"/>
       <c r="R189" s="16"/>
       <c r="S189" s="37" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="T189" s="37"/>
       <c r="U189" s="16"/>
@@ -5507,7 +5509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I16"/>
   <sheetViews>
@@ -5526,66 +5528,66 @@
   <sheetData>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="38"/>
+        <v>269</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47">
+      <c r="B3" s="48">
         <v>100</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="48">
         <v>20</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="48">
         <v>200</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="48">
         <v>2</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="48">
         <v>1</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="48">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5593,50 +5595,50 @@
     <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="B10" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="40"/>
+        <v>245</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="40"/>
+        <v>176</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="40"/>
+        <v>148</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5659,7 +5661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:F29"/>
   <sheetViews>
@@ -5680,234 +5682,234 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="41"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="41"/>
+      <c r="C5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="41"/>
+      <c r="C6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="41"/>
+      <c r="C7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="50"/>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="50"/>
+      <c r="C10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="49"/>
+      <c r="C11" s="3" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="49"/>
-      <c r="C10" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>156</v>
+      <c r="B12" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>155</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
-        <v>211</v>
+      <c r="B14" s="48" t="s">
+        <v>210</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
-        <v>209</v>
+      <c r="B17" s="48" t="s">
+        <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
-        <v>175</v>
+      <c r="B19" s="48" t="s">
+        <v>174</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
-        <v>154</v>
+      <c r="B22" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="50"/>
+      <c r="C25" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="50"/>
+      <c r="C26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="50"/>
+      <c r="C27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="50"/>
+      <c r="C28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="49"/>
-      <c r="C25" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="6" t="s">
         <v>33</v>
       </c>
@@ -5932,12 +5934,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="E3:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5949,203 +5951,203 @@
   <sheetData>
     <row r="3" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E3" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E5" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E6" s="36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E7" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E8" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E11" s="36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="5:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="E12" s="62" t="s">
-        <v>380</v>
+      <c r="E12" s="38" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E13" s="36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E14" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E15" s="36" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E16" s="36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="36" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="36" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="36" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="36" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="36" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="3" t="s">
-        <v>322</v>
+      <c r="E33" s="36" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="3" t="s">
-        <v>336</v>
+      <c r="E34" s="36" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="3" t="s">
-        <v>59</v>
+      <c r="E35" s="36" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="36" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
@@ -6155,22 +6157,22 @@
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6181,7 +6183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="G1:I57"/>
   <sheetViews>
@@ -6201,443 +6203,462 @@
   <sheetData>
     <row r="1" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G2" s="50">
+      <c r="G2" s="51">
         <v>45313</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>190</v>
+        <v>168</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" s="48"/>
+        <v>172</v>
+      </c>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="50">
+      <c r="G4" s="51">
         <v>45317</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="53"/>
+      <c r="H5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="51">
+        <v>45320</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="52"/>
+      <c r="H7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="52"/>
+      <c r="H8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="53"/>
+      <c r="H9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="49"/>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="51">
+        <v>45323</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G5" s="52"/>
-      <c r="H5" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G6" s="50">
-        <v>45320</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" s="47"/>
-    </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G7" s="51"/>
-      <c r="H7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G8" s="51"/>
-      <c r="H8" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I8" s="49"/>
-    </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="52"/>
-      <c r="H9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="48"/>
-    </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="50">
-        <v>45323</v>
-      </c>
-      <c r="H10" s="3" t="s">
+    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="52"/>
+      <c r="H11" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="52"/>
+      <c r="H12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="52"/>
+      <c r="H13" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="53"/>
+      <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="51"/>
-      <c r="H11" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I11" s="49"/>
-    </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="51"/>
-      <c r="H12" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I12" s="49"/>
-    </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="51"/>
-      <c r="H13" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I13" s="49"/>
-    </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="52"/>
-      <c r="H14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="48"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G15" s="50" t="s">
-        <v>282</v>
+      <c r="G15" s="51" t="s">
+        <v>281</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>144</v>
+      <c r="I15" s="48" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="I16" s="49"/>
+        <v>277</v>
+      </c>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I17" s="49"/>
+        <v>280</v>
+      </c>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="48"/>
+        <v>104</v>
+      </c>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G19" s="50" t="s">
-        <v>226</v>
+      <c r="G19" s="51" t="s">
+        <v>225</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G21" s="50" t="s">
-        <v>216</v>
+      <c r="G21" s="51" t="s">
+        <v>215</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G23" s="50" t="s">
-        <v>213</v>
+      <c r="G23" s="51" t="s">
+        <v>212</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="47"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="51"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="49"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G25" s="51"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I25" s="49"/>
+        <v>188</v>
+      </c>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="51"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="49"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="51"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="49"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="51"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="I28" s="49"/>
+        <v>336</v>
+      </c>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="52"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="I29" s="48"/>
+        <v>287</v>
+      </c>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="50" t="s">
-        <v>291</v>
+      <c r="G30" s="51" t="s">
+        <v>290</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="47"/>
+      <c r="I30" s="48"/>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G31" s="51"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="49"/>
+        <v>110</v>
+      </c>
+      <c r="I31" s="50"/>
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G32" s="52"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I32" s="48"/>
+        <v>285</v>
+      </c>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G33" s="50" t="s">
-        <v>292</v>
+      <c r="G33" s="51" t="s">
+        <v>291</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="47"/>
+        <v>109</v>
+      </c>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G34" s="51"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="49"/>
+        <v>95</v>
+      </c>
+      <c r="I34" s="50"/>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G35" s="51"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="I35" s="49"/>
+        <v>340</v>
+      </c>
+      <c r="I35" s="50"/>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G36" s="51"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I36" s="49"/>
+        <v>321</v>
+      </c>
+      <c r="I36" s="50"/>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G37" s="51"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="49"/>
+        <v>100</v>
+      </c>
+      <c r="I37" s="50"/>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="48"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" spans="7:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="50" t="s">
-        <v>279</v>
+      <c r="G39" s="51" t="s">
+        <v>278</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="53" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G40" s="51"/>
+      <c r="G40" s="52"/>
       <c r="H40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="49"/>
+      <c r="I40" s="50"/>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G41" s="51"/>
+      <c r="G41" s="52"/>
       <c r="H41" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="49"/>
+        <v>93</v>
+      </c>
+      <c r="I41" s="50"/>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G42" s="51"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I42" s="49"/>
+        <v>105</v>
+      </c>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G43" s="52"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="48"/>
+      <c r="I43" s="49"/>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="48"/>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G45" s="53"/>
+      <c r="H45" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="49"/>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G46" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="47"/>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G45" s="52"/>
-      <c r="H45" s="3" t="s">
+      <c r="I46" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G47" s="53"/>
+      <c r="H47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I45" s="48"/>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G46" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="I46" s="47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G47" s="52"/>
-      <c r="H47" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" s="48"/>
+      <c r="I47" s="49"/>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G48" s="50" t="s">
-        <v>273</v>
+      <c r="G48" s="51" t="s">
+        <v>272</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G49" s="51"/>
+      <c r="G49" s="52"/>
       <c r="H49" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G50" s="52"/>
+      <c r="G50" s="53"/>
       <c r="H50" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G51" s="54" t="s">
-        <v>355</v>
+      <c r="G51" s="55" t="s">
+        <v>352</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G52" s="52"/>
+      <c r="G52" s="53"/>
       <c r="H52" s="36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H53" s="36" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H54" s="36" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H55" s="36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H56" s="36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H57" s="36" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
     <mergeCell ref="G39:G43"/>
     <mergeCell ref="I39:I43"/>
     <mergeCell ref="G44:G45"/>
@@ -6646,25 +6667,6 @@
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="I30:I32"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -6673,7 +6675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D1:AH10"/>
   <sheetViews>
@@ -6703,39 +6705,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D1" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="L1" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" s="40"/>
+      <c r="D1" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="41"/>
+      <c r="L1" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="4:34" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6744,18 +6746,18 @@
         <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="T3" s="11"/>
@@ -6782,40 +6784,40 @@
     <row r="5" spans="4:34" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="3"/>
       <c r="J5" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="I7" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="L7" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="M7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="L7" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="4:34" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="4:34" ht="165" customHeight="1" x14ac:dyDescent="0.3">
@@ -6833,14 +6835,14 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/4750-fantasy-rpg-icons-pack-229460"/>
+    <hyperlink ref="M9" r:id="rId6" tooltip="https://assetstore.unity.com/packages/2d/gui/icons/game-ui-02-226448"/>
+    <hyperlink ref="M10" r:id="rId7" tooltip="https://assetstore.unity.com/packages/2d/gui/ancient-egypt-gui-143451"/>
+    <hyperlink ref="M5" r:id="rId8" tooltip="https://assetstore.unity.com/packages/2d/characters/2d-spine-boss-set-134049"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -6849,7 +6851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J66"/>
   <sheetViews>
@@ -6873,134 +6875,134 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+        <v>246</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="59" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="57"/>
+        <v>261</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+        <v>264</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="59"/>
+        <v>299</v>
+      </c>
+      <c r="F3" s="60"/>
       <c r="H3" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F4" s="60"/>
+        <v>295</v>
+      </c>
+      <c r="F4" s="61"/>
       <c r="H4" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I4" s="20"/>
-      <c r="J4" s="58"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I5" s="20"/>
-      <c r="J5" s="59"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="J6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>55</v>
@@ -7009,16 +7011,16 @@
         <v>13</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>50</v>
@@ -7033,184 +7035,184 @@
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>297</v>
+      <c r="B11" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>296</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="25"/>
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="25"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="25"/>
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="H14" s="20"/>
       <c r="I14" s="25"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="43" t="s">
-        <v>201</v>
+      <c r="B15" s="41"/>
+      <c r="C15" s="44" t="s">
+        <v>200</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="25"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="25"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="H17" s="20"/>
       <c r="I17" s="25"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="43" t="s">
-        <v>202</v>
+      <c r="B18" s="41"/>
+      <c r="C18" s="44" t="s">
+        <v>201</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="25"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="25"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="61"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="25"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="22"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="43" t="s">
-        <v>203</v>
+      <c r="B24" s="41"/>
+      <c r="C24" s="44" t="s">
+        <v>202</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="18"/>
@@ -7222,30 +7224,30 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>235</v>
+      <c r="B27" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>234</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="18"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="18"/>
@@ -7258,13 +7260,13 @@
     </row>
     <row r="30" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>11</v>
@@ -7423,6 +7425,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="F2:F4"/>
@@ -7431,17 +7438,12 @@
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B11:B25"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="E30" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>

--- a/스펜타.xlsx
+++ b/스펜타.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="권능" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
 스킬 계수 : 2.0 / 쿨타임 : 7초 / 사정거리 : 전방 50</t>
   </si>
   <si>
-    <t>*도와줘서 고마워, 내가 가진 불꽃의 힘을 일부 나눠줄게.</t>
-  </si>
-  <si>
     <t>Combat Whooshes 사운드 팩 ( 0:19 / 0:03 / 0:19 )</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
   <si>
     <t>네임드 몬스터 처치를 통해 획득한 
 꺠달음의 조각으로 자라투스트라의 모닥불에서 강화 가능</t>
-  </si>
-  <si>
-    <t>* 구해주러 왔구나! 너에게서 스펜타님의 힘이 느껴져…</t>
   </si>
   <si>
     <t>스킬 사용 후 1초 이내에
@@ -393,9 +387,6 @@
     <t>몬스터 랜덤 배치 시스템</t>
   </si>
   <si>
-    <t>* 스펜타 님을 위하여..!</t>
-  </si>
-  <si>
     <t>빛의 권능 전설 특성 적용</t>
   </si>
   <si>
@@ -1148,9 +1139,6 @@
     <t xml:space="preserve">    -SceneLoad.stage</t>
   </si>
   <si>
-    <t>* 다에바를 도륙하고 악을 심판하리라!</t>
-  </si>
-  <si>
     <t>Dungeon
 Characters
 2D</t>
@@ -1172,9 +1160,6 @@
   </si>
   <si>
     <t>버튼 위에 마우스를 올렷을 때 나는 소리</t>
-  </si>
-  <si>
-    <t>* 고난을 이겨내고 악을 물리치기를…</t>
   </si>
   <si>
     <t>비전투 상태 3초 이후 보호막 재생성</t>
@@ -1453,6 +1438,26 @@
   </si>
   <si>
     <t>* 저기 있는 깨달음의 모닥불을 바라보며 한번 사색에 잠겨 보는 것도 좋겠군.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 구해주러 왔구나! 너에게서 스펜타님의 힘이 느껴져…</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>*도와줘서 고마워, 내가 가진 불꽃의 힘을 일부 나눠줄게.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 고난을 이겨내고 악을 물리치기를…</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스펜타 님을 위하여..!</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 다에바를 도륙하고 악을 심판하리라!</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2916,132 +2921,132 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3049,25 +3054,25 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>16</v>
@@ -3075,13 +3080,13 @@
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H9" s="41"/>
     </row>
@@ -3091,7 +3096,7 @@
       <c r="C10" s="46"/>
       <c r="D10" s="47"/>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
@@ -3099,7 +3104,7 @@
     </row>
     <row r="11" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>15</v>
@@ -3107,10 +3112,10 @@
       <c r="C11" s="43"/>
       <c r="D11" s="44"/>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>5</v>
@@ -3123,7 +3128,7 @@
       <c r="C12" s="46"/>
       <c r="D12" s="47"/>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
@@ -3131,21 +3136,21 @@
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="44"/>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H13" s="41"/>
     </row>
@@ -3155,7 +3160,7 @@
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
@@ -3163,10 +3168,10 @@
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
@@ -3217,7 +3222,7 @@
   <sheetData>
     <row r="3" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.3">
@@ -3235,27 +3240,27 @@
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D7" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D8" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D9" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D10" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D11" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.3">
@@ -3275,22 +3280,22 @@
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D15" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D16" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
@@ -3300,27 +3305,27 @@
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="26" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="27" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.3">
@@ -3330,7 +3335,7 @@
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.3">
@@ -3340,27 +3345,27 @@
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="28" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -3370,12 +3375,12 @@
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="27" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3406,7 +3411,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3928,7 +3933,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X318"/>
   <sheetViews>
-    <sheetView topLeftCell="B169" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B169" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="S186" sqref="S186"/>
     </sheetView>
   </sheetViews>
@@ -3943,7 +3948,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -3951,79 +3956,79 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.3">
@@ -4115,7 +4120,7 @@
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -4131,7 +4136,7 @@
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
@@ -4142,7 +4147,7 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="X65" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.3">
@@ -4159,7 +4164,7 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="X66" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.3">
@@ -4167,7 +4172,7 @@
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
@@ -4183,7 +4188,7 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -4313,7 +4318,7 @@
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
@@ -4329,7 +4334,7 @@
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -4342,12 +4347,12 @@
     </row>
     <row r="79" spans="3:24" x14ac:dyDescent="0.3">
       <c r="F79" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="3:24" x14ac:dyDescent="0.3">
       <c r="F80" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
@@ -4356,19 +4361,19 @@
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="35" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G86" s="16"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="35" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G87" s="16"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="35" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G88" s="16"/>
     </row>
@@ -4378,12 +4383,12 @@
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G99" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G100" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.3">
@@ -4391,38 +4396,38 @@
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G111" s="16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G133" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G134" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G136" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G141" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G150" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="6:22" x14ac:dyDescent="0.3">
       <c r="R178" s="16"/>
       <c r="S178" s="35" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="T178" s="16"/>
       <c r="U178" s="16"/>
@@ -4431,7 +4436,7 @@
     <row r="179" spans="6:22" x14ac:dyDescent="0.3">
       <c r="R179" s="16"/>
       <c r="S179" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="T179" s="16"/>
       <c r="U179" s="16"/>
@@ -4440,7 +4445,7 @@
     <row r="180" spans="6:22" x14ac:dyDescent="0.3">
       <c r="R180" s="16"/>
       <c r="S180" s="35" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="T180" s="16"/>
       <c r="U180" s="16"/>
@@ -4453,7 +4458,7 @@
       <c r="J181" s="16"/>
       <c r="R181" s="16"/>
       <c r="S181" s="35" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="T181" s="16"/>
       <c r="U181" s="16"/>
@@ -4511,7 +4516,7 @@
       <c r="J186" s="16"/>
       <c r="R186" s="16"/>
       <c r="S186" s="37" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="T186" s="37"/>
       <c r="U186" s="16"/>
@@ -4525,7 +4530,7 @@
       <c r="J187" s="16"/>
       <c r="R187" s="16"/>
       <c r="S187" s="37" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="T187" s="37"/>
       <c r="U187" s="37"/>
@@ -4539,7 +4544,7 @@
       <c r="J188" s="16"/>
       <c r="R188" s="16"/>
       <c r="S188" s="35" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="T188" s="16"/>
       <c r="U188" s="16"/>
@@ -4553,7 +4558,7 @@
       <c r="J189" s="16"/>
       <c r="R189" s="16"/>
       <c r="S189" s="37" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="T189" s="37"/>
       <c r="U189" s="16"/>
@@ -5528,25 +5533,25 @@
   <sheetData>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I2" s="39"/>
     </row>
@@ -5570,10 +5575,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5584,10 +5589,10 @@
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
       <c r="H4" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5596,7 +5601,7 @@
     <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -5606,37 +5611,37 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E14" s="41"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E15" s="41"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E16" s="41"/>
     </row>
@@ -5682,236 +5687,236 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="41" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="41"/>
       <c r="C4" s="49"/>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="41"/>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="41"/>
       <c r="C6" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="50"/>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="50"/>
       <c r="C10" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="49"/>
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="49"/>
       <c r="C15" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="48" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="49"/>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="50"/>
       <c r="C20" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="49"/>
       <c r="C21" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="50"/>
       <c r="C23" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="50"/>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="50"/>
       <c r="C25" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="50"/>
       <c r="C26" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="50"/>
       <c r="C27" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="50"/>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="49"/>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -5938,8 +5943,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="E3:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5951,228 +5956,228 @@
   <sheetData>
     <row r="3" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E3" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E5" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E6" s="36" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E7" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E8" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="5:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E11" s="36" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="5:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E12" s="38" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E13" s="36" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E14" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E15" s="36" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E16" s="36" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="36" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="36" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="36" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="36" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="36" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="36" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="36" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="36" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="36" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="36" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="36" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="3" t="s">
-        <v>66</v>
+      <c r="E48" s="36" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="3" t="s">
-        <v>17</v>
+      <c r="E49" s="36" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="3" t="s">
-        <v>338</v>
+      <c r="E51" s="36" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="3" t="s">
-        <v>98</v>
+      <c r="E52" s="36" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="3" t="s">
-        <v>330</v>
+      <c r="E53" s="36" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6203,13 +6208,13 @@
   <sheetData>
     <row r="1" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G1" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="7:9" x14ac:dyDescent="0.3">
@@ -6217,16 +6222,16 @@
         <v>45313</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G3" s="53"/>
       <c r="H3" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I3" s="49"/>
     </row>
@@ -6235,16 +6240,16 @@
         <v>45317</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G5" s="53"/>
       <c r="H5" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I5" s="49"/>
     </row>
@@ -6253,28 +6258,28 @@
         <v>45320</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G7" s="52"/>
       <c r="H7" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I7" s="50"/>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G8" s="52"/>
       <c r="H8" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I8" s="50"/>
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G9" s="53"/>
       <c r="H9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="49"/>
     </row>
@@ -6283,78 +6288,78 @@
         <v>45323</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G11" s="52"/>
       <c r="H11" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G12" s="52"/>
       <c r="H12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I12" s="50"/>
     </row>
     <row r="13" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G13" s="52"/>
       <c r="H13" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G14" s="53"/>
       <c r="H14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I14" s="49"/>
     </row>
     <row r="15" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G15" s="51" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G16" s="52"/>
       <c r="H16" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I16" s="50"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="52"/>
       <c r="H17" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="53"/>
       <c r="H18" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I18" s="49"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" s="51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I19" s="40" t="s">
         <v>10</v>
@@ -6363,231 +6368,231 @@
     <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="53"/>
       <c r="H20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="40"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G22" s="53"/>
       <c r="H22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G23" s="51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="48"/>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G24" s="52"/>
       <c r="H24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" s="50"/>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G25" s="52"/>
       <c r="H25" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I25" s="50"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G26" s="52"/>
       <c r="H26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="50"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G27" s="52"/>
       <c r="H27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="50"/>
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G28" s="52"/>
       <c r="H28" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I28" s="50"/>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G29" s="53"/>
       <c r="H29" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I29" s="49"/>
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G30" s="51" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="48"/>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G31" s="52"/>
       <c r="H31" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I31" s="50"/>
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G32" s="53"/>
       <c r="H32" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I32" s="49"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G33" s="51" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I33" s="48"/>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G34" s="52"/>
       <c r="H34" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I34" s="50"/>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G35" s="52"/>
       <c r="H35" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I35" s="50"/>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G36" s="52"/>
       <c r="H36" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I36" s="50"/>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G37" s="52"/>
       <c r="H37" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I37" s="50"/>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38" s="53"/>
       <c r="H38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I38" s="49"/>
     </row>
     <row r="39" spans="7:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="51" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I39" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G40" s="52"/>
       <c r="H40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I40" s="50"/>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G41" s="52"/>
       <c r="H41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I41" s="50"/>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G42" s="52"/>
       <c r="H42" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I42" s="50"/>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G43" s="53"/>
       <c r="H43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I43" s="49"/>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G44" s="51" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I44" s="48"/>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G45" s="53"/>
       <c r="H45" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I45" s="49"/>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G46" s="51" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I46" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G47" s="53"/>
       <c r="H47" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I47" s="49"/>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G48" s="51" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G49" s="52"/>
       <c r="H49" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.3">
@@ -6598,67 +6603,48 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G51" s="55" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G52" s="53"/>
       <c r="H52" s="36" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H53" s="36" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H54" s="36" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H55" s="36" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H56" s="36" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.3">
       <c r="H57" s="36" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="G23:G29"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
     <mergeCell ref="G39:G43"/>
     <mergeCell ref="I39:I43"/>
     <mergeCell ref="G44:G45"/>
@@ -6667,6 +6653,25 @@
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="G23:G29"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="I30:I32"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -6680,7 +6685,7 @@
   <dimension ref="D1:AH10"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6706,58 +6711,58 @@
   <sheetData>
     <row r="1" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D1" s="56" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
       <c r="G1" s="58"/>
       <c r="I1" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J1" s="41"/>
       <c r="L1" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M1" s="41"/>
     </row>
     <row r="2" spans="4:34" x14ac:dyDescent="0.3">
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="4:34" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="3"/>
       <c r="E3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="T3" s="11"/>
@@ -6784,45 +6789,45 @@
     <row r="5" spans="4:34" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I5" s="3"/>
       <c r="J5" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="4:34" x14ac:dyDescent="0.3">
       <c r="I7" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J7" s="41"/>
       <c r="L7" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M7" s="41"/>
     </row>
     <row r="8" spans="4:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="4:34" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="4:34" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M10" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6875,66 +6880,66 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I1" s="57"/>
       <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I2" s="56"/>
       <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F3" s="60"/>
       <c r="H3" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="29"/>
@@ -6943,14 +6948,14 @@
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F4" s="61"/>
       <c r="H4" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="59"/>
@@ -6959,13 +6964,13 @@
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="60"/>
@@ -6974,13 +6979,13 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="61"/>
@@ -6989,10 +6994,10 @@
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -7002,16 +7007,16 @@
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="30"/>
@@ -7020,10 +7025,10 @@
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
       <c r="D9" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="25"/>
@@ -7036,16 +7041,16 @@
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C11" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="25"/>
@@ -7055,10 +7060,10 @@
       <c r="B12" s="41"/>
       <c r="C12" s="62"/>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="25"/>
@@ -7068,10 +7073,10 @@
       <c r="B13" s="41"/>
       <c r="C13" s="47"/>
       <c r="D13" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="25"/>
@@ -7086,13 +7091,13 @@
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="41"/>
       <c r="C15" s="44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="25"/>
@@ -7102,10 +7107,10 @@
       <c r="B16" s="41"/>
       <c r="C16" s="47"/>
       <c r="D16" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="25"/>
@@ -7120,13 +7125,13 @@
     <row r="18" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="41"/>
       <c r="C18" s="44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="25"/>
@@ -7136,10 +7141,10 @@
       <c r="B19" s="41"/>
       <c r="C19" s="62"/>
       <c r="D19" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="25"/>
@@ -7149,10 +7154,10 @@
       <c r="B20" s="41"/>
       <c r="C20" s="62"/>
       <c r="D20" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="25"/>
@@ -7162,10 +7167,10 @@
       <c r="B21" s="41"/>
       <c r="C21" s="62"/>
       <c r="D21" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="22"/>
@@ -7175,10 +7180,10 @@
       <c r="B22" s="41"/>
       <c r="C22" s="47"/>
       <c r="D22" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -7193,13 +7198,13 @@
     <row r="24" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="41"/>
       <c r="C24" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -7209,10 +7214,10 @@
       <c r="B25" s="41"/>
       <c r="C25" s="47"/>
       <c r="D25" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="18"/>
@@ -7225,16 +7230,16 @@
     </row>
     <row r="27" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="18"/>
@@ -7244,10 +7249,10 @@
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="18"/>
@@ -7260,13 +7265,13 @@
     </row>
     <row r="30" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>11</v>
@@ -7425,11 +7430,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="F2:F4"/>
@@ -7438,6 +7438,11 @@
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B11:B25"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
